--- a/JumperT8SG/voice/2-trim/files.xlsx
+++ b/JumperT8SG/voice/2-trim/files.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erwin\Desktop\Research\JumperT8SG\voice\2-trim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A2EA5B0-2815-4B76-BA55-A266A13C9DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ABFC9A-C3C3-4194-B082-CFE9BF9761B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1997" yWindow="6103" windowWidth="23434" windowHeight="15017" activeTab="2" xr2:uid="{C40F0988-F622-4CE7-9E9C-F802A88E2C37}"/>
+    <workbookView xWindow="0" yWindow="17" windowWidth="23434" windowHeight="15017" activeTab="3" xr2:uid="{C40F0988-F622-4CE7-9E9C-F802A88E2C37}"/>
   </bookViews>
   <sheets>
     <sheet name="rename" sheetId="1" r:id="rId1"/>
     <sheet name="lengths" sheetId="2" r:id="rId2"/>
     <sheet name="original" sheetId="3" r:id="rId3"/>
+    <sheet name="fx" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="988">
   <si>
     <t>original</t>
   </si>
@@ -2814,6 +2815,189 @@
   </si>
   <si>
     <t>354=timer reset,1087</t>
+  </si>
+  <si>
+    <t>balls of steel</t>
+  </si>
+  <si>
+    <t>boom</t>
+  </si>
+  <si>
+    <t>cartman2</t>
+  </si>
+  <si>
+    <t>im really rich</t>
+  </si>
+  <si>
+    <t>nooo</t>
+  </si>
+  <si>
+    <t>dramatic</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>careless whisper</t>
+  </si>
+  <si>
+    <t>get choppah</t>
+  </si>
+  <si>
+    <t>ha ha</t>
+  </si>
+  <si>
+    <t>ill be back</t>
+  </si>
+  <si>
+    <t>inception</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t>joke</t>
+  </si>
+  <si>
+    <t>authoritah</t>
+  </si>
+  <si>
+    <t>metal gear</t>
+  </si>
+  <si>
+    <t>airhorn</t>
+  </si>
+  <si>
+    <t>elevator music</t>
+  </si>
+  <si>
+    <t>no problemo</t>
+  </si>
+  <si>
+    <t>over9000</t>
+  </si>
+  <si>
+    <t>fart</t>
+  </si>
+  <si>
+    <t>ps1</t>
+  </si>
+  <si>
+    <t>retard</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>sexy</t>
+  </si>
+  <si>
+    <t>shutup</t>
+  </si>
+  <si>
+    <t>this is sparta</t>
+  </si>
+  <si>
+    <t>trololol</t>
+  </si>
+  <si>
+    <t>zelda</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>0400_balls of steel.mp3</t>
+  </si>
+  <si>
+    <t>0401_boom.mp3</t>
+  </si>
+  <si>
+    <t>0402_cartman2.mp3</t>
+  </si>
+  <si>
+    <t>0403_im really rich.mp3</t>
+  </si>
+  <si>
+    <t>0404_dramatic.mp3</t>
+  </si>
+  <si>
+    <t>0405_epic.mp3</t>
+  </si>
+  <si>
+    <t>0406_careless whisper.mp3</t>
+  </si>
+  <si>
+    <t>0407_get choppah.mp3</t>
+  </si>
+  <si>
+    <t>0408_ha ha.mp3</t>
+  </si>
+  <si>
+    <t>0409_ill be back.mp3</t>
+  </si>
+  <si>
+    <t>0410_inception.mp3</t>
+  </si>
+  <si>
+    <t>0411_very nice.mp3</t>
+  </si>
+  <si>
+    <t>0412_joke.mp3</t>
+  </si>
+  <si>
+    <t>0413_authoritah.mp3</t>
+  </si>
+  <si>
+    <t>0414_metal gear.mp3</t>
+  </si>
+  <si>
+    <t>0415_airhorn.mp3</t>
+  </si>
+  <si>
+    <t>0416_elevator music.mp3</t>
+  </si>
+  <si>
+    <t>0417_nooo.mp3</t>
+  </si>
+  <si>
+    <t>0418_no problemo.mp3</t>
+  </si>
+  <si>
+    <t>0419_over9000.mp3</t>
+  </si>
+  <si>
+    <t>0420_fart.mp3</t>
+  </si>
+  <si>
+    <t>0421_ps1.mp3</t>
+  </si>
+  <si>
+    <t>0422_retard.mp3</t>
+  </si>
+  <si>
+    <t>0423_sad.mp3</t>
+  </si>
+  <si>
+    <t>0424_sexy.mp3</t>
+  </si>
+  <si>
+    <t>0425_shutup.mp3</t>
+  </si>
+  <si>
+    <t>0426_this is sparta.mp3</t>
+  </si>
+  <si>
+    <t>0427_trololol.mp3</t>
+  </si>
+  <si>
+    <t>0428_zelda.mp3</t>
   </si>
 </sst>
 </file>
@@ -3167,8 +3351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9D8750-CDF0-41D0-872B-1B95574883DC}">
   <dimension ref="A1:C307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6865,2764 +7049,2762 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726B3F70-3ED9-4DE2-AA97-3B8DE9CC430F}">
   <dimension ref="A1:B306"/>
   <sheetViews>
-    <sheetView topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>1.32</v>
+        <v>1.704</v>
       </c>
       <c r="B1">
-        <f>A1*1000</f>
-        <v>1320</v>
+        <f>(A1*1000)-350</f>
+        <v>1354</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>0.69599999999999995</v>
+        <v>1.008</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" si="0">A2*1000</f>
-        <v>696</v>
+        <f t="shared" ref="B2:B65" si="0">(A2*1000)-350</f>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>0.624</v>
+        <v>1.032</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>624</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1.2</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1.1279999999999999</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1128</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1.2</v>
+        <v>1.6559999999999999</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1.224</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>1224</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1.968</v>
+        <v>2.2559999999999998</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>1968</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1.032</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1032</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>0.91200000000000003</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>912</v>
+        <v>994</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>0.69599999999999995</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>0.52800000000000002</v>
+        <v>1.008</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>528</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>0.57599999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1.44</v>
+        <v>1.8720000000000001</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1.4159999999999999</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1416</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1.44</v>
+        <v>1.944</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1.512</v>
+        <v>1.92</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1512</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1.464</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1464</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1.464</v>
+        <v>1.92</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1464</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1.224</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1224</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>0.624</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>0.48</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>0.504</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>0.52800000000000002</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>0.504</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>0.48</v>
+        <v>0.84</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>0.6</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>0.52800000000000002</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>528</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>0.40799999999999997</v>
+        <v>0.72</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>0.57599999999999996</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>0.40799999999999997</v>
+        <v>0.84</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>0.55200000000000005</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>552</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>0.432</v>
+        <v>0.84</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>0.64800000000000002</v>
+        <v>1.056</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>648</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>0.6</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>754</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>0.624</v>
+        <v>1.032</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>624</v>
+        <v>682</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>0.69599999999999995</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>696</v>
+        <v>754</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>0.72</v>
+        <v>1.2</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>850</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>0.64800000000000002</v>
+        <v>1.056</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>648</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>0.67200000000000004</v>
+        <v>1.08</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>672</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>0.48</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>0.81599999999999995</v>
+        <v>1.224</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>816</v>
+        <v>874</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>0.88800000000000001</v>
+        <v>1.272</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>888</v>
+        <v>922</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>0.91200000000000003</v>
+        <v>1.224</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>912</v>
+        <v>874</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>0.81599999999999995</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>0.81599999999999995</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>816</v>
+        <v>802</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>0.91200000000000003</v>
+        <v>1.296</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>912</v>
+        <v>946</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>0.69599999999999995</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>696</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>0.86399999999999999</v>
+        <v>1.224</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>864</v>
+        <v>874</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>0.45600000000000002</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>538</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>0.79200000000000004</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>792</v>
+        <v>826</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>0.69599999999999995</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>696</v>
+        <v>754</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>0.84</v>
+        <v>1.224</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>874</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>0.81599999999999995</v>
+        <v>1.2</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>816</v>
+        <v>850</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>0.74399999999999999</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>744</v>
+        <v>802</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>0.74399999999999999</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>744</v>
+        <v>778</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>0.86399999999999999</v>
+        <v>1.248</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>864</v>
+        <v>898</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>0.67200000000000004</v>
+        <v>1.08</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>672</v>
+        <v>730</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>0.432</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>0.81599999999999995</v>
+        <v>1.224</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>816</v>
+        <v>874</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>0.86399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>864</v>
+        <v>850</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>0.88800000000000001</v>
+        <v>1.296</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>888</v>
+        <v>946</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>0.84</v>
+        <v>1.224</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>874</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>0.88800000000000001</v>
+        <v>1.272</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B129" si="1">A66*1000</f>
-        <v>888</v>
+        <f t="shared" ref="B66:B129" si="1">(A66*1000)-350</f>
+        <v>922</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>0.74399999999999999</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="B67">
         <f t="shared" si="1"/>
-        <v>744</v>
+        <v>802</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>0.88800000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>888</v>
+        <v>970</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>0.69599999999999995</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>778</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>0.79200000000000004</v>
+        <v>1.248</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>792</v>
+        <v>898</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>0.48</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>0.76800000000000002</v>
+        <v>1.224</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
-        <v>768</v>
+        <v>874</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>0.86399999999999999</v>
+        <v>1.224</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
-        <v>864</v>
+        <v>874</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>0.86399999999999999</v>
+        <v>1.296</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
-        <v>864</v>
+        <v>946</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>0.86399999999999999</v>
+        <v>1.272</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
-        <v>864</v>
+        <v>922</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>0.79200000000000004</v>
+        <v>1.224</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
-        <v>792</v>
+        <v>874</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>0.79200000000000004</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
-        <v>792</v>
+        <v>826</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>0.88800000000000001</v>
+        <v>1.296</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
-        <v>888</v>
+        <v>946</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>0.72</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>826</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>0.79200000000000004</v>
+        <v>1.248</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
-        <v>792</v>
+        <v>898</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>0.6</v>
+        <v>1.008</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>658</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>0.91200000000000003</v>
+        <v>1.296</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
-        <v>912</v>
+        <v>946</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>0.96</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
-        <v>960</v>
+        <v>994</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>0.98399999999999999</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>0.93600000000000005</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>994</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>0.98399999999999999</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>994</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>0.91200000000000003</v>
+        <v>1.272</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>0.98399999999999999</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
-        <v>984</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>0.81599999999999995</v>
+        <v>1.224</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
-        <v>816</v>
+        <v>874</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>0.93600000000000005</v>
+        <v>1.296</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>946</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>0.6</v>
+        <v>1.008</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>658</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>0.91200000000000003</v>
+        <v>1.32</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
-        <v>912</v>
+        <v>970</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>0.88800000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
-        <v>888</v>
+        <v>970</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>1.032</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
-        <v>1032</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>1.008</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
-        <v>1008</v>
+        <v>994</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>0.91200000000000003</v>
+        <v>1.296</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
-        <v>912</v>
+        <v>946</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>0.93600000000000005</v>
+        <v>1.296</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>946</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>1.008</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
-        <v>1008</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>0.84</v>
+        <v>1.272</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>922</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>0.88800000000000001</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
-        <v>888</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>0.45600000000000002</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>0.76800000000000002</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
-        <v>768</v>
+        <v>826</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>0.81599999999999995</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>0.84</v>
+        <v>1.224</v>
       </c>
       <c r="B104">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>874</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>0.79200000000000004</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B105">
         <f t="shared" si="1"/>
-        <v>792</v>
+        <v>826</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="B106">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>0.74399999999999999</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>0.84</v>
+        <v>1.224</v>
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>874</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>0.69599999999999995</v>
+        <v>1.08</v>
       </c>
       <c r="B109">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>730</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>0.74399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
-        <v>744</v>
+        <v>850</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>0.624</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="B111">
         <f t="shared" si="1"/>
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>0.84</v>
+        <v>1.224</v>
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>874</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>0.81599999999999995</v>
+        <v>1.2</v>
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
-        <v>816</v>
+        <v>850</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>0.93600000000000005</v>
+        <v>1.296</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>946</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>0.88800000000000001</v>
+        <v>1.224</v>
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
-        <v>888</v>
+        <v>874</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>0.81599999999999995</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>0.86399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
-        <v>864</v>
+        <v>850</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>0.91200000000000003</v>
+        <v>1.272</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>0.72</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>778</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>0.86399999999999999</v>
+        <v>1.224</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
-        <v>864</v>
+        <v>874</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>0.74399999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
-        <v>744</v>
+        <v>730</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>0.76800000000000002</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
-        <v>768</v>
+        <v>754</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>0.76800000000000002</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
-        <v>768</v>
+        <v>778</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>0.76800000000000002</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
-        <v>768</v>
+        <v>826</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>0.76800000000000002</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
-        <v>768</v>
+        <v>778</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>0.86399999999999999</v>
+        <v>1.248</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
-        <v>864</v>
+        <v>898</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>0.69599999999999995</v>
+        <v>1.056</v>
       </c>
       <c r="B128">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>0.74399999999999999</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B129">
         <f t="shared" si="1"/>
-        <v>744</v>
+        <v>778</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>0.624</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="B130">
-        <f t="shared" ref="B130:B193" si="2">A130*1000</f>
-        <v>624</v>
+        <f t="shared" ref="B130:B193" si="2">(A130*1000)-350</f>
+        <v>634</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>0.40799999999999997</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="B131">
         <f t="shared" si="2"/>
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>0.57599999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="B132">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>610</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>0.57599999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="B133">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>610</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>0.40799999999999997</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="B134">
         <f t="shared" si="2"/>
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>1.032</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="B135">
         <f t="shared" si="2"/>
-        <v>1032</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>0.74399999999999999</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B136">
         <f t="shared" si="2"/>
-        <v>744</v>
+        <v>778</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>0.57599999999999996</v>
+        <v>1.008</v>
       </c>
       <c r="B137">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>658</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>0.57599999999999996</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="B138">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>514</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>1.3680000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="B139">
         <f t="shared" si="2"/>
-        <v>1368</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>1.1759999999999999</v>
+        <v>1.512</v>
       </c>
       <c r="B140">
         <f t="shared" si="2"/>
-        <v>1176</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>1.056</v>
+        <v>1.464</v>
       </c>
       <c r="B141">
         <f t="shared" si="2"/>
-        <v>1056</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>0.57599999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="B142">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>610</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>0.624</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="B143">
         <f t="shared" si="2"/>
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>0.88800000000000001</v>
+        <v>1.248</v>
       </c>
       <c r="B144">
         <f t="shared" si="2"/>
-        <v>888</v>
+        <v>898</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>0.74399999999999999</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
-        <v>744</v>
+        <v>802</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>0.67200000000000004</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="B146">
         <f t="shared" si="2"/>
-        <v>672</v>
+        <v>634</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>0.57599999999999996</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="B147">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>0.76800000000000002</v>
+        <v>1.008</v>
       </c>
       <c r="B148">
         <f t="shared" si="2"/>
-        <v>768</v>
+        <v>658</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>0.72</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B149">
         <f t="shared" si="2"/>
-        <v>720</v>
+        <v>754</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>0.624</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="B150">
         <f t="shared" si="2"/>
-        <v>624</v>
+        <v>586</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>0.57599999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="B151">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>610</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>1.44</v>
+        <v>1.728</v>
       </c>
       <c r="B152">
         <f t="shared" si="2"/>
-        <v>1440</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>1.1759999999999999</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="B153">
         <f t="shared" si="2"/>
-        <v>1176</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>1.224</v>
+        <v>1.56</v>
       </c>
       <c r="B154">
         <f t="shared" si="2"/>
-        <v>1224</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>1.32</v>
+        <v>1.776</v>
       </c>
       <c r="B155">
         <f t="shared" si="2"/>
-        <v>1320</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>1.1759999999999999</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="B156">
         <f t="shared" si="2"/>
-        <v>1176</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>1.1040000000000001</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="B157">
         <f t="shared" si="2"/>
-        <v>1104</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>0.93600000000000005</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B158">
         <f t="shared" si="2"/>
-        <v>936</v>
+        <v>994</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>0.96</v>
+        <v>1.2</v>
       </c>
       <c r="B159">
         <f t="shared" si="2"/>
-        <v>960</v>
+        <v>850</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>0.69599999999999995</v>
+        <v>1.056</v>
       </c>
       <c r="B160">
         <f t="shared" si="2"/>
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>0.88800000000000001</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B161">
         <f t="shared" si="2"/>
-        <v>888</v>
+        <v>994</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>0.96</v>
+        <v>1.32</v>
       </c>
       <c r="B162">
         <f t="shared" si="2"/>
-        <v>960</v>
+        <v>970</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>1.032</v>
+        <v>1.488</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
-        <v>1032</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>0.81599999999999995</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B164">
         <f t="shared" si="2"/>
-        <v>816</v>
+        <v>778</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>1.1040000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="B165">
         <f t="shared" si="2"/>
-        <v>1104</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>1.056</v>
+        <v>1.44</v>
       </c>
       <c r="B166">
         <f t="shared" si="2"/>
-        <v>1056</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>0.624</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>0.86399999999999999</v>
+        <v>1.272</v>
       </c>
       <c r="B168">
         <f t="shared" si="2"/>
-        <v>864</v>
+        <v>922</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169">
-        <v>0.74399999999999999</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="B169">
         <f t="shared" si="2"/>
-        <v>744</v>
+        <v>802</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>0.74399999999999999</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B170">
         <f t="shared" si="2"/>
-        <v>744</v>
+        <v>826</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>0.86399999999999999</v>
+        <v>1.296</v>
       </c>
       <c r="B171">
         <f t="shared" si="2"/>
-        <v>864</v>
+        <v>946</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>0.93600000000000005</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B172">
         <f t="shared" si="2"/>
-        <v>936</v>
+        <v>994</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>0.64800000000000002</v>
+        <v>1.008</v>
       </c>
       <c r="B173">
         <f t="shared" si="2"/>
-        <v>648</v>
+        <v>658</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>0.57599999999999996</v>
+        <v>1.08</v>
       </c>
       <c r="B174">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>730</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>0.79200000000000004</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B175">
         <f t="shared" si="2"/>
-        <v>792</v>
+        <v>778</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>0.93600000000000005</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="B176">
         <f t="shared" si="2"/>
-        <v>936</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>0.96</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B177">
         <f t="shared" si="2"/>
-        <v>960</v>
+        <v>994</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>1.1040000000000001</v>
+        <v>1.488</v>
       </c>
       <c r="B178">
         <f t="shared" si="2"/>
-        <v>1104</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>0.57599999999999996</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="B179">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>634</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>0.69599999999999995</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B180">
         <f t="shared" si="2"/>
-        <v>696</v>
+        <v>754</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>0.86399999999999999</v>
+        <v>1.296</v>
       </c>
       <c r="B181">
         <f t="shared" si="2"/>
-        <v>864</v>
+        <v>946</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>1.1759999999999999</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="B182">
         <f t="shared" si="2"/>
-        <v>1176</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>1.1519999999999999</v>
+        <v>1.512</v>
       </c>
       <c r="B183">
         <f t="shared" si="2"/>
-        <v>1152</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>0.69599999999999995</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B184">
         <f t="shared" si="2"/>
-        <v>696</v>
+        <v>778</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>0.81599999999999995</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B185">
         <f t="shared" si="2"/>
-        <v>816</v>
+        <v>778</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>0.624</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="B186">
         <f t="shared" si="2"/>
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>0.98399999999999999</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="B187">
         <f t="shared" si="2"/>
-        <v>984</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>0.81599999999999995</v>
+        <v>1.272</v>
       </c>
       <c r="B188">
         <f t="shared" si="2"/>
-        <v>816</v>
+        <v>922</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="B189">
         <f t="shared" si="2"/>
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>0.86399999999999999</v>
+        <v>1.248</v>
       </c>
       <c r="B190">
         <f t="shared" si="2"/>
-        <v>864</v>
+        <v>898</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>0.88800000000000001</v>
+        <v>1.224</v>
       </c>
       <c r="B191">
         <f t="shared" si="2"/>
-        <v>888</v>
+        <v>874</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>1.56</v>
+        <v>2.016</v>
       </c>
       <c r="B192">
         <f t="shared" si="2"/>
-        <v>1560</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>0.79200000000000004</v>
+        <v>1.248</v>
       </c>
       <c r="B193">
         <f t="shared" si="2"/>
-        <v>792</v>
+        <v>898</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>0.69599999999999995</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B194">
-        <f t="shared" ref="B194:B257" si="3">A194*1000</f>
-        <v>696</v>
+        <f t="shared" ref="B194:B257" si="3">(A194*1000)-350</f>
+        <v>754</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>1.1279999999999999</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="B195">
         <f t="shared" si="3"/>
-        <v>1128</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>1.1519999999999999</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="B196">
         <f t="shared" si="3"/>
-        <v>1152</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>1.296</v>
+        <v>1.68</v>
       </c>
       <c r="B197">
         <f t="shared" si="3"/>
-        <v>1296</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>0.72</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B198">
         <f t="shared" si="3"/>
-        <v>720</v>
+        <v>754</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>0.69599999999999995</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B199">
         <f t="shared" si="3"/>
-        <v>696</v>
+        <v>754</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>0.624</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="B200">
         <f t="shared" si="3"/>
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>0.88800000000000001</v>
+        <v>1.272</v>
       </c>
       <c r="B201">
         <f t="shared" si="3"/>
-        <v>888</v>
+        <v>922</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>0.86399999999999999</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B202">
         <f t="shared" si="3"/>
-        <v>864</v>
+        <v>994</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A203">
-        <v>1.056</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="B203">
         <f t="shared" si="3"/>
-        <v>1056</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A204">
-        <v>0.81599999999999995</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B204">
         <f t="shared" si="3"/>
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A205">
-        <v>0.79200000000000004</v>
+        <v>1.224</v>
       </c>
       <c r="B205">
         <f t="shared" si="3"/>
-        <v>792</v>
+        <v>874</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A206">
-        <v>0.76800000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="B206">
         <f t="shared" si="3"/>
-        <v>768</v>
+        <v>850</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A207">
-        <v>0.98399999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="B207">
         <f t="shared" si="3"/>
-        <v>984</v>
+        <v>970</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A208">
-        <v>1.3919999999999999</v>
+        <v>1.728</v>
       </c>
       <c r="B208">
         <f t="shared" si="3"/>
-        <v>1392</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A209">
-        <v>0.79200000000000004</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B209">
         <f t="shared" si="3"/>
-        <v>792</v>
+        <v>778</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A210">
-        <v>0.504</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="B210">
         <f t="shared" si="3"/>
-        <v>504</v>
+        <v>538</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A211">
-        <v>0.72</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B211">
         <f t="shared" si="3"/>
-        <v>720</v>
+        <v>754</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A212">
-        <v>0.624</v>
+        <v>1.056</v>
       </c>
       <c r="B212">
         <f t="shared" si="3"/>
-        <v>624</v>
+        <v>706</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A213">
-        <v>0.88800000000000001</v>
+        <v>1.272</v>
       </c>
       <c r="B213">
         <f t="shared" si="3"/>
-        <v>888</v>
+        <v>922</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A214">
-        <v>1.056</v>
+        <v>1.464</v>
       </c>
       <c r="B214">
         <f t="shared" si="3"/>
-        <v>1056</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A215">
-        <v>1.1040000000000001</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="B215">
         <f t="shared" si="3"/>
-        <v>1104</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A216">
-        <v>0.45600000000000002</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="B216">
         <f t="shared" si="3"/>
-        <v>456</v>
+        <v>514</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A217">
-        <v>0.91200000000000003</v>
+        <v>1.248</v>
       </c>
       <c r="B217">
         <f t="shared" si="3"/>
-        <v>912</v>
+        <v>898</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A218">
-        <v>1.08</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="B218">
         <f t="shared" si="3"/>
-        <v>1080</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A219">
-        <v>0.86399999999999999</v>
+        <v>1.224</v>
       </c>
       <c r="B219">
         <f t="shared" si="3"/>
-        <v>864</v>
+        <v>874</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A220">
-        <v>0.98399999999999999</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B220">
         <f t="shared" si="3"/>
-        <v>984</v>
+        <v>994</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A221">
-        <v>1.296</v>
+        <v>1.752</v>
       </c>
       <c r="B221">
         <f t="shared" si="3"/>
-        <v>1296</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A222">
-        <v>1.08</v>
+        <v>1.56</v>
       </c>
       <c r="B222">
         <f t="shared" si="3"/>
-        <v>1080</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A223">
-        <v>0.91200000000000003</v>
+        <v>1.272</v>
       </c>
       <c r="B223">
         <f t="shared" si="3"/>
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A224">
-        <v>0.81599999999999995</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B224">
         <f t="shared" si="3"/>
-        <v>816</v>
+        <v>778</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A225">
-        <v>0.98399999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="B225">
         <f t="shared" si="3"/>
-        <v>984</v>
+        <v>970</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A226">
-        <v>0.98399999999999999</v>
+        <v>1.296</v>
       </c>
       <c r="B226">
         <f t="shared" si="3"/>
-        <v>984</v>
+        <v>946</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A227">
-        <v>0.81599999999999995</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B227">
         <f t="shared" si="3"/>
-        <v>816</v>
+        <v>754</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>1.3919999999999999</v>
+        <v>1.728</v>
       </c>
       <c r="B228">
         <f t="shared" si="3"/>
-        <v>1392</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>1.1040000000000001</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="B229">
         <f t="shared" si="3"/>
-        <v>1104</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>0.93600000000000005</v>
+        <v>1.248</v>
       </c>
       <c r="B230">
         <f t="shared" si="3"/>
-        <v>936</v>
+        <v>898</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>0.79200000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="B231">
         <f t="shared" si="3"/>
-        <v>792</v>
+        <v>850</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>0.91200000000000003</v>
+        <v>1.32</v>
       </c>
       <c r="B232">
         <f t="shared" si="3"/>
-        <v>912</v>
+        <v>970</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>0.93600000000000005</v>
+        <v>1.296</v>
       </c>
       <c r="B233">
         <f t="shared" si="3"/>
-        <v>936</v>
+        <v>946</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>1.1759999999999999</v>
+        <v>1.464</v>
       </c>
       <c r="B234">
         <f t="shared" si="3"/>
-        <v>1176</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>0.76800000000000002</v>
+        <v>1.224</v>
       </c>
       <c r="B235">
         <f t="shared" si="3"/>
-        <v>768</v>
+        <v>874</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>0.86399999999999999</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B236">
         <f t="shared" si="3"/>
-        <v>864</v>
+        <v>826</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>1.248</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="B237">
         <f t="shared" si="3"/>
-        <v>1248</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>1.1279999999999999</v>
+        <v>1.464</v>
       </c>
       <c r="B238">
         <f t="shared" si="3"/>
-        <v>1128</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>1.1040000000000001</v>
+        <v>1.512</v>
       </c>
       <c r="B239">
         <f t="shared" si="3"/>
-        <v>1104</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>1.1519999999999999</v>
+        <v>1.536</v>
       </c>
       <c r="B240">
         <f t="shared" si="3"/>
-        <v>1152</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>1.1279999999999999</v>
+        <v>1.512</v>
       </c>
       <c r="B241">
         <f t="shared" si="3"/>
-        <v>1128</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>1.1279999999999999</v>
+        <v>1.536</v>
       </c>
       <c r="B242">
         <f t="shared" si="3"/>
-        <v>1128</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>1.248</v>
+        <v>1.536</v>
       </c>
       <c r="B243">
         <f t="shared" si="3"/>
-        <v>1248</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>0.96</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="B244">
         <f t="shared" si="3"/>
-        <v>960</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>1.1040000000000001</v>
+        <v>1.536</v>
       </c>
       <c r="B245">
         <f t="shared" si="3"/>
-        <v>1104</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>1.32</v>
+        <v>1.704</v>
       </c>
       <c r="B246">
         <f t="shared" si="3"/>
-        <v>1320</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>1.3680000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="B247">
         <f t="shared" si="3"/>
-        <v>1368</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>0.86399999999999999</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="B248">
         <f t="shared" si="3"/>
-        <v>864</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>1.224</v>
+        <v>1.536</v>
       </c>
       <c r="B249">
         <f t="shared" si="3"/>
-        <v>1224</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>0.84</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B250">
         <f t="shared" si="3"/>
-        <v>840</v>
+        <v>778</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>1.1759999999999999</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="B251">
         <f t="shared" si="3"/>
-        <v>1176</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A252">
-        <v>1.2</v>
+        <v>1.512</v>
       </c>
       <c r="B252">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A253">
-        <v>1.1040000000000001</v>
+        <v>1.512</v>
       </c>
       <c r="B253">
         <f t="shared" si="3"/>
-        <v>1104</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A254">
-        <v>0.98399999999999999</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="B254">
         <f t="shared" si="3"/>
-        <v>984</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A255">
-        <v>0.98399999999999999</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B255">
         <f t="shared" si="3"/>
-        <v>984</v>
+        <v>994</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A256">
-        <v>0.69599999999999995</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B256">
         <f t="shared" si="3"/>
-        <v>696</v>
+        <v>754</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A257">
-        <v>0.81599999999999995</v>
+        <v>1.2</v>
       </c>
       <c r="B257">
         <f t="shared" si="3"/>
-        <v>816</v>
+        <v>850</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A258">
-        <v>0.86399999999999999</v>
+        <v>1.224</v>
       </c>
       <c r="B258">
-        <f t="shared" ref="B258:B306" si="4">A258*1000</f>
-        <v>864</v>
+        <f t="shared" ref="B258:B306" si="4">(A258*1000)-350</f>
+        <v>874</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A259">
-        <v>0.81599999999999995</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B259">
         <f t="shared" si="4"/>
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A260">
-        <v>0.76800000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="B260">
         <f t="shared" si="4"/>
-        <v>768</v>
+        <v>850</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A261">
-        <v>0.86399999999999999</v>
+        <v>1.248</v>
       </c>
       <c r="B261">
         <f t="shared" si="4"/>
-        <v>864</v>
+        <v>898</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A262">
-        <v>0.96</v>
+        <v>1.272</v>
       </c>
       <c r="B262">
         <f t="shared" si="4"/>
-        <v>960</v>
+        <v>922</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A263">
-        <v>0.74399999999999999</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B263">
         <f t="shared" si="4"/>
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A264">
-        <v>1.1040000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="B264">
         <f t="shared" si="4"/>
-        <v>1104</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A265">
-        <v>0.67200000000000004</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B265">
         <f t="shared" si="4"/>
-        <v>672</v>
+        <v>754</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A266">
-        <v>0.74399999999999999</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B266">
         <f t="shared" si="4"/>
-        <v>744</v>
+        <v>778</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A267">
-        <v>1.512</v>
+        <v>1.944</v>
       </c>
       <c r="B267">
         <f t="shared" si="4"/>
-        <v>1512</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A268">
-        <v>1.1279999999999999</v>
+        <v>1.488</v>
       </c>
       <c r="B268">
         <f t="shared" si="4"/>
-        <v>1128</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A269">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="B269">
         <f t="shared" si="4"/>
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A270">
-        <v>0.88800000000000001</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B270">
         <f t="shared" si="4"/>
-        <v>888</v>
+        <v>826</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A271">
-        <v>1.296</v>
+        <v>1.6559999999999999</v>
       </c>
       <c r="B271">
         <f t="shared" si="4"/>
-        <v>1296</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A272">
-        <v>1.272</v>
+        <v>1.704</v>
       </c>
       <c r="B272">
         <f t="shared" si="4"/>
-        <v>1272</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A273">
-        <v>1.056</v>
+        <v>1.488</v>
       </c>
       <c r="B273">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A274">
-        <v>0.81599999999999995</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B274">
         <f t="shared" si="4"/>
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A275">
-        <v>0.76800000000000002</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B275">
         <f t="shared" si="4"/>
-        <v>768</v>
+        <v>778</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A276">
-        <v>0.64800000000000002</v>
+        <v>1.008</v>
       </c>
       <c r="B276">
         <f t="shared" si="4"/>
-        <v>648</v>
+        <v>658</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A277">
-        <v>0.81599999999999995</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="B277">
         <f t="shared" si="4"/>
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A278">
-        <v>0.72</v>
+        <v>1.056</v>
       </c>
       <c r="B278">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A279">
-        <v>0.74399999999999999</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B279">
         <f t="shared" si="4"/>
-        <v>744</v>
+        <v>778</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A280">
-        <v>0.84</v>
+        <v>1.32</v>
       </c>
       <c r="B280">
         <f t="shared" si="4"/>
-        <v>840</v>
+        <v>970</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A281">
-        <v>0.86399999999999999</v>
+        <v>1.296</v>
       </c>
       <c r="B281">
         <f t="shared" si="4"/>
-        <v>864</v>
+        <v>946</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A282">
-        <v>1.248</v>
+        <v>1.6559999999999999</v>
       </c>
       <c r="B282">
         <f t="shared" si="4"/>
-        <v>1248</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A283">
-        <v>0.86399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="B283">
         <f t="shared" si="4"/>
-        <v>864</v>
+        <v>850</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A284">
-        <v>0.93600000000000005</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B284">
         <f t="shared" si="4"/>
-        <v>936</v>
+        <v>994</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A285">
-        <v>1.032</v>
+        <v>1.464</v>
       </c>
       <c r="B285">
         <f t="shared" si="4"/>
-        <v>1032</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A286">
-        <v>0.98399999999999999</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="B286">
         <f t="shared" si="4"/>
-        <v>984</v>
+        <v>994</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A287">
-        <v>1.008</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="B287">
         <f t="shared" si="4"/>
-        <v>1008</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A288">
-        <v>0.74399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="B288">
         <f t="shared" si="4"/>
-        <v>744</v>
+        <v>850</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A289">
-        <v>0.84</v>
+        <v>1.296</v>
       </c>
       <c r="B289">
         <f t="shared" si="4"/>
-        <v>840</v>
+        <v>946</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A290">
-        <v>0.67200000000000004</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="B290">
         <f t="shared" si="4"/>
-        <v>672</v>
+        <v>754</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A291">
-        <v>0.74399999999999999</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B291">
         <f t="shared" si="4"/>
-        <v>744</v>
+        <v>778</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A292">
-        <v>0.76800000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="B292">
         <f t="shared" si="4"/>
-        <v>768</v>
+        <v>850</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A293">
-        <v>0.79200000000000004</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B293">
         <f t="shared" si="4"/>
-        <v>792</v>
+        <v>778</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A294">
-        <v>0.432</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="B294">
         <f t="shared" si="4"/>
-        <v>432</v>
+        <v>514</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A295">
-        <v>0.88800000000000001</v>
+        <v>1.248</v>
       </c>
       <c r="B295">
         <f t="shared" si="4"/>
-        <v>888</v>
+        <v>898</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A296">
-        <v>0.64800000000000002</v>
+        <v>1.08</v>
       </c>
       <c r="B296">
         <f t="shared" si="4"/>
-        <v>648</v>
+        <v>730</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A297">
-        <v>0.57599999999999996</v>
+        <v>1.032</v>
       </c>
       <c r="B297">
         <f t="shared" si="4"/>
-        <v>576</v>
+        <v>682</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A298">
-        <v>0.93600000000000005</v>
+        <v>1.272</v>
       </c>
       <c r="B298">
         <f t="shared" si="4"/>
-        <v>936</v>
+        <v>922</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A299">
-        <v>1.1759999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="B299">
         <f t="shared" si="4"/>
-        <v>1176</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A300">
-        <v>1.224</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="B300">
         <f t="shared" si="4"/>
-        <v>1224</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A301">
-        <v>0.96</v>
+        <v>1.272</v>
       </c>
       <c r="B301">
         <f t="shared" si="4"/>
-        <v>960</v>
+        <v>922</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A302">
-        <v>1.056</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="B302">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A303">
-        <v>0.86399999999999999</v>
+        <v>1.272</v>
       </c>
       <c r="B303">
         <f t="shared" si="4"/>
-        <v>864</v>
+        <v>922</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A304">
-        <v>0.69599999999999995</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B304">
         <f t="shared" si="4"/>
-        <v>696</v>
+        <v>778</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A305">
-        <v>0.76800000000000002</v>
+        <v>1.224</v>
       </c>
       <c r="B305">
         <f t="shared" si="4"/>
-        <v>768</v>
+        <v>874</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A306">
-        <v>0.84</v>
+        <v>1.296</v>
       </c>
       <c r="B306">
         <f t="shared" si="4"/>
-        <v>840</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -9634,8 +9816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E238B57B-D492-46A0-A2E7-B39D120516A0}">
   <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B313" sqref="B2:B313"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9662,7 +9844,7 @@
         <v>616</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">A3</f>
+        <f t="shared" ref="B3:B5" si="0">A3</f>
         <v>;Each entry is in the format mp3id=label,duration in ms</v>
       </c>
     </row>
@@ -9690,7 +9872,7 @@
       </c>
       <c r="B6" t="str">
         <f>_xlfn.CONCAT(LEFT(A6,FIND(",",A6)),lengths!B1)</f>
-        <v>0=Welcome to deviation,1320</v>
+        <v>0=Welcome to deviation,1354</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -9699,7 +9881,7 @@
       </c>
       <c r="B7" t="str">
         <f>_xlfn.CONCAT(LEFT(A7,FIND(",",A7)),lengths!B2)</f>
-        <v>1=Goodbye,696</v>
+        <v>1=Goodbye,658</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -9708,7 +9890,7 @@
       </c>
       <c r="B8" t="str">
         <f>_xlfn.CONCAT(LEFT(A8,FIND(",",A8)),lengths!B3)</f>
-        <v>2=Volume,624</v>
+        <v>2=Volume,682</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -9717,7 +9899,7 @@
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT(LEFT(A9,FIND(",",A9)),lengths!B4)</f>
-        <v>3=Timer 1 alarm,1200</v>
+        <v>3=Timer 1 alarm,1234</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -9726,7 +9908,7 @@
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT(LEFT(A10,FIND(",",A10)),lengths!B5)</f>
-        <v>4=Timer 2 alarm,1128</v>
+        <v>4=Timer 2 alarm,1234</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -9735,7 +9917,7 @@
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT(LEFT(A11,FIND(",",A11)),lengths!B6)</f>
-        <v>5=Timer 3 alarm,1200</v>
+        <v>5=Timer 3 alarm,1306</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -9744,7 +9926,7 @@
       </c>
       <c r="B12" t="str">
         <f>_xlfn.CONCAT(LEFT(A12,FIND(",",A12)),lengths!B7)</f>
-        <v>6=Timer 4 alarm,1224</v>
+        <v>6=Timer 4 alarm,1282</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -9753,7 +9935,7 @@
       </c>
       <c r="B13" t="str">
         <f>_xlfn.CONCAT(LEFT(A13,FIND(",",A13)),lengths!B8)</f>
-        <v>7=low transmitter battery voltage,1968</v>
+        <v>7=low transmitter battery voltage,1906</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -9762,7 +9944,7 @@
       </c>
       <c r="B14" t="str">
         <f>_xlfn.CONCAT(LEFT(A14,FIND(",",A14)),lengths!B9)</f>
-        <v>8=Finished binding,1032</v>
+        <v>8=Finished binding,1066</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -9771,7 +9953,7 @@
       </c>
       <c r="B15" t="str">
         <f>_xlfn.CONCAT(LEFT(A15,FIND(",",A15)),lengths!B10)</f>
-        <v>9=Time remaining,912</v>
+        <v>9=Time remaining,994</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -9780,7 +9962,7 @@
       </c>
       <c r="B16" t="str">
         <f>_xlfn.CONCAT(LEFT(A16,FIND(",",A16)),lengths!B11)</f>
-        <v>10=,696</v>
+        <v>10=,0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -9789,7 +9971,7 @@
       </c>
       <c r="B17" t="str">
         <f>_xlfn.CONCAT(LEFT(A17,FIND(",",A17)),lengths!B12)</f>
-        <v>11=Saving,528</v>
+        <v>11=Saving,658</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -9798,7 +9980,7 @@
       </c>
       <c r="B18" t="str">
         <f>_xlfn.CONCAT(LEFT(A18,FIND(",",A18)),lengths!B13)</f>
-        <v>12=,576</v>
+        <v>12=,0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -9807,7 +9989,7 @@
       </c>
       <c r="B19" t="str">
         <f>_xlfn.CONCAT(LEFT(A19,FIND(",",A19)),lengths!B14)</f>
-        <v>13=Telemetry alarm 1,1440</v>
+        <v>13=Telemetry alarm 1,1522</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -9816,7 +9998,7 @@
       </c>
       <c r="B20" t="str">
         <f>_xlfn.CONCAT(LEFT(A20,FIND(",",A20)),lengths!B15)</f>
-        <v>14=Telemetry alarm 2,1416</v>
+        <v>14=Telemetry alarm 2,1546</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -9825,7 +10007,7 @@
       </c>
       <c r="B21" t="str">
         <f>_xlfn.CONCAT(LEFT(A21,FIND(",",A21)),lengths!B16)</f>
-        <v>15=Telemetry alarm 3,1440</v>
+        <v>15=Telemetry alarm 3,1594</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -9834,7 +10016,7 @@
       </c>
       <c r="B22" t="str">
         <f>_xlfn.CONCAT(LEFT(A22,FIND(",",A22)),lengths!B17)</f>
-        <v>16=Telemetry alarm 4,1512</v>
+        <v>16=Telemetry alarm 4,1570</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -9843,7 +10025,7 @@
       </c>
       <c r="B23" t="str">
         <f>_xlfn.CONCAT(LEFT(A23,FIND(",",A23)),lengths!B18)</f>
-        <v>17=Telemetry alarm 5,1464</v>
+        <v>17=Telemetry alarm 5,1546</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -9852,7 +10034,7 @@
       </c>
       <c r="B24" t="str">
         <f>_xlfn.CONCAT(LEFT(A24,FIND(",",A24)),lengths!B19)</f>
-        <v>18=Telemetry alarm 6,1464</v>
+        <v>18=Telemetry alarm 6,1570</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -9861,7 +10043,7 @@
       </c>
       <c r="B25" t="str">
         <f>_xlfn.CONCAT(LEFT(A25,FIND(",",A25)),lengths!B20)</f>
-        <v>19=Inactivity alarm,1224</v>
+        <v>19=Inactivity alarm,1282</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -9870,7 +10052,7 @@
       </c>
       <c r="B26" t="str">
         <f>_xlfn.CONCAT(LEFT(A26,FIND(",",A26)),lengths!B21)</f>
-        <v>20=0,624</v>
+        <v>20=0,634</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -9879,7 +10061,7 @@
       </c>
       <c r="B27" t="str">
         <f>_xlfn.CONCAT(LEFT(A27,FIND(",",A27)),lengths!B22)</f>
-        <v>21=1,480</v>
+        <v>21=1,466</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -9888,7 +10070,7 @@
       </c>
       <c r="B28" t="str">
         <f>_xlfn.CONCAT(LEFT(A28,FIND(",",A28)),lengths!B23)</f>
-        <v>22=2,504</v>
+        <v>22=2,514</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
@@ -9897,7 +10079,7 @@
       </c>
       <c r="B29" t="str">
         <f>_xlfn.CONCAT(LEFT(A29,FIND(",",A29)),lengths!B24)</f>
-        <v>23=3,528</v>
+        <v>23=3,514</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
@@ -9906,7 +10088,7 @@
       </c>
       <c r="B30" t="str">
         <f>_xlfn.CONCAT(LEFT(A30,FIND(",",A30)),lengths!B25)</f>
-        <v>24=4,504</v>
+        <v>24=4,538</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -9915,7 +10097,7 @@
       </c>
       <c r="B31" t="str">
         <f>_xlfn.CONCAT(LEFT(A31,FIND(",",A31)),lengths!B26)</f>
-        <v>25=5,480</v>
+        <v>25=5,490</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -9924,7 +10106,7 @@
       </c>
       <c r="B32" t="str">
         <f>_xlfn.CONCAT(LEFT(A32,FIND(",",A32)),lengths!B27)</f>
-        <v>26=6,600</v>
+        <v>26=6,586</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -9933,7 +10115,7 @@
       </c>
       <c r="B33" t="str">
         <f>_xlfn.CONCAT(LEFT(A33,FIND(",",A33)),lengths!B28)</f>
-        <v>27=7,528</v>
+        <v>27=7,634</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
@@ -9942,7 +10124,7 @@
       </c>
       <c r="B34" t="str">
         <f>_xlfn.CONCAT(LEFT(A34,FIND(",",A34)),lengths!B29)</f>
-        <v>28=8,408</v>
+        <v>28=8,370</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -9951,7 +10133,7 @@
       </c>
       <c r="B35" t="str">
         <f>_xlfn.CONCAT(LEFT(A35,FIND(",",A35)),lengths!B30)</f>
-        <v>29=9,576</v>
+        <v>29=9,586</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -9960,7 +10142,7 @@
       </c>
       <c r="B36" t="str">
         <f>_xlfn.CONCAT(LEFT(A36,FIND(",",A36)),lengths!B31)</f>
-        <v>30=10,408</v>
+        <v>30=10,490</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -9969,7 +10151,7 @@
       </c>
       <c r="B37" t="str">
         <f>_xlfn.CONCAT(LEFT(A37,FIND(",",A37)),lengths!B32)</f>
-        <v>31=11,552</v>
+        <v>31=11,634</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -9978,7 +10160,7 @@
       </c>
       <c r="B38" t="str">
         <f>_xlfn.CONCAT(LEFT(A38,FIND(",",A38)),lengths!B33)</f>
-        <v>32=12,432</v>
+        <v>32=12,490</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -9987,7 +10169,7 @@
       </c>
       <c r="B39" t="str">
         <f>_xlfn.CONCAT(LEFT(A39,FIND(",",A39)),lengths!B34)</f>
-        <v>33=13,648</v>
+        <v>33=13,706</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -9996,7 +10178,7 @@
       </c>
       <c r="B40" t="str">
         <f>_xlfn.CONCAT(LEFT(A40,FIND(",",A40)),lengths!B35)</f>
-        <v>34=14,600</v>
+        <v>34=14,754</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -10005,7 +10187,7 @@
       </c>
       <c r="B41" t="str">
         <f>_xlfn.CONCAT(LEFT(A41,FIND(",",A41)),lengths!B36)</f>
-        <v>35=15,624</v>
+        <v>35=15,682</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -10014,7 +10196,7 @@
       </c>
       <c r="B42" t="str">
         <f>_xlfn.CONCAT(LEFT(A42,FIND(",",A42)),lengths!B37)</f>
-        <v>36=16,696</v>
+        <v>36=16,754</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -10023,7 +10205,7 @@
       </c>
       <c r="B43" t="str">
         <f>_xlfn.CONCAT(LEFT(A43,FIND(",",A43)),lengths!B38)</f>
-        <v>37=17,720</v>
+        <v>37=17,850</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
@@ -10032,7 +10214,7 @@
       </c>
       <c r="B44" t="str">
         <f>_xlfn.CONCAT(LEFT(A44,FIND(",",A44)),lengths!B39)</f>
-        <v>38=18,648</v>
+        <v>38=18,706</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
@@ -10041,7 +10223,7 @@
       </c>
       <c r="B45" t="str">
         <f>_xlfn.CONCAT(LEFT(A45,FIND(",",A45)),lengths!B40)</f>
-        <v>39=19,672</v>
+        <v>39=19,730</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -10050,7 +10232,7 @@
       </c>
       <c r="B46" t="str">
         <f>_xlfn.CONCAT(LEFT(A46,FIND(",",A46)),lengths!B41)</f>
-        <v>40=20,480</v>
+        <v>40=20,538</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -10059,7 +10241,7 @@
       </c>
       <c r="B47" t="str">
         <f>_xlfn.CONCAT(LEFT(A47,FIND(",",A47)),lengths!B42)</f>
-        <v>41=21,816</v>
+        <v>41=21,874</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
@@ -10068,7 +10250,7 @@
       </c>
       <c r="B48" t="str">
         <f>_xlfn.CONCAT(LEFT(A48,FIND(",",A48)),lengths!B43)</f>
-        <v>42=22,840</v>
+        <v>42=22,850</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -10077,7 +10259,7 @@
       </c>
       <c r="B49" t="str">
         <f>_xlfn.CONCAT(LEFT(A49,FIND(",",A49)),lengths!B44)</f>
-        <v>43=23,888</v>
+        <v>43=23,922</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
@@ -10086,7 +10268,7 @@
       </c>
       <c r="B50" t="str">
         <f>_xlfn.CONCAT(LEFT(A50,FIND(",",A50)),lengths!B45)</f>
-        <v>44=24,912</v>
+        <v>44=24,874</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -10095,7 +10277,7 @@
       </c>
       <c r="B51" t="str">
         <f>_xlfn.CONCAT(LEFT(A51,FIND(",",A51)),lengths!B46)</f>
-        <v>45=25,816</v>
+        <v>45=25,826</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
@@ -10104,7 +10286,7 @@
       </c>
       <c r="B52" t="str">
         <f>_xlfn.CONCAT(LEFT(A52,FIND(",",A52)),lengths!B47)</f>
-        <v>46=26,816</v>
+        <v>46=26,802</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -10113,7 +10295,7 @@
       </c>
       <c r="B53" t="str">
         <f>_xlfn.CONCAT(LEFT(A53,FIND(",",A53)),lengths!B48)</f>
-        <v>47=27,912</v>
+        <v>47=27,946</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
@@ -10122,7 +10304,7 @@
       </c>
       <c r="B54" t="str">
         <f>_xlfn.CONCAT(LEFT(A54,FIND(",",A54)),lengths!B49)</f>
-        <v>48=28,696</v>
+        <v>48=28,778</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
@@ -10131,7 +10313,7 @@
       </c>
       <c r="B55" t="str">
         <f>_xlfn.CONCAT(LEFT(A55,FIND(",",A55)),lengths!B50)</f>
-        <v>49=29,864</v>
+        <v>49=29,874</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
@@ -10140,7 +10322,7 @@
       </c>
       <c r="B56" t="str">
         <f>_xlfn.CONCAT(LEFT(A56,FIND(",",A56)),lengths!B51)</f>
-        <v>50=30,456</v>
+        <v>50=30,538</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
@@ -10149,7 +10331,7 @@
       </c>
       <c r="B57" t="str">
         <f>_xlfn.CONCAT(LEFT(A57,FIND(",",A57)),lengths!B52)</f>
-        <v>51=31,792</v>
+        <v>51=31,826</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
@@ -10158,7 +10340,7 @@
       </c>
       <c r="B58" t="str">
         <f>_xlfn.CONCAT(LEFT(A58,FIND(",",A58)),lengths!B53)</f>
-        <v>52=32,696</v>
+        <v>52=32,754</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
@@ -10167,7 +10349,7 @@
       </c>
       <c r="B59" t="str">
         <f>_xlfn.CONCAT(LEFT(A59,FIND(",",A59)),lengths!B54)</f>
-        <v>53=33,840</v>
+        <v>53=33,874</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
@@ -10176,7 +10358,7 @@
       </c>
       <c r="B60" t="str">
         <f>_xlfn.CONCAT(LEFT(A60,FIND(",",A60)),lengths!B55)</f>
-        <v>54=34,816</v>
+        <v>54=34,850</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
@@ -10185,7 +10367,7 @@
       </c>
       <c r="B61" t="str">
         <f>_xlfn.CONCAT(LEFT(A61,FIND(",",A61)),lengths!B56)</f>
-        <v>55=35,744</v>
+        <v>55=35,802</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
@@ -10194,7 +10376,7 @@
       </c>
       <c r="B62" t="str">
         <f>_xlfn.CONCAT(LEFT(A62,FIND(",",A62)),lengths!B57)</f>
-        <v>56=36,744</v>
+        <v>56=36,778</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
@@ -10203,7 +10385,7 @@
       </c>
       <c r="B63" t="str">
         <f>_xlfn.CONCAT(LEFT(A63,FIND(",",A63)),lengths!B58)</f>
-        <v>57=37,864</v>
+        <v>57=37,898</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -10212,7 +10394,7 @@
       </c>
       <c r="B64" t="str">
         <f>_xlfn.CONCAT(LEFT(A64,FIND(",",A64)),lengths!B59)</f>
-        <v>58=38,672</v>
+        <v>58=38,730</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -10221,7 +10403,7 @@
       </c>
       <c r="B65" t="str">
         <f>_xlfn.CONCAT(LEFT(A65,FIND(",",A65)),lengths!B60)</f>
-        <v>59=39,840</v>
+        <v>59=39,850</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
@@ -10230,7 +10412,7 @@
       </c>
       <c r="B66" t="str">
         <f>_xlfn.CONCAT(LEFT(A66,FIND(",",A66)),lengths!B61)</f>
-        <v>60=40,432</v>
+        <v>60=40,562</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -10239,7 +10421,7 @@
       </c>
       <c r="B67" t="str">
         <f>_xlfn.CONCAT(LEFT(A67,FIND(",",A67)),lengths!B62)</f>
-        <v>61=41,816</v>
+        <v>61=41,874</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -10248,7 +10430,7 @@
       </c>
       <c r="B68" t="str">
         <f>_xlfn.CONCAT(LEFT(A68,FIND(",",A68)),lengths!B63)</f>
-        <v>62=42,864</v>
+        <v>62=42,850</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -10257,7 +10439,7 @@
       </c>
       <c r="B69" t="str">
         <f>_xlfn.CONCAT(LEFT(A69,FIND(",",A69)),lengths!B64)</f>
-        <v>63=43,888</v>
+        <v>63=43,946</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -10266,7 +10448,7 @@
       </c>
       <c r="B70" t="str">
         <f>_xlfn.CONCAT(LEFT(A70,FIND(",",A70)),lengths!B65)</f>
-        <v>64=44,840</v>
+        <v>64=44,874</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -10275,7 +10457,7 @@
       </c>
       <c r="B71" t="str">
         <f>_xlfn.CONCAT(LEFT(A71,FIND(",",A71)),lengths!B66)</f>
-        <v>65=45,888</v>
+        <v>65=45,922</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
@@ -10284,7 +10466,7 @@
       </c>
       <c r="B72" t="str">
         <f>_xlfn.CONCAT(LEFT(A72,FIND(",",A72)),lengths!B67)</f>
-        <v>66=46,744</v>
+        <v>66=46,802</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
@@ -10293,7 +10475,7 @@
       </c>
       <c r="B73" t="str">
         <f>_xlfn.CONCAT(LEFT(A73,FIND(",",A73)),lengths!B68)</f>
-        <v>67=47,888</v>
+        <v>67=47,970</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
@@ -10302,7 +10484,7 @@
       </c>
       <c r="B74" t="str">
         <f>_xlfn.CONCAT(LEFT(A74,FIND(",",A74)),lengths!B69)</f>
-        <v>68=48,696</v>
+        <v>68=48,778</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
@@ -10311,7 +10493,7 @@
       </c>
       <c r="B75" t="str">
         <f>_xlfn.CONCAT(LEFT(A75,FIND(",",A75)),lengths!B70)</f>
-        <v>69=49,792</v>
+        <v>69=49,898</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
@@ -10320,7 +10502,7 @@
       </c>
       <c r="B76" t="str">
         <f>_xlfn.CONCAT(LEFT(A76,FIND(",",A76)),lengths!B71)</f>
-        <v>70=50,480</v>
+        <v>70=50,562</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
@@ -10329,7 +10511,7 @@
       </c>
       <c r="B77" t="str">
         <f>_xlfn.CONCAT(LEFT(A77,FIND(",",A77)),lengths!B72)</f>
-        <v>71=51,768</v>
+        <v>71=51,874</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
@@ -10338,7 +10520,7 @@
       </c>
       <c r="B78" t="str">
         <f>_xlfn.CONCAT(LEFT(A78,FIND(",",A78)),lengths!B73)</f>
-        <v>72=52,864</v>
+        <v>72=52,874</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
@@ -10347,7 +10529,7 @@
       </c>
       <c r="B79" t="str">
         <f>_xlfn.CONCAT(LEFT(A79,FIND(",",A79)),lengths!B74)</f>
-        <v>73=53,864</v>
+        <v>73=53,946</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
@@ -10356,7 +10538,7 @@
       </c>
       <c r="B80" t="str">
         <f>_xlfn.CONCAT(LEFT(A80,FIND(",",A80)),lengths!B75)</f>
-        <v>74=54,864</v>
+        <v>74=54,922</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
@@ -10365,7 +10547,7 @@
       </c>
       <c r="B81" t="str">
         <f>_xlfn.CONCAT(LEFT(A81,FIND(",",A81)),lengths!B76)</f>
-        <v>75=55,792</v>
+        <v>75=55,874</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
@@ -10374,7 +10556,7 @@
       </c>
       <c r="B82" t="str">
         <f>_xlfn.CONCAT(LEFT(A82,FIND(",",A82)),lengths!B77)</f>
-        <v>76=56,792</v>
+        <v>76=56,826</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
@@ -10383,7 +10565,7 @@
       </c>
       <c r="B83" t="str">
         <f>_xlfn.CONCAT(LEFT(A83,FIND(",",A83)),lengths!B78)</f>
-        <v>77=57,888</v>
+        <v>77=57,946</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
@@ -10392,7 +10574,7 @@
       </c>
       <c r="B84" t="str">
         <f>_xlfn.CONCAT(LEFT(A84,FIND(",",A84)),lengths!B79)</f>
-        <v>78=58,720</v>
+        <v>78=58,826</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
@@ -10401,7 +10583,7 @@
       </c>
       <c r="B85" t="str">
         <f>_xlfn.CONCAT(LEFT(A85,FIND(",",A85)),lengths!B80)</f>
-        <v>79=59,792</v>
+        <v>79=59,898</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
@@ -10410,7 +10592,7 @@
       </c>
       <c r="B86" t="str">
         <f>_xlfn.CONCAT(LEFT(A86,FIND(",",A86)),lengths!B81)</f>
-        <v>80=60,600</v>
+        <v>80=60,658</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
@@ -10419,7 +10601,7 @@
       </c>
       <c r="B87" t="str">
         <f>_xlfn.CONCAT(LEFT(A87,FIND(",",A87)),lengths!B82)</f>
-        <v>81=61,912</v>
+        <v>81=61,946</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
@@ -10428,7 +10610,7 @@
       </c>
       <c r="B88" t="str">
         <f>_xlfn.CONCAT(LEFT(A88,FIND(",",A88)),lengths!B83)</f>
-        <v>82=62,960</v>
+        <v>82=62,994</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
@@ -10437,7 +10619,7 @@
       </c>
       <c r="B89" t="str">
         <f>_xlfn.CONCAT(LEFT(A89,FIND(",",A89)),lengths!B84)</f>
-        <v>83=63,984</v>
+        <v>83=63,1018</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
@@ -10446,7 +10628,7 @@
       </c>
       <c r="B90" t="str">
         <f>_xlfn.CONCAT(LEFT(A90,FIND(",",A90)),lengths!B85)</f>
-        <v>84=64,936</v>
+        <v>84=64,994</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
@@ -10455,7 +10637,7 @@
       </c>
       <c r="B91" t="str">
         <f>_xlfn.CONCAT(LEFT(A91,FIND(",",A91)),lengths!B86)</f>
-        <v>85=65,984</v>
+        <v>85=65,994</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
@@ -10464,7 +10646,7 @@
       </c>
       <c r="B92" t="str">
         <f>_xlfn.CONCAT(LEFT(A92,FIND(",",A92)),lengths!B87)</f>
-        <v>86=66,912</v>
+        <v>86=66,922</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
@@ -10473,7 +10655,7 @@
       </c>
       <c r="B93" t="str">
         <f>_xlfn.CONCAT(LEFT(A93,FIND(",",A93)),lengths!B88)</f>
-        <v>87=67,984</v>
+        <v>87=67,1018</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
@@ -10482,7 +10664,7 @@
       </c>
       <c r="B94" t="str">
         <f>_xlfn.CONCAT(LEFT(A94,FIND(",",A94)),lengths!B89)</f>
-        <v>88=68,816</v>
+        <v>88=68,874</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
@@ -10491,7 +10673,7 @@
       </c>
       <c r="B95" t="str">
         <f>_xlfn.CONCAT(LEFT(A95,FIND(",",A95)),lengths!B90)</f>
-        <v>89=69,936</v>
+        <v>89=69,946</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
@@ -10500,7 +10682,7 @@
       </c>
       <c r="B96" t="str">
         <f>_xlfn.CONCAT(LEFT(A96,FIND(",",A96)),lengths!B91)</f>
-        <v>90=70,600</v>
+        <v>90=70,658</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
@@ -10509,7 +10691,7 @@
       </c>
       <c r="B97" t="str">
         <f>_xlfn.CONCAT(LEFT(A97,FIND(",",A97)),lengths!B92)</f>
-        <v>91=71,912</v>
+        <v>91=71,970</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
@@ -10518,7 +10700,7 @@
       </c>
       <c r="B98" t="str">
         <f>_xlfn.CONCAT(LEFT(A98,FIND(",",A98)),lengths!B93)</f>
-        <v>92=72,888</v>
+        <v>92=72,970</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
@@ -10527,7 +10709,7 @@
       </c>
       <c r="B99" t="str">
         <f>_xlfn.CONCAT(LEFT(A99,FIND(",",A99)),lengths!B94)</f>
-        <v>93=73,1032</v>
+        <v>93=73,1018</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
@@ -10536,7 +10718,7 @@
       </c>
       <c r="B100" t="str">
         <f>_xlfn.CONCAT(LEFT(A100,FIND(",",A100)),lengths!B95)</f>
-        <v>94=74,1008</v>
+        <v>94=74,994</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
@@ -10545,7 +10727,7 @@
       </c>
       <c r="B101" t="str">
         <f>_xlfn.CONCAT(LEFT(A101,FIND(",",A101)),lengths!B96)</f>
-        <v>95=75,912</v>
+        <v>95=75,946</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
@@ -10554,7 +10736,7 @@
       </c>
       <c r="B102" t="str">
         <f>_xlfn.CONCAT(LEFT(A102,FIND(",",A102)),lengths!B97)</f>
-        <v>96=76,936</v>
+        <v>96=76,946</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
@@ -10563,7 +10745,7 @@
       </c>
       <c r="B103" t="str">
         <f>_xlfn.CONCAT(LEFT(A103,FIND(",",A103)),lengths!B98)</f>
-        <v>97=77,1008</v>
+        <v>97=77,1066</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
@@ -10572,7 +10754,7 @@
       </c>
       <c r="B104" t="str">
         <f>_xlfn.CONCAT(LEFT(A104,FIND(",",A104)),lengths!B99)</f>
-        <v>98=78,840</v>
+        <v>98=78,922</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
@@ -10581,7 +10763,7 @@
       </c>
       <c r="B105" t="str">
         <f>_xlfn.CONCAT(LEFT(A105,FIND(",",A105)),lengths!B100)</f>
-        <v>99=79,888</v>
+        <v>99=79,1018</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
@@ -10590,7 +10772,7 @@
       </c>
       <c r="B106" t="str">
         <f>_xlfn.CONCAT(LEFT(A106,FIND(",",A106)),lengths!B101)</f>
-        <v>100=80,456</v>
+        <v>100=80,466</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
@@ -10599,7 +10781,7 @@
       </c>
       <c r="B107" t="str">
         <f>_xlfn.CONCAT(LEFT(A107,FIND(",",A107)),lengths!B102)</f>
-        <v>101=81,768</v>
+        <v>101=81,826</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
@@ -10608,7 +10790,7 @@
       </c>
       <c r="B108" t="str">
         <f>_xlfn.CONCAT(LEFT(A108,FIND(",",A108)),lengths!B103)</f>
-        <v>102=82,816</v>
+        <v>102=82,826</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
@@ -10617,7 +10799,7 @@
       </c>
       <c r="B109" t="str">
         <f>_xlfn.CONCAT(LEFT(A109,FIND(",",A109)),lengths!B104)</f>
-        <v>103=83,840</v>
+        <v>103=83,874</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
@@ -10626,7 +10808,7 @@
       </c>
       <c r="B110" t="str">
         <f>_xlfn.CONCAT(LEFT(A110,FIND(",",A110)),lengths!B105)</f>
-        <v>104=84,792</v>
+        <v>104=84,826</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
@@ -10635,7 +10817,7 @@
       </c>
       <c r="B111" t="str">
         <f>_xlfn.CONCAT(LEFT(A111,FIND(",",A111)),lengths!B106)</f>
-        <v>105=85,840</v>
+        <v>105=85,850</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
@@ -10644,7 +10826,7 @@
       </c>
       <c r="B112" t="str">
         <f>_xlfn.CONCAT(LEFT(A112,FIND(",",A112)),lengths!B107)</f>
-        <v>106=86,744</v>
+        <v>106=86,754</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
@@ -10653,7 +10835,7 @@
       </c>
       <c r="B113" t="str">
         <f>_xlfn.CONCAT(LEFT(A113,FIND(",",A113)),lengths!B108)</f>
-        <v>107=87,840</v>
+        <v>107=87,874</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
@@ -10662,7 +10844,7 @@
       </c>
       <c r="B114" t="str">
         <f>_xlfn.CONCAT(LEFT(A114,FIND(",",A114)),lengths!B109)</f>
-        <v>108=88,696</v>
+        <v>108=88,730</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
@@ -10671,7 +10853,7 @@
       </c>
       <c r="B115" t="str">
         <f>_xlfn.CONCAT(LEFT(A115,FIND(",",A115)),lengths!B110)</f>
-        <v>109=89,744</v>
+        <v>109=89,850</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
@@ -10680,7 +10862,7 @@
       </c>
       <c r="B116" t="str">
         <f>_xlfn.CONCAT(LEFT(A116,FIND(",",A116)),lengths!B111)</f>
-        <v>110=90,624</v>
+        <v>110=90,634</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
@@ -10689,7 +10871,7 @@
       </c>
       <c r="B117" t="str">
         <f>_xlfn.CONCAT(LEFT(A117,FIND(",",A117)),lengths!B112)</f>
-        <v>111=91,840</v>
+        <v>111=91,874</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
@@ -10698,7 +10880,7 @@
       </c>
       <c r="B118" t="str">
         <f>_xlfn.CONCAT(LEFT(A118,FIND(",",A118)),lengths!B113)</f>
-        <v>112=92,816</v>
+        <v>112=92,850</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
@@ -10707,7 +10889,7 @@
       </c>
       <c r="B119" t="str">
         <f>_xlfn.CONCAT(LEFT(A119,FIND(",",A119)),lengths!B114)</f>
-        <v>113=93,936</v>
+        <v>113=93,946</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
@@ -10716,7 +10898,7 @@
       </c>
       <c r="B120" t="str">
         <f>_xlfn.CONCAT(LEFT(A120,FIND(",",A120)),lengths!B115)</f>
-        <v>114=94,888</v>
+        <v>114=94,874</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
@@ -10725,7 +10907,7 @@
       </c>
       <c r="B121" t="str">
         <f>_xlfn.CONCAT(LEFT(A121,FIND(",",A121)),lengths!B116)</f>
-        <v>115=95,816</v>
+        <v>115=95,826</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
@@ -10734,7 +10916,7 @@
       </c>
       <c r="B122" t="str">
         <f>_xlfn.CONCAT(LEFT(A122,FIND(",",A122)),lengths!B117)</f>
-        <v>116=96,864</v>
+        <v>116=96,850</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
@@ -10743,7 +10925,7 @@
       </c>
       <c r="B123" t="str">
         <f>_xlfn.CONCAT(LEFT(A123,FIND(",",A123)),lengths!B118)</f>
-        <v>117=97,912</v>
+        <v>117=97,922</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
@@ -10752,7 +10934,7 @@
       </c>
       <c r="B124" t="str">
         <f>_xlfn.CONCAT(LEFT(A124,FIND(",",A124)),lengths!B119)</f>
-        <v>118=98,720</v>
+        <v>118=98,778</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
@@ -10761,7 +10943,7 @@
       </c>
       <c r="B125" t="str">
         <f>_xlfn.CONCAT(LEFT(A125,FIND(",",A125)),lengths!B120)</f>
-        <v>119=99,864</v>
+        <v>119=99,874</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
@@ -10770,7 +10952,7 @@
       </c>
       <c r="B126" t="str">
         <f>_xlfn.CONCAT(LEFT(A126,FIND(",",A126)),lengths!B121)</f>
-        <v>120=100,744</v>
+        <v>120=100,730</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
@@ -10779,7 +10961,7 @@
       </c>
       <c r="B127" t="str">
         <f>_xlfn.CONCAT(LEFT(A127,FIND(",",A127)),lengths!B122)</f>
-        <v>121=200,768</v>
+        <v>121=200,754</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
@@ -10788,7 +10970,7 @@
       </c>
       <c r="B128" t="str">
         <f>_xlfn.CONCAT(LEFT(A128,FIND(",",A128)),lengths!B123)</f>
-        <v>122=300,768</v>
+        <v>122=300,778</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
@@ -10797,7 +10979,7 @@
       </c>
       <c r="B129" t="str">
         <f>_xlfn.CONCAT(LEFT(A129,FIND(",",A129)),lengths!B124)</f>
-        <v>123=400,768</v>
+        <v>123=400,826</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
@@ -10806,7 +10988,7 @@
       </c>
       <c r="B130" t="str">
         <f>_xlfn.CONCAT(LEFT(A130,FIND(",",A130)),lengths!B125)</f>
-        <v>124=500,768</v>
+        <v>124=500,778</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
@@ -10815,7 +10997,7 @@
       </c>
       <c r="B131" t="str">
         <f>_xlfn.CONCAT(LEFT(A131,FIND(",",A131)),lengths!B126)</f>
-        <v>125=600,840</v>
+        <v>125=600,850</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
@@ -10824,7 +11006,7 @@
       </c>
       <c r="B132" t="str">
         <f>_xlfn.CONCAT(LEFT(A132,FIND(",",A132)),lengths!B127)</f>
-        <v>126=700,864</v>
+        <v>126=700,898</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
@@ -10833,7 +11015,7 @@
       </c>
       <c r="B133" t="str">
         <f>_xlfn.CONCAT(LEFT(A133,FIND(",",A133)),lengths!B128)</f>
-        <v>127=800,696</v>
+        <v>127=800,706</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
@@ -10842,7 +11024,7 @@
       </c>
       <c r="B134" t="str">
         <f>_xlfn.CONCAT(LEFT(A134,FIND(",",A134)),lengths!B129)</f>
-        <v>128=900,744</v>
+        <v>128=900,778</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
@@ -10851,7 +11033,7 @@
       </c>
       <c r="B135" t="str">
         <f>_xlfn.CONCAT(LEFT(A135,FIND(",",A135)),lengths!B130)</f>
-        <v>129=thousand,624</v>
+        <v>129=thousand,634</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
@@ -10860,7 +11042,7 @@
       </c>
       <c r="B136" t="str">
         <f>_xlfn.CONCAT(LEFT(A136,FIND(",",A136)),lengths!B131)</f>
-        <v>130=point,408</v>
+        <v>130=point,418</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
@@ -10869,7 +11051,7 @@
       </c>
       <c r="B137" t="str">
         <f>_xlfn.CONCAT(LEFT(A137,FIND(",",A137)),lengths!B132)</f>
-        <v>131=minus,576</v>
+        <v>131=minus,610</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
@@ -10878,7 +11060,7 @@
       </c>
       <c r="B138" t="str">
         <f>_xlfn.CONCAT(LEFT(A138,FIND(",",A138)),lengths!B133)</f>
-        <v>132=degrees,576</v>
+        <v>132=degrees,610</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
@@ -10887,7 +11069,7 @@
       </c>
       <c r="B139" t="str">
         <f>_xlfn.CONCAT(LEFT(A139,FIND(",",A139)),lengths!B134)</f>
-        <v>133=volt,408</v>
+        <v>133=volt,394</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
@@ -10896,7 +11078,7 @@
       </c>
       <c r="B140" t="str">
         <f>_xlfn.CONCAT(LEFT(A140,FIND(",",A140)),lengths!B135)</f>
-        <v>134=rounds per minute,1032</v>
+        <v>134=rounds per minute,1066</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
@@ -10905,7 +11087,7 @@
       </c>
       <c r="B141" t="str">
         <f>_xlfn.CONCAT(LEFT(A141,FIND(",",A141)),lengths!B136)</f>
-        <v>135=amperes,744</v>
+        <v>135=amperes,778</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
@@ -10914,7 +11096,7 @@
       </c>
       <c r="B142" t="str">
         <f>_xlfn.CONCAT(LEFT(A142,FIND(",",A142)),lengths!B137)</f>
-        <v>136=meters,576</v>
+        <v>136=meters,658</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
@@ -10923,7 +11105,7 @@
       </c>
       <c r="B143" t="str">
         <f>_xlfn.CONCAT(LEFT(A143,FIND(",",A143)),lengths!B138)</f>
-        <v>137=g,576</v>
+        <v>137=g,514</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
@@ -10932,7 +11114,7 @@
       </c>
       <c r="B144" t="str">
         <f>_xlfn.CONCAT(LEFT(A144,FIND(",",A144)),lengths!B139)</f>
-        <v>138=kilometers per hour,1368</v>
+        <v>138=kilometers per hour,1330</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
@@ -10941,7 +11123,7 @@
       </c>
       <c r="B145" t="str">
         <f>_xlfn.CONCAT(LEFT(A145,FIND(",",A145)),lengths!B140)</f>
-        <v>139=meters per second,1176</v>
+        <v>139=meters per second,1162</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
@@ -10950,7 +11132,7 @@
       </c>
       <c r="B146" t="str">
         <f>_xlfn.CONCAT(LEFT(A146,FIND(",",A146)),lengths!B141)</f>
-        <v>140=miles per hour,1056</v>
+        <v>140=miles per hour,1114</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
@@ -10959,7 +11141,7 @@
       </c>
       <c r="B147" t="str">
         <f>_xlfn.CONCAT(LEFT(A147,FIND(",",A147)),lengths!B142)</f>
-        <v>141=knots,576</v>
+        <v>141=knots,610</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
@@ -10968,7 +11150,7 @@
       </c>
       <c r="B148" t="str">
         <f>_xlfn.CONCAT(LEFT(A148,FIND(",",A148)),lengths!B143)</f>
-        <v>142=meters,624</v>
+        <v>142=meters,634</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
@@ -10977,7 +11159,7 @@
       </c>
       <c r="B149" t="str">
         <f>_xlfn.CONCAT(LEFT(A149,FIND(",",A149)),lengths!B144)</f>
-        <v>143=celsius,888</v>
+        <v>143=celsius,898</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
@@ -10986,7 +11168,7 @@
       </c>
       <c r="B150" t="str">
         <f>_xlfn.CONCAT(LEFT(A150,FIND(",",A150)),lengths!B145)</f>
-        <v>144=fahrenheit,744</v>
+        <v>144=fahrenheit,802</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
@@ -10995,7 +11177,7 @@
       </c>
       <c r="B151" t="str">
         <f>_xlfn.CONCAT(LEFT(A151,FIND(",",A151)),lengths!B146)</f>
-        <v>145=percent,672</v>
+        <v>145=percent,634</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
@@ -11004,7 +11186,7 @@
       </c>
       <c r="B152" t="str">
         <f>_xlfn.CONCAT(LEFT(A152,FIND(",",A152)),lengths!B147)</f>
-        <v>146=watts,576</v>
+        <v>146=watts,586</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
@@ -11013,7 +11195,7 @@
       </c>
       <c r="B153" t="str">
         <f>_xlfn.CONCAT(LEFT(A153,FIND(",",A153)),lengths!B148)</f>
-        <v>147=decibel,768</v>
+        <v>147=decibel,658</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
@@ -11022,7 +11204,7 @@
       </c>
       <c r="B154" t="str">
         <f>_xlfn.CONCAT(LEFT(A154,FIND(",",A154)),lengths!B149)</f>
-        <v>148=seconds,720</v>
+        <v>148=seconds,754</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
@@ -11031,7 +11213,7 @@
       </c>
       <c r="B155" t="str">
         <f>_xlfn.CONCAT(LEFT(A155,FIND(",",A155)),lengths!B150)</f>
-        <v>149=minutes,624</v>
+        <v>149=minutes,586</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
@@ -11040,7 +11222,7 @@
       </c>
       <c r="B156" t="str">
         <f>_xlfn.CONCAT(LEFT(A156,FIND(",",A156)),lengths!B151)</f>
-        <v>150=hours,576</v>
+        <v>150=hours,610</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
@@ -11048,7 +11230,7 @@
         <v>770</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" ref="B131:B194" si="1">A157</f>
+        <f t="shared" ref="B157:B158" si="1">A157</f>
         <v>;Below are custom alarms for individual models (switch, trim, telemetry etc.), MP3 ID must be greater than 200</v>
       </c>
     </row>
@@ -11067,7 +11249,7 @@
       </c>
       <c r="B159" t="str">
         <f>_xlfn.CONCAT(LEFT(A159,FIND(",",A159)),lengths!B152)</f>
-        <v>200=3D aerobatics,1440</v>
+        <v>200=3D aerobatics,1378</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
@@ -11076,7 +11258,7 @@
       </c>
       <c r="B160" t="str">
         <f>_xlfn.CONCAT(LEFT(A160,FIND(",",A160)),lengths!B153)</f>
-        <v>201=3D ailerons,1176</v>
+        <v>201=3D ailerons,1258</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
@@ -11085,7 +11267,7 @@
       </c>
       <c r="B161" t="str">
         <f>_xlfn.CONCAT(LEFT(A161,FIND(",",A161)),lengths!B154)</f>
-        <v>202=3D elevator,1224</v>
+        <v>202=3D elevator,1210</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
@@ -11094,7 +11276,7 @@
       </c>
       <c r="B162" t="str">
         <f>_xlfn.CONCAT(LEFT(A162,FIND(",",A162)),lengths!B155)</f>
-        <v>203=3D rates active,1320</v>
+        <v>203=3D rates active,1426</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
@@ -11103,7 +11285,7 @@
       </c>
       <c r="B163" t="str">
         <f>_xlfn.CONCAT(LEFT(A163,FIND(",",A163)),lengths!B156)</f>
-        <v>204=3D rates off,1176</v>
+        <v>204=3D rates off,1282</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
@@ -11112,7 +11294,7 @@
       </c>
       <c r="B164" t="str">
         <f>_xlfn.CONCAT(LEFT(A164,FIND(",",A164)),lengths!B157)</f>
-        <v>205=3D rates on,1104</v>
+        <v>205=3D rates on,1234</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
@@ -11121,7 +11303,7 @@
       </c>
       <c r="B165" t="str">
         <f>_xlfn.CONCAT(LEFT(A165,FIND(",",A165)),lengths!B158)</f>
-        <v>206=3D rudder,936</v>
+        <v>206=3D rudder,994</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
@@ -11130,7 +11312,7 @@
       </c>
       <c r="B166" t="str">
         <f>_xlfn.CONCAT(LEFT(A166,FIND(",",A166)),lengths!B159)</f>
-        <v>207=aerobatics,960</v>
+        <v>207=aerobatics,850</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
@@ -11139,7 +11321,7 @@
       </c>
       <c r="B167" t="str">
         <f>_xlfn.CONCAT(LEFT(A167,FIND(",",A167)),lengths!B160)</f>
-        <v>208=aileron,696</v>
+        <v>208=aileron,706</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
@@ -11148,7 +11330,7 @@
       </c>
       <c r="B168" t="str">
         <f>_xlfn.CONCAT(LEFT(A168,FIND(",",A168)),lengths!B161)</f>
-        <v>209=aileron high,888</v>
+        <v>209=aileron high,994</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
@@ -11157,7 +11339,7 @@
       </c>
       <c r="B169" t="str">
         <f>_xlfn.CONCAT(LEFT(A169,FIND(",",A169)),lengths!B162)</f>
-        <v>210=aileron low,960</v>
+        <v>210=aileron low,970</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
@@ -11166,7 +11348,7 @@
       </c>
       <c r="B170" t="str">
         <f>_xlfn.CONCAT(LEFT(A170,FIND(",",A170)),lengths!B163)</f>
-        <v>211=aileron medium,1032</v>
+        <v>211=aileron medium,1138</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
@@ -11175,7 +11357,7 @@
       </c>
       <c r="B171" t="str">
         <f>_xlfn.CONCAT(LEFT(A171,FIND(",",A171)),lengths!B164)</f>
-        <v>212=ailerons,816</v>
+        <v>212=ailerons,778</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
@@ -11184,7 +11366,7 @@
       </c>
       <c r="B172" t="str">
         <f>_xlfn.CONCAT(LEFT(A172,FIND(",",A172)),lengths!B165)</f>
-        <v>213=air brakes closed,1104</v>
+        <v>213=air brakes closed,1210</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
@@ -11193,7 +11375,7 @@
       </c>
       <c r="B173" t="str">
         <f>_xlfn.CONCAT(LEFT(A173,FIND(",",A173)),lengths!B166)</f>
-        <v>214=air brakes open,1056</v>
+        <v>214=air brakes open,1090</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
@@ -11202,7 +11384,7 @@
       </c>
       <c r="B174" t="str">
         <f>_xlfn.CONCAT(LEFT(A174,FIND(",",A174)),lengths!B167)</f>
-        <v>215=airbrake,624</v>
+        <v>215=airbrake,634</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
@@ -11211,7 +11393,7 @@
       </c>
       <c r="B175" t="str">
         <f>_xlfn.CONCAT(LEFT(A175,FIND(",",A175)),lengths!B168)</f>
-        <v>216=airbrake off,864</v>
+        <v>216=airbrake off,922</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
@@ -11220,7 +11402,7 @@
       </c>
       <c r="B176" t="str">
         <f>_xlfn.CONCAT(LEFT(A176,FIND(",",A176)),lengths!B169)</f>
-        <v>217=brakes off,744</v>
+        <v>217=brakes off,802</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.4">
@@ -11229,7 +11411,7 @@
       </c>
       <c r="B177" t="str">
         <f>_xlfn.CONCAT(LEFT(A177,FIND(",",A177)),lengths!B170)</f>
-        <v>218=brakes on,744</v>
+        <v>218=brakes on,826</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.4">
@@ -11238,7 +11420,7 @@
       </c>
       <c r="B178" t="str">
         <f>_xlfn.CONCAT(LEFT(A178,FIND(",",A178)),lengths!B171)</f>
-        <v>219=butterfly off,864</v>
+        <v>219=butterfly off,946</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.4">
@@ -11247,7 +11429,7 @@
       </c>
       <c r="B179" t="str">
         <f>_xlfn.CONCAT(LEFT(A179,FIND(",",A179)),lengths!B172)</f>
-        <v>220=butterfly on,936</v>
+        <v>220=butterfly on,994</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.4">
@@ -11256,7 +11438,7 @@
       </c>
       <c r="B180" t="str">
         <f>_xlfn.CONCAT(LEFT(A180,FIND(",",A180)),lengths!B173)</f>
-        <v>221=crow off,648</v>
+        <v>221=crow off,658</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.4">
@@ -11265,7 +11447,7 @@
       </c>
       <c r="B181" t="str">
         <f>_xlfn.CONCAT(LEFT(A181,FIND(",",A181)),lengths!B174)</f>
-        <v>222=crow on,576</v>
+        <v>222=crow on,730</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.4">
@@ -11274,7 +11456,7 @@
       </c>
       <c r="B182" t="str">
         <f>_xlfn.CONCAT(LEFT(A182,FIND(",",A182)),lengths!B175)</f>
-        <v>223=elevator,792</v>
+        <v>223=elevator,778</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.4">
@@ -11283,7 +11465,7 @@
       </c>
       <c r="B183" t="str">
         <f>_xlfn.CONCAT(LEFT(A183,FIND(",",A183)),lengths!B176)</f>
-        <v>224=elevator high,936</v>
+        <v>224=elevator high,1018</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.4">
@@ -11292,7 +11474,7 @@
       </c>
       <c r="B184" t="str">
         <f>_xlfn.CONCAT(LEFT(A184,FIND(",",A184)),lengths!B177)</f>
-        <v>225=elevator low,960</v>
+        <v>225=elevator low,994</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.4">
@@ -11301,7 +11483,7 @@
       </c>
       <c r="B185" t="str">
         <f>_xlfn.CONCAT(LEFT(A185,FIND(",",A185)),lengths!B178)</f>
-        <v>226=elevator medium,1104</v>
+        <v>226=elevator medium,1138</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.4">
@@ -11310,7 +11492,7 @@
       </c>
       <c r="B186" t="str">
         <f>_xlfn.CONCAT(LEFT(A186,FIND(",",A186)),lengths!B179)</f>
-        <v>227=engine off,576</v>
+        <v>227=engine off,634</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.4">
@@ -11319,7 +11501,7 @@
       </c>
       <c r="B187" t="str">
         <f>_xlfn.CONCAT(LEFT(A187,FIND(",",A187)),lengths!B180)</f>
-        <v>228=engine on,696</v>
+        <v>228=engine on,754</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.4">
@@ -11328,7 +11510,7 @@
       </c>
       <c r="B188" t="str">
         <f>_xlfn.CONCAT(LEFT(A188,FIND(",",A188)),lengths!B181)</f>
-        <v>229=engines armed,864</v>
+        <v>229=engines armed,946</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.4">
@@ -11337,7 +11519,7 @@
       </c>
       <c r="B189" t="str">
         <f>_xlfn.CONCAT(LEFT(A189,FIND(",",A189)),lengths!B182)</f>
-        <v>230=engines disabled,1176</v>
+        <v>230=engines disabled,1234</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.4">
@@ -11346,7 +11528,7 @@
       </c>
       <c r="B190" t="str">
         <f>_xlfn.CONCAT(LEFT(A190,FIND(",",A190)),lengths!B183)</f>
-        <v>231=engines disarmed,1152</v>
+        <v>231=engines disarmed,1162</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.4">
@@ -11355,7 +11537,7 @@
       </c>
       <c r="B191" t="str">
         <f>_xlfn.CONCAT(LEFT(A191,FIND(",",A191)),lengths!B184)</f>
-        <v>232=expo off,696</v>
+        <v>232=expo off,778</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.4">
@@ -11364,7 +11546,7 @@
       </c>
       <c r="B192" t="str">
         <f>_xlfn.CONCAT(LEFT(A192,FIND(",",A192)),lengths!B185)</f>
-        <v>233=expo on,816</v>
+        <v>233=expo on,778</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.4">
@@ -11373,7 +11555,7 @@
       </c>
       <c r="B193" t="str">
         <f>_xlfn.CONCAT(LEFT(A193,FIND(",",A193)),lengths!B186)</f>
-        <v>234=flaps,624</v>
+        <v>234=flaps,634</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.4">
@@ -11382,7 +11564,7 @@
       </c>
       <c r="B194" t="str">
         <f>_xlfn.CONCAT(LEFT(A194,FIND(",",A194)),lengths!B187)</f>
-        <v>235=flaps deployed,984</v>
+        <v>235=flaps deployed,1066</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.4">
@@ -11391,7 +11573,7 @@
       </c>
       <c r="B195" t="str">
         <f>_xlfn.CONCAT(LEFT(A195,FIND(",",A195)),lengths!B188)</f>
-        <v>236=flaps down,816</v>
+        <v>236=flaps down,922</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.4">
@@ -11400,7 +11582,7 @@
       </c>
       <c r="B196" t="str">
         <f>_xlfn.CONCAT(LEFT(A196,FIND(",",A196)),lengths!B189)</f>
-        <v>237=flaps full,840</v>
+        <v>237=flaps full,850</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.4">
@@ -11409,7 +11591,7 @@
       </c>
       <c r="B197" t="str">
         <f>_xlfn.CONCAT(LEFT(A197,FIND(",",A197)),lengths!B190)</f>
-        <v>238=flaps half,864</v>
+        <v>238=flaps half,898</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.4">
@@ -11418,7 +11600,7 @@
       </c>
       <c r="B198" t="str">
         <f>_xlfn.CONCAT(LEFT(A198,FIND(",",A198)),lengths!B191)</f>
-        <v>239=flaps one,888</v>
+        <v>239=flaps one,874</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.4">
@@ -11427,7 +11609,7 @@
       </c>
       <c r="B199" t="str">
         <f>_xlfn.CONCAT(LEFT(A199,FIND(",",A199)),lengths!B192)</f>
-        <v>240=flaps synced with ailerons,1560</v>
+        <v>240=flaps synced with ailerons,1666</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.4">
@@ -11436,7 +11618,7 @@
       </c>
       <c r="B200" t="str">
         <f>_xlfn.CONCAT(LEFT(A200,FIND(",",A200)),lengths!B193)</f>
-        <v>241=flaps two,792</v>
+        <v>241=flaps two,898</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.4">
@@ -11445,7 +11627,7 @@
       </c>
       <c r="B201" t="str">
         <f>_xlfn.CONCAT(LEFT(A201,FIND(",",A201)),lengths!B194)</f>
-        <v>242=flaps up,696</v>
+        <v>242=flaps up,754</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.4">
@@ -11454,7 +11636,7 @@
       </c>
       <c r="B202" t="str">
         <f>_xlfn.CONCAT(LEFT(A202,FIND(",",A202)),lengths!B195)</f>
-        <v>243=Governor speed 1,1128</v>
+        <v>243=Governor speed 1,1234</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.4">
@@ -11463,7 +11645,7 @@
       </c>
       <c r="B203" t="str">
         <f>_xlfn.CONCAT(LEFT(A203,FIND(",",A203)),lengths!B196)</f>
-        <v>244=Governor speed 2,1152</v>
+        <v>244=Governor speed 2,1282</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.4">
@@ -11472,7 +11654,7 @@
       </c>
       <c r="B204" t="str">
         <f>_xlfn.CONCAT(LEFT(A204,FIND(",",A204)),lengths!B197)</f>
-        <v>245=Governor speed 3,1296</v>
+        <v>245=Governor speed 3,1330</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.4">
@@ -11481,7 +11663,7 @@
       </c>
       <c r="B205" t="str">
         <f>_xlfn.CONCAT(LEFT(A205,FIND(",",A205)),lengths!B198)</f>
-        <v>246=high rates,720</v>
+        <v>246=high rates,754</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.4">
@@ -11490,7 +11672,7 @@
       </c>
       <c r="B206" t="str">
         <f>_xlfn.CONCAT(LEFT(A206,FIND(",",A206)),lengths!B199)</f>
-        <v>247=idle down,696</v>
+        <v>247=idle down,754</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.4">
@@ -11499,7 +11681,7 @@
       </c>
       <c r="B207" t="str">
         <f>_xlfn.CONCAT(LEFT(A207,FIND(",",A207)),lengths!B200)</f>
-        <v>248=idle up,624</v>
+        <v>248=idle up,634</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.4">
@@ -11508,7 +11690,7 @@
       </c>
       <c r="B208" t="str">
         <f>_xlfn.CONCAT(LEFT(A208,FIND(",",A208)),lengths!B201)</f>
-        <v>249=idle up 1,888</v>
+        <v>249=idle up 1,922</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.4">
@@ -11517,7 +11699,7 @@
       </c>
       <c r="B209" t="str">
         <f>_xlfn.CONCAT(LEFT(A209,FIND(",",A209)),lengths!B202)</f>
-        <v>250=idle up 2,864</v>
+        <v>250=idle up 2,994</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.4">
@@ -11526,7 +11708,7 @@
       </c>
       <c r="B210" t="str">
         <f>_xlfn.CONCAT(LEFT(A210,FIND(",",A210)),lengths!B203)</f>
-        <v>251=ignition active,1056</v>
+        <v>251=ignition active,1042</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.4">
@@ -11535,7 +11717,7 @@
       </c>
       <c r="B211" t="str">
         <f>_xlfn.CONCAT(LEFT(A211,FIND(",",A211)),lengths!B204)</f>
-        <v>252=ignition off,816</v>
+        <v>252=ignition off,826</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.4">
@@ -11544,7 +11726,7 @@
       </c>
       <c r="B212" t="str">
         <f>_xlfn.CONCAT(LEFT(A212,FIND(",",A212)),lengths!B205)</f>
-        <v>253=ignition on,792</v>
+        <v>253=ignition on,874</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.4">
@@ -11553,7 +11735,7 @@
       </c>
       <c r="B213" t="str">
         <f>_xlfn.CONCAT(LEFT(A213,FIND(",",A213)),lengths!B206)</f>
-        <v>254=low rates,768</v>
+        <v>254=low rates,850</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.4">
@@ -11562,7 +11744,7 @@
       </c>
       <c r="B214" t="str">
         <f>_xlfn.CONCAT(LEFT(A214,FIND(",",A214)),lengths!B207)</f>
-        <v>255=medium rates,984</v>
+        <v>255=medium rates,970</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.4">
@@ -11571,7 +11753,7 @@
       </c>
       <c r="B215" t="str">
         <f>_xlfn.CONCAT(LEFT(A215,FIND(",",A215)),lengths!B208)</f>
-        <v>256=precision aerobatics,1392</v>
+        <v>256=precision aerobatics,1378</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.4">
@@ -11580,7 +11762,7 @@
       </c>
       <c r="B216" t="str">
         <f>_xlfn.CONCAT(LEFT(A216,FIND(",",A216)),lengths!B209)</f>
-        <v>257=reflex,792</v>
+        <v>257=reflex,778</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.4">
@@ -11589,7 +11771,7 @@
       </c>
       <c r="B217" t="str">
         <f>_xlfn.CONCAT(LEFT(A217,FIND(",",A217)),lengths!B210)</f>
-        <v>258=rudder,504</v>
+        <v>258=rudder,538</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.4">
@@ -11598,7 +11780,7 @@
       </c>
       <c r="B218" t="str">
         <f>_xlfn.CONCAT(LEFT(A218,FIND(",",A218)),lengths!B211)</f>
-        <v>259=rudder high,720</v>
+        <v>259=rudder high,754</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.4">
@@ -11607,7 +11789,7 @@
       </c>
       <c r="B219" t="str">
         <f>_xlfn.CONCAT(LEFT(A219,FIND(",",A219)),lengths!B212)</f>
-        <v>260=rudder low,624</v>
+        <v>260=rudder low,706</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.4">
@@ -11616,7 +11798,7 @@
       </c>
       <c r="B220" t="str">
         <f>_xlfn.CONCAT(LEFT(A220,FIND(",",A220)),lengths!B213)</f>
-        <v>261=rudder medium,888</v>
+        <v>261=rudder medium,922</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.4">
@@ -11625,7 +11807,7 @@
       </c>
       <c r="B221" t="str">
         <f>_xlfn.CONCAT(LEFT(A221,FIND(",",A221)),lengths!B214)</f>
-        <v>262=spoiler closed,1056</v>
+        <v>262=spoiler closed,1114</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.4">
@@ -11634,7 +11816,7 @@
       </c>
       <c r="B222" t="str">
         <f>_xlfn.CONCAT(LEFT(A222,FIND(",",A222)),lengths!B215)</f>
-        <v>263=spoiler open,1104</v>
+        <v>263=spoiler open,1066</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.4">
@@ -11643,7 +11825,7 @@
       </c>
       <c r="B223" t="str">
         <f>_xlfn.CONCAT(LEFT(A223,FIND(",",A223)),lengths!B216)</f>
-        <v>264=throttle,456</v>
+        <v>264=throttle,514</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.4">
@@ -11652,7 +11834,7 @@
       </c>
       <c r="B224" t="str">
         <f>_xlfn.CONCAT(LEFT(A224,FIND(",",A224)),lengths!B217)</f>
-        <v>265=throttle active,912</v>
+        <v>265=throttle active,898</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.4">
@@ -11661,7 +11843,7 @@
       </c>
       <c r="B225" t="str">
         <f>_xlfn.CONCAT(LEFT(A225,FIND(",",A225)),lengths!B218)</f>
-        <v>266=throttle disabled,1080</v>
+        <v>266=throttle disabled,1066</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.4">
@@ -11670,7 +11852,7 @@
       </c>
       <c r="B226" t="str">
         <f>_xlfn.CONCAT(LEFT(A226,FIND(",",A226)),lengths!B219)</f>
-        <v>267=throttle hold,864</v>
+        <v>267=throttle hold,874</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.4">
@@ -11679,7 +11861,7 @@
       </c>
       <c r="B227" t="str">
         <f>_xlfn.CONCAT(LEFT(A227,FIND(",",A227)),lengths!B220)</f>
-        <v>268=throttle release,984</v>
+        <v>268=throttle release,994</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.4">
@@ -11688,7 +11870,7 @@
       </c>
       <c r="B228" t="str">
         <f>_xlfn.CONCAT(LEFT(A228,FIND(",",A228)),lengths!B221)</f>
-        <v>269=3d pitch active,1296</v>
+        <v>269=3d pitch active,1402</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.4">
@@ -11697,7 +11879,7 @@
       </c>
       <c r="B229" t="str">
         <f>_xlfn.CONCAT(LEFT(A229,FIND(",",A229)),lengths!B222)</f>
-        <v>270=3d pitch off,1080</v>
+        <v>270=3d pitch off,1210</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.4">
@@ -11706,7 +11888,7 @@
       </c>
       <c r="B230" t="str">
         <f>_xlfn.CONCAT(LEFT(A230,FIND(",",A230)),lengths!B223)</f>
-        <v>271=acro mode,912</v>
+        <v>271=acro mode,922</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.4">
@@ -11715,7 +11897,7 @@
       </c>
       <c r="B231" t="str">
         <f>_xlfn.CONCAT(LEFT(A231,FIND(",",A231)),lengths!B224)</f>
-        <v>272=angle mode,816</v>
+        <v>272=angle mode,778</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.4">
@@ -11724,7 +11906,7 @@
       </c>
       <c r="B232" t="str">
         <f>_xlfn.CONCAT(LEFT(A232,FIND(",",A232)),lengths!B225)</f>
-        <v>273=attitude hold,984</v>
+        <v>273=attitude hold,970</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.4">
@@ -11733,7 +11915,7 @@
       </c>
       <c r="B233" t="str">
         <f>_xlfn.CONCAT(LEFT(A233,FIND(",",A233)),lengths!B226)</f>
-        <v>274=attitude mode,984</v>
+        <v>274=attitude mode,946</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.4">
@@ -11742,7 +11924,7 @@
       </c>
       <c r="B234" t="str">
         <f>_xlfn.CONCAT(LEFT(A234,FIND(",",A234)),lengths!B227)</f>
-        <v>275=auto mode,816</v>
+        <v>275=auto mode,754</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.4">
@@ -11751,7 +11933,7 @@
       </c>
       <c r="B235" t="str">
         <f>_xlfn.CONCAT(LEFT(A235,FIND(",",A235)),lengths!B228)</f>
-        <v>276=auto rotation mode,1392</v>
+        <v>276=auto rotation mode,1378</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.4">
@@ -11760,7 +11942,7 @@
       </c>
       <c r="B236" t="str">
         <f>_xlfn.CONCAT(LEFT(A236,FIND(",",A236)),lengths!B229)</f>
-        <v>277=auto tune mode,1104</v>
+        <v>277=auto tune mode,1042</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.4">
@@ -11769,7 +11951,7 @@
       </c>
       <c r="B237" t="str">
         <f>_xlfn.CONCAT(LEFT(A237,FIND(",",A237)),lengths!B230)</f>
-        <v>278=circle mode,936</v>
+        <v>278=circle mode,898</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.4">
@@ -11778,7 +11960,7 @@
       </c>
       <c r="B238" t="str">
         <f>_xlfn.CONCAT(LEFT(A238,FIND(",",A238)),lengths!B231)</f>
-        <v>279=climbing mode,792</v>
+        <v>279=climbing mode,850</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.4">
@@ -11787,7 +11969,7 @@
       </c>
       <c r="B239" t="str">
         <f>_xlfn.CONCAT(LEFT(A239,FIND(",",A239)),lengths!B232)</f>
-        <v>280=Co-pilot off,912</v>
+        <v>280=Co-pilot off,970</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.4">
@@ -11796,7 +11978,7 @@
       </c>
       <c r="B240" t="str">
         <f>_xlfn.CONCAT(LEFT(A240,FIND(",",A240)),lengths!B233)</f>
-        <v>281=Co-pilot on,936</v>
+        <v>281=Co-pilot on,946</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.4">
@@ -11805,7 +11987,7 @@
       </c>
       <c r="B241" t="str">
         <f>_xlfn.CONCAT(LEFT(A241,FIND(",",A241)),lengths!B234)</f>
-        <v>282=course lock mode,1176</v>
+        <v>282=course lock mode,1114</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.4">
@@ -11814,7 +11996,7 @@
       </c>
       <c r="B242" t="str">
         <f>_xlfn.CONCAT(LEFT(A242,FIND(",",A242)),lengths!B235)</f>
-        <v>283=cruise mode,768</v>
+        <v>283=cruise mode,874</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.4">
@@ -11823,7 +12005,7 @@
       </c>
       <c r="B243" t="str">
         <f>_xlfn.CONCAT(LEFT(A243,FIND(",",A243)),lengths!B236)</f>
-        <v>284=drift mode,864</v>
+        <v>284=drift mode,826</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.4">
@@ -11832,7 +12014,7 @@
       </c>
       <c r="B244" t="str">
         <f>_xlfn.CONCAT(LEFT(A244,FIND(",",A244)),lengths!B237)</f>
-        <v>285=flight mode 0,1248</v>
+        <v>285=flight mode 0,1258</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.4">
@@ -11841,7 +12023,7 @@
       </c>
       <c r="B245" t="str">
         <f>_xlfn.CONCAT(LEFT(A245,FIND(",",A245)),lengths!B238)</f>
-        <v>286=flight mode 1,1128</v>
+        <v>286=flight mode 1,1114</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.4">
@@ -11850,7 +12032,7 @@
       </c>
       <c r="B246" t="str">
         <f>_xlfn.CONCAT(LEFT(A246,FIND(",",A246)),lengths!B239)</f>
-        <v>287=flight mode 2,1104</v>
+        <v>287=flight mode 2,1162</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.4">
@@ -11859,7 +12041,7 @@
       </c>
       <c r="B247" t="str">
         <f>_xlfn.CONCAT(LEFT(A247,FIND(",",A247)),lengths!B240)</f>
-        <v>288=flight mode 3,1152</v>
+        <v>288=flight mode 3,1186</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.4">
@@ -11868,7 +12050,7 @@
       </c>
       <c r="B248" t="str">
         <f>_xlfn.CONCAT(LEFT(A248,FIND(",",A248)),lengths!B241)</f>
-        <v>289=flight mode 4,1128</v>
+        <v>289=flight mode 4,1162</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.4">
@@ -11877,7 +12059,7 @@
       </c>
       <c r="B249" t="str">
         <f>_xlfn.CONCAT(LEFT(A249,FIND(",",A249)),lengths!B242)</f>
-        <v>290=flight mode 5,1128</v>
+        <v>290=flight mode 5,1186</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.4">
@@ -11886,7 +12068,7 @@
       </c>
       <c r="B250" t="str">
         <f>_xlfn.CONCAT(LEFT(A250,FIND(",",A250)),lengths!B243)</f>
-        <v>291=flight mode 6,1248</v>
+        <v>291=flight mode 6,1186</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.4">
@@ -11895,7 +12077,7 @@
       </c>
       <c r="B251" t="str">
         <f>_xlfn.CONCAT(LEFT(A251,FIND(",",A251)),lengths!B244)</f>
-        <v>292=flight mode 8,960</v>
+        <v>292=flight mode 8,1018</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.4">
@@ -11904,7 +12086,7 @@
       </c>
       <c r="B252" t="str">
         <f>_xlfn.CONCAT(LEFT(A252,FIND(",",A252)),lengths!B245)</f>
-        <v>293=fly by wire A,1104</v>
+        <v>293=fly by wire A,1186</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.4">
@@ -11913,7 +12095,7 @@
       </c>
       <c r="B253" t="str">
         <f>_xlfn.CONCAT(LEFT(A253,FIND(",",A253)),lengths!B246)</f>
-        <v>294=fly by wire B,1320</v>
+        <v>294=fly by wire B,1354</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.4">
@@ -11922,7 +12104,7 @@
       </c>
       <c r="B254" t="str">
         <f>_xlfn.CONCAT(LEFT(A254,FIND(",",A254)),lengths!B247)</f>
-        <v>295=fly by wire C,1368</v>
+        <v>295=fly by wire C,1450</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.4">
@@ -11931,7 +12113,7 @@
       </c>
       <c r="B255" t="str">
         <f>_xlfn.CONCAT(LEFT(A255,FIND(",",A255)),lengths!B248)</f>
-        <v>296=follow me mode,864</v>
+        <v>296=follow me mode,1018</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.4">
@@ -11940,7 +12122,7 @@
       </c>
       <c r="B256" t="str">
         <f>_xlfn.CONCAT(LEFT(A256,FIND(",",A256)),lengths!B249)</f>
-        <v>297=GPS mode,1224</v>
+        <v>297=GPS mode,1186</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.4">
@@ -11949,7 +12131,7 @@
       </c>
       <c r="B257" t="str">
         <f>_xlfn.CONCAT(LEFT(A257,FIND(",",A257)),lengths!B250)</f>
-        <v>298=guided mode,840</v>
+        <v>298=guided mode,778</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.4">
@@ -11958,7 +12140,7 @@
       </c>
       <c r="B258" t="str">
         <f>_xlfn.CONCAT(LEFT(A258,FIND(",",A258)),lengths!B251)</f>
-        <v>299=gyro heading hold,1176</v>
+        <v>299=gyro heading hold,1234</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.4">
@@ -11967,7 +12149,7 @@
       </c>
       <c r="B259" t="str">
         <f>_xlfn.CONCAT(LEFT(A259,FIND(",",A259)),lengths!B252)</f>
-        <v>300=gyro rate mode,1200</v>
+        <v>300=gyro rate mode,1162</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.4">
@@ -11976,7 +12158,7 @@
       </c>
       <c r="B260" t="str">
         <f>_xlfn.CONCAT(LEFT(A260,FIND(",",A260)),lengths!B253)</f>
-        <v>301=heading hold active,1104</v>
+        <v>301=heading hold active,1162</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.4">
@@ -11985,7 +12167,7 @@
       </c>
       <c r="B261" t="str">
         <f>_xlfn.CONCAT(LEFT(A261,FIND(",",A261)),lengths!B254)</f>
-        <v>302=home lock mode,984</v>
+        <v>302=home lock mode,1018</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.4">
@@ -11994,7 +12176,7 @@
       </c>
       <c r="B262" t="str">
         <f>_xlfn.CONCAT(LEFT(A262,FIND(",",A262)),lengths!B255)</f>
-        <v>303=horizon mode,984</v>
+        <v>303=horizon mode,994</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.4">
@@ -12003,7 +12185,7 @@
       </c>
       <c r="B263" t="str">
         <f>_xlfn.CONCAT(LEFT(A263,FIND(",",A263)),lengths!B256)</f>
-        <v>304=hover mode,696</v>
+        <v>304=hover mode,754</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.4">
@@ -12012,7 +12194,7 @@
       </c>
       <c r="B264" t="str">
         <f>_xlfn.CONCAT(LEFT(A264,FIND(",",A264)),lengths!B257)</f>
-        <v>305=hybrid mode,816</v>
+        <v>305=hybrid mode,850</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.4">
@@ -12021,7 +12203,7 @@
       </c>
       <c r="B265" t="str">
         <f>_xlfn.CONCAT(LEFT(A265,FIND(",",A265)),lengths!B258)</f>
-        <v>306=landing mode,864</v>
+        <v>306=landing mode,874</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.4">
@@ -12030,7 +12212,7 @@
       </c>
       <c r="B266" t="str">
         <f>_xlfn.CONCAT(LEFT(A266,FIND(",",A266)),lengths!B259)</f>
-        <v>307=launch mode,816</v>
+        <v>307=launch mode,826</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.4">
@@ -12039,7 +12221,7 @@
       </c>
       <c r="B267" t="str">
         <f>_xlfn.CONCAT(LEFT(A267,FIND(",",A267)),lengths!B260)</f>
-        <v>308=loiter mode,768</v>
+        <v>308=loiter mode,850</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.4">
@@ -12048,7 +12230,7 @@
       </c>
       <c r="B268" t="str">
         <f>_xlfn.CONCAT(LEFT(A268,FIND(",",A268)),lengths!B261)</f>
-        <v>309=normal mode,864</v>
+        <v>309=normal mode,898</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.4">
@@ -12057,7 +12239,7 @@
       </c>
       <c r="B269" t="str">
         <f>_xlfn.CONCAT(LEFT(A269,FIND(",",A269)),lengths!B262)</f>
-        <v>310=position hold,960</v>
+        <v>310=position hold,922</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.4">
@@ -12066,7 +12248,7 @@
       </c>
       <c r="B270" t="str">
         <f>_xlfn.CONCAT(LEFT(A270,FIND(",",A270)),lengths!B263)</f>
-        <v>311=Race mode,744</v>
+        <v>311=Race mode,754</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.4">
@@ -12075,7 +12257,7 @@
       </c>
       <c r="B271" t="str">
         <f>_xlfn.CONCAT(LEFT(A271,FIND(",",A271)),lengths!B264)</f>
-        <v>312=rate mode active,1104</v>
+        <v>312=rate mode active,1090</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.4">
@@ -12084,7 +12266,7 @@
       </c>
       <c r="B272" t="str">
         <f>_xlfn.CONCAT(LEFT(A272,FIND(",",A272)),lengths!B265)</f>
-        <v>313=recovery,672</v>
+        <v>313=recovery,754</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.4">
@@ -12093,7 +12275,7 @@
       </c>
       <c r="B273" t="str">
         <f>_xlfn.CONCAT(LEFT(A273,FIND(",",A273)),lengths!B266)</f>
-        <v>314=seek mode,744</v>
+        <v>314=seek mode,778</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.4">
@@ -12102,7 +12284,7 @@
       </c>
       <c r="B274" t="str">
         <f>_xlfn.CONCAT(LEFT(A274,FIND(",",A274)),lengths!B267)</f>
-        <v>315=self level mixing mode,1512</v>
+        <v>315=self level mixing mode,1594</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.4">
@@ -12111,7 +12293,7 @@
       </c>
       <c r="B275" t="str">
         <f>_xlfn.CONCAT(LEFT(A275,FIND(",",A275)),lengths!B268)</f>
-        <v>316=self level mode,1128</v>
+        <v>316=self level mode,1138</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.4">
@@ -12120,7 +12302,7 @@
       </c>
       <c r="B276" t="str">
         <f>_xlfn.CONCAT(LEFT(A276,FIND(",",A276)),lengths!B269)</f>
-        <v>317=speed mode,840</v>
+        <v>317=speed mode,850</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.4">
@@ -12129,7 +12311,7 @@
       </c>
       <c r="B277" t="str">
         <f>_xlfn.CONCAT(LEFT(A277,FIND(",",A277)),lengths!B270)</f>
-        <v>318=sport mode,888</v>
+        <v>318=sport mode,826</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.4">
@@ -12138,7 +12320,7 @@
       </c>
       <c r="B278" t="str">
         <f>_xlfn.CONCAT(LEFT(A278,FIND(",",A278)),lengths!B271)</f>
-        <v>319=stabilization off,1296</v>
+        <v>319=stabilization off,1306</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.4">
@@ -12147,7 +12329,7 @@
       </c>
       <c r="B279" t="str">
         <f>_xlfn.CONCAT(LEFT(A279,FIND(",",A279)),lengths!B272)</f>
-        <v>320=stabilization on,1272</v>
+        <v>320=stabilization on,1354</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.4">
@@ -12156,7 +12338,7 @@
       </c>
       <c r="B280" t="str">
         <f>_xlfn.CONCAT(LEFT(A280,FIND(",",A280)),lengths!B273)</f>
-        <v>321=stabilize mode,1056</v>
+        <v>321=stabilize mode,1138</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.4">
@@ -12165,7 +12347,7 @@
       </c>
       <c r="B281" t="str">
         <f>_xlfn.CONCAT(LEFT(A281,FIND(",",A281)),lengths!B274)</f>
-        <v>322=stunt mode,816</v>
+        <v>322=stunt mode,826</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.4">
@@ -12174,7 +12356,7 @@
       </c>
       <c r="B282" t="str">
         <f>_xlfn.CONCAT(LEFT(A282,FIND(",",A282)),lengths!B275)</f>
-        <v>323=thermal mode,768</v>
+        <v>323=thermal mode,778</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.4">
@@ -12183,7 +12365,7 @@
       </c>
       <c r="B283" t="str">
         <f>_xlfn.CONCAT(LEFT(A283,FIND(",",A283)),lengths!B276)</f>
-        <v>324=trainer,648</v>
+        <v>324=trainer,658</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.4">
@@ -12192,7 +12374,7 @@
       </c>
       <c r="B284" t="str">
         <f>_xlfn.CONCAT(LEFT(A284,FIND(",",A284)),lengths!B277)</f>
-        <v>325=training mode,816</v>
+        <v>325=training mode,826</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.4">
@@ -12201,7 +12383,7 @@
       </c>
       <c r="B285" t="str">
         <f>_xlfn.CONCAT(LEFT(A285,FIND(",",A285)),lengths!B278)</f>
-        <v>326=waypoint,720</v>
+        <v>326=waypoint,706</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.4">
@@ -12210,7 +12392,7 @@
       </c>
       <c r="B286" t="str">
         <f>_xlfn.CONCAT(LEFT(A286,FIND(",",A286)),lengths!B279)</f>
-        <v>327=zoom mode,744</v>
+        <v>327=zoom mode,778</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.4">
@@ -12219,7 +12401,7 @@
       </c>
       <c r="B287" t="str">
         <f>_xlfn.CONCAT(LEFT(A287,FIND(",",A287)),lengths!B280)</f>
-        <v>328=barometer off,840</v>
+        <v>328=barometer off,970</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.4">
@@ -12228,7 +12410,7 @@
       </c>
       <c r="B288" t="str">
         <f>_xlfn.CONCAT(LEFT(A288,FIND(",",A288)),lengths!B281)</f>
-        <v>329=barometer on,864</v>
+        <v>329=barometer on,946</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.4">
@@ -12237,7 +12419,7 @@
       </c>
       <c r="B289" t="str">
         <f>_xlfn.CONCAT(LEFT(A289,FIND(",",A289)),lengths!B282)</f>
-        <v>330=battery consumption,1248</v>
+        <v>330=battery consumption,1306</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.4">
@@ -12246,7 +12428,7 @@
       </c>
       <c r="B290" t="str">
         <f>_xlfn.CONCAT(LEFT(A290,FIND(",",A290)),lengths!B283)</f>
-        <v>331=bombs away,864</v>
+        <v>331=bombs away,850</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.4">
@@ -12255,7 +12437,7 @@
       </c>
       <c r="B291" t="str">
         <f>_xlfn.CONCAT(LEFT(A291,FIND(",",A291)),lengths!B284)</f>
-        <v>332=bombs released,936</v>
+        <v>332=bombs released,994</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.4">
@@ -12264,7 +12446,7 @@
       </c>
       <c r="B292" t="str">
         <f>_xlfn.CONCAT(LEFT(A292,FIND(",",A292)),lengths!B285)</f>
-        <v>333=camera centered,1032</v>
+        <v>333=camera centered,1114</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.4">
@@ -12273,7 +12455,7 @@
       </c>
       <c r="B293" t="str">
         <f>_xlfn.CONCAT(LEFT(A293,FIND(",",A293)),lengths!B286)</f>
-        <v>334=camera fixed,984</v>
+        <v>334=camera fixed,994</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.4">
@@ -12282,7 +12464,7 @@
       </c>
       <c r="B294" t="str">
         <f>_xlfn.CONCAT(LEFT(A294,FIND(",",A294)),lengths!B287)</f>
-        <v>335=camera manual,1008</v>
+        <v>335=camera manual,1042</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.4">
@@ -12291,7 +12473,7 @@
       </c>
       <c r="B295" t="str">
         <f>_xlfn.CONCAT(LEFT(A295,FIND(",",A295)),lengths!B288)</f>
-        <v>336=camera off,744</v>
+        <v>336=camera off,850</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.4">
@@ -12300,7 +12482,7 @@
       </c>
       <c r="B296" t="str">
         <f>_xlfn.CONCAT(LEFT(A296,FIND(",",A296)),lengths!B289)</f>
-        <v>337=camera on,840</v>
+        <v>337=camera on,946</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.4">
@@ -12309,7 +12491,7 @@
       </c>
       <c r="B297" t="str">
         <f>_xlfn.CONCAT(LEFT(A297,FIND(",",A297)),lengths!B290)</f>
-        <v>338=compass off,672</v>
+        <v>338=compass off,754</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.4">
@@ -12318,7 +12500,7 @@
       </c>
       <c r="B298" t="str">
         <f>_xlfn.CONCAT(LEFT(A298,FIND(",",A298)),lengths!B291)</f>
-        <v>339=compass on,744</v>
+        <v>339=compass on,778</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.4">
@@ -12327,7 +12509,7 @@
       </c>
       <c r="B299" t="str">
         <f>_xlfn.CONCAT(LEFT(A299,FIND(",",A299)),lengths!B292)</f>
-        <v>340=current draw,768</v>
+        <v>340=current draw,850</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.4">
@@ -12336,7 +12518,7 @@
       </c>
       <c r="B300" t="str">
         <f>_xlfn.CONCAT(LEFT(A300,FIND(",",A300)),lengths!B293)</f>
-        <v>341=gear down,792</v>
+        <v>341=gear down,778</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.4">
@@ -12345,7 +12527,7 @@
       </c>
       <c r="B301" t="str">
         <f>_xlfn.CONCAT(LEFT(A301,FIND(",",A301)),lengths!B294)</f>
-        <v>342=gear up,432</v>
+        <v>342=gear up,514</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.4">
@@ -12354,7 +12536,7 @@
       </c>
       <c r="B302" t="str">
         <f>_xlfn.CONCAT(LEFT(A302,FIND(",",A302)),lengths!B295)</f>
-        <v>343=gimbal active,888</v>
+        <v>343=gimbal active,898</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.4">
@@ -12363,7 +12545,7 @@
       </c>
       <c r="B303" t="str">
         <f>_xlfn.CONCAT(LEFT(A303,FIND(",",A303)),lengths!B296)</f>
-        <v>344=gimbal off,648</v>
+        <v>344=gimbal off,730</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.4">
@@ -12372,7 +12554,7 @@
       </c>
       <c r="B304" t="str">
         <f>_xlfn.CONCAT(LEFT(A304,FIND(",",A304)),lengths!B297)</f>
-        <v>345=gimbal on,576</v>
+        <v>345=gimbal on,682</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.4">
@@ -12381,7 +12563,7 @@
       </c>
       <c r="B305" t="str">
         <f>_xlfn.CONCAT(LEFT(A305,FIND(",",A305)),lengths!B298)</f>
-        <v>346=lowest cell,936</v>
+        <v>346=lowest cell,922</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.4">
@@ -12390,7 +12572,7 @@
       </c>
       <c r="B306" t="str">
         <f>_xlfn.CONCAT(LEFT(A306,FIND(",",A306)),lengths!B299)</f>
-        <v>347=magnetometer off,1176</v>
+        <v>347=magnetometer off,1210</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.4">
@@ -12399,7 +12581,7 @@
       </c>
       <c r="B307" t="str">
         <f>_xlfn.CONCAT(LEFT(A307,FIND(",",A307)),lengths!B300)</f>
-        <v>348=magnetometer on,1224</v>
+        <v>348=magnetometer on,1258</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.4">
@@ -12408,7 +12590,7 @@
       </c>
       <c r="B308" t="str">
         <f>_xlfn.CONCAT(LEFT(A308,FIND(",",A308)),lengths!B301)</f>
-        <v>349=pack voltage,960</v>
+        <v>349=pack voltage,922</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.4">
@@ -12417,7 +12599,7 @@
       </c>
       <c r="B309" t="str">
         <f>_xlfn.CONCAT(LEFT(A309,FIND(",",A309)),lengths!B302)</f>
-        <v>350=parachute deployed,1056</v>
+        <v>350=parachute deployed,1234</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.4">
@@ -12426,7 +12608,7 @@
       </c>
       <c r="B310" t="str">
         <f>_xlfn.CONCAT(LEFT(A310,FIND(",",A310)),lengths!B303)</f>
-        <v>351=power reading,864</v>
+        <v>351=power reading,922</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.4">
@@ -12435,7 +12617,7 @@
       </c>
       <c r="B311" t="str">
         <f>_xlfn.CONCAT(LEFT(A311,FIND(",",A311)),lengths!B304)</f>
-        <v>352=smoke off,696</v>
+        <v>352=smoke off,778</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.4">
@@ -12444,7 +12626,7 @@
       </c>
       <c r="B312" t="str">
         <f>_xlfn.CONCAT(LEFT(A312,FIND(",",A312)),lengths!B305)</f>
-        <v>353=smoke on,768</v>
+        <v>353=smoke on,874</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.4">
@@ -12453,7 +12635,887 @@
       </c>
       <c r="B313" t="str">
         <f>_xlfn.CONCAT(LEFT(A313,FIND(",",A313)),lengths!B306)</f>
-        <v>354=timer reset,840</v>
+        <v>354=timer reset,946</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2089BB9-58A9-4163-AE91-6D6BE49CC6BD}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="39.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.69140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1" t="s">
+        <v>957</v>
+      </c>
+      <c r="F1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C2">
+        <v>355</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A2,CHAR(34)," ",CHAR(34),"0",C2,"_",B2,".mp3",CHAR(34))</f>
+        <v>ren "0400_balls of steel.mp3" "0355_balls of steel.mp3"</v>
+      </c>
+      <c r="E2">
+        <v>2.1158999999999999</v>
+      </c>
+      <c r="F2">
+        <f>ROUND(E2*1000,0)</f>
+        <v>2116</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT(C2,"=",B2,",",F2)</f>
+        <v>355=balls of steel,2116</v>
+      </c>
+      <c r="I2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B3" t="s">
+        <v>928</v>
+      </c>
+      <c r="C3">
+        <v>356</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D30" si="0">_xlfn.CONCAT("ren ",CHAR(34),A3,CHAR(34)," ",CHAR(34),"0",C3,"_",B3,".mp3",CHAR(34))</f>
+        <v>ren "0401_boom.mp3" "0356_boom.mp3"</v>
+      </c>
+      <c r="E3">
+        <v>6.5567349999999998</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F30" si="1">ROUND(E3*1000,0)</f>
+        <v>6557</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G30" si="2">_xlfn.CONCAT(C3,"=",B3,",",F3)</f>
+        <v>356=boom,6557</v>
+      </c>
+      <c r="I3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>961</v>
+      </c>
+      <c r="B4" t="s">
+        <v>929</v>
+      </c>
+      <c r="C4">
+        <v>357</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0402_cartman2.mp3" "0357_cartman2.mp3"</v>
+      </c>
+      <c r="E4">
+        <v>3.1013329999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>3101</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>357=cartman2,3101</v>
+      </c>
+      <c r="I4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>962</v>
+      </c>
+      <c r="B5" t="s">
+        <v>930</v>
+      </c>
+      <c r="C5">
+        <v>358</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0403_im really rich.mp3" "0358_im really rich.mp3"</v>
+      </c>
+      <c r="E5">
+        <v>1.097143</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1097</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>358=im really rich,1097</v>
+      </c>
+      <c r="I5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B6" t="s">
+        <v>932</v>
+      </c>
+      <c r="C6">
+        <v>359</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0404_dramatic.mp3" "0359_dramatic.mp3"</v>
+      </c>
+      <c r="E6">
+        <v>5.4857139999999998</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5486</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>359=dramatic,5486</v>
+      </c>
+      <c r="I6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>964</v>
+      </c>
+      <c r="B7" t="s">
+        <v>933</v>
+      </c>
+      <c r="C7">
+        <v>360</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0405_epic.mp3" "0360_epic.mp3"</v>
+      </c>
+      <c r="E7">
+        <v>17.005749999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>17006</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>360=epic,17006</v>
+      </c>
+      <c r="I7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>965</v>
+      </c>
+      <c r="B8" t="s">
+        <v>934</v>
+      </c>
+      <c r="C8">
+        <v>361</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0406_careless whisper.mp3" "0361_careless whisper.mp3"</v>
+      </c>
+      <c r="E8">
+        <v>9.0645000000000007</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>9065</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>361=careless whisper,9065</v>
+      </c>
+      <c r="I8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>966</v>
+      </c>
+      <c r="B9" t="s">
+        <v>935</v>
+      </c>
+      <c r="C9">
+        <v>362</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0407_get choppah.mp3" "0362_get choppah.mp3"</v>
+      </c>
+      <c r="E9">
+        <v>1.985306</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1985</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>362=get choppah,1985</v>
+      </c>
+      <c r="I9">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>967</v>
+      </c>
+      <c r="B10" t="s">
+        <v>936</v>
+      </c>
+      <c r="C10">
+        <v>363</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0408_ha ha.mp3" "0363_ha ha.mp3"</v>
+      </c>
+      <c r="E10">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1352</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>363=ha ha,1352</v>
+      </c>
+      <c r="I10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>968</v>
+      </c>
+      <c r="B11" t="s">
+        <v>937</v>
+      </c>
+      <c r="C11">
+        <v>364</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0409_ill be back.mp3" "0364_ill be back.mp3"</v>
+      </c>
+      <c r="E11">
+        <v>1.217625</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1218</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>364=ill be back,1218</v>
+      </c>
+      <c r="I11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>969</v>
+      </c>
+      <c r="B12" t="s">
+        <v>938</v>
+      </c>
+      <c r="C12">
+        <v>365</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0410_inception.mp3" "0365_inception.mp3"</v>
+      </c>
+      <c r="E12">
+        <v>3.0382500000000001</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3038</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>365=inception,3038</v>
+      </c>
+      <c r="I12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>970</v>
+      </c>
+      <c r="B13" t="s">
+        <v>939</v>
+      </c>
+      <c r="C13">
+        <v>366</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0411_very nice.mp3" "0366_very nice.mp3"</v>
+      </c>
+      <c r="E13">
+        <v>7.2097499999999997</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>7210</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>366=very nice,7210</v>
+      </c>
+      <c r="I13">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>971</v>
+      </c>
+      <c r="B14" t="s">
+        <v>940</v>
+      </c>
+      <c r="C14">
+        <v>367</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0412_joke.mp3" "0367_joke.mp3"</v>
+      </c>
+      <c r="E14">
+        <v>2.4555099999999999</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2456</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>367=joke,2456</v>
+      </c>
+      <c r="I14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>972</v>
+      </c>
+      <c r="B15" t="s">
+        <v>941</v>
+      </c>
+      <c r="C15">
+        <v>368</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0413_authoritah.mp3" "0368_authoritah.mp3"</v>
+      </c>
+      <c r="E15">
+        <v>2.7460499999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2746</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>368=authoritah,2746</v>
+      </c>
+      <c r="I15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>973</v>
+      </c>
+      <c r="B16" t="s">
+        <v>942</v>
+      </c>
+      <c r="C16">
+        <v>369</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0414_metal gear.mp3" "0369_metal gear.mp3"</v>
+      </c>
+      <c r="E16">
+        <v>1.880816</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1881</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>369=metal gear,1881</v>
+      </c>
+      <c r="I16">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>974</v>
+      </c>
+      <c r="B17" t="s">
+        <v>943</v>
+      </c>
+      <c r="C17">
+        <v>370</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0415_airhorn.mp3" "0370_airhorn.mp3"</v>
+      </c>
+      <c r="E17">
+        <v>3.0040819999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>3004</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>370=airhorn,3004</v>
+      </c>
+      <c r="I17">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>975</v>
+      </c>
+      <c r="B18" t="s">
+        <v>944</v>
+      </c>
+      <c r="C18">
+        <v>371</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0416_elevator music.mp3" "0371_elevator music.mp3"</v>
+      </c>
+      <c r="E18">
+        <v>10.710203999999999</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>10710</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>371=elevator music,10710</v>
+      </c>
+      <c r="I18">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>976</v>
+      </c>
+      <c r="B19" t="s">
+        <v>931</v>
+      </c>
+      <c r="C19">
+        <v>372</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0417_nooo.mp3" "0372_nooo.mp3"</v>
+      </c>
+      <c r="E19">
+        <v>5.3027499999999996</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5303</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>372=nooo,5303</v>
+      </c>
+      <c r="I19">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>977</v>
+      </c>
+      <c r="B20" t="s">
+        <v>945</v>
+      </c>
+      <c r="C20">
+        <v>373</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0418_no problemo.mp3" "0373_no problemo.mp3"</v>
+      </c>
+      <c r="E20">
+        <v>0.96653100000000003</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>967</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>373=no problemo,967</v>
+      </c>
+      <c r="I20">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>978</v>
+      </c>
+      <c r="B21" t="s">
+        <v>946</v>
+      </c>
+      <c r="C21">
+        <v>374</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0419_over9000.mp3" "0374_over9000.mp3"</v>
+      </c>
+      <c r="E21">
+        <v>2.6383749999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2638</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>374=over9000,2638</v>
+      </c>
+      <c r="I21">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>979</v>
+      </c>
+      <c r="B22" t="s">
+        <v>947</v>
+      </c>
+      <c r="C22">
+        <v>375</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0420_fart.mp3" "0375_fart.mp3"</v>
+      </c>
+      <c r="E22">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>375=fart,336</v>
+      </c>
+      <c r="I22">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>980</v>
+      </c>
+      <c r="B23" t="s">
+        <v>948</v>
+      </c>
+      <c r="C23">
+        <v>376</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0421_ps1.mp3" "0376_ps1.mp3"</v>
+      </c>
+      <c r="E23">
+        <v>18.181125000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>18181</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>376=ps1,18181</v>
+      </c>
+      <c r="I23">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>981</v>
+      </c>
+      <c r="B24" t="s">
+        <v>949</v>
+      </c>
+      <c r="C24">
+        <v>377</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0422_retard.mp3" "0377_retard.mp3"</v>
+      </c>
+      <c r="E24">
+        <v>2.08975</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2090</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>377=retard,2090</v>
+      </c>
+      <c r="I24">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>982</v>
+      </c>
+      <c r="B25" t="s">
+        <v>950</v>
+      </c>
+      <c r="C25">
+        <v>378</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0423_sad.mp3" "0378_sad.mp3"</v>
+      </c>
+      <c r="E25">
+        <v>3.6226880000000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>3623</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>378=sad,3623</v>
+      </c>
+      <c r="I25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>983</v>
+      </c>
+      <c r="B26" t="s">
+        <v>951</v>
+      </c>
+      <c r="C26">
+        <v>379</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0424_sexy.mp3" "0379_sexy.mp3"</v>
+      </c>
+      <c r="E26">
+        <v>11.467750000000001</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>11468</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>379=sexy,11468</v>
+      </c>
+      <c r="I26">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>984</v>
+      </c>
+      <c r="B27" t="s">
+        <v>952</v>
+      </c>
+      <c r="C27">
+        <v>380</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0425_shutup.mp3" "0380_shutup.mp3"</v>
+      </c>
+      <c r="E27">
+        <v>1.1493880000000001</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1149</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>380=shutup,1149</v>
+      </c>
+      <c r="I27">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>985</v>
+      </c>
+      <c r="B28" t="s">
+        <v>953</v>
+      </c>
+      <c r="C28">
+        <v>381</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0426_this is sparta.mp3" "0381_this is sparta.mp3"</v>
+      </c>
+      <c r="E28">
+        <v>5.1520000000000001</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>5152</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>381=this is sparta,5152</v>
+      </c>
+      <c r="I28">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>986</v>
+      </c>
+      <c r="B29" t="s">
+        <v>954</v>
+      </c>
+      <c r="C29">
+        <v>382</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0427_trololol.mp3" "0382_trololol.mp3"</v>
+      </c>
+      <c r="E29">
+        <v>9.9526529999999998</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>9953</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>382=trololol,9953</v>
+      </c>
+      <c r="I29">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>987</v>
+      </c>
+      <c r="B30" t="s">
+        <v>955</v>
+      </c>
+      <c r="C30">
+        <v>383</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>ren "0428_zelda.mp3" "0383_zelda.mp3"</v>
+      </c>
+      <c r="E30">
+        <v>2.6383670000000001</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>2638</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>383=zelda,2638</v>
+      </c>
+      <c r="I30">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/JumperT8SG/voice/2-trim/files.xlsx
+++ b/JumperT8SG/voice/2-trim/files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erwin\Desktop\Research\JumperT8SG\voice\2-trim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ABFC9A-C3C3-4194-B082-CFE9BF9761B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AAEF2E-447E-45AC-BE59-71B53B062B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="17" windowWidth="23434" windowHeight="15017" activeTab="3" xr2:uid="{C40F0988-F622-4CE7-9E9C-F802A88E2C37}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="1054">
   <si>
     <t>original</t>
   </si>
@@ -2835,9 +2835,6 @@
     <t>dramatic</t>
   </si>
   <si>
-    <t>epic</t>
-  </si>
-  <si>
     <t>careless whisper</t>
   </si>
   <si>
@@ -2913,91 +2910,292 @@
     <t>ms</t>
   </si>
   <si>
-    <t>0400_balls of steel.mp3</t>
-  </si>
-  <si>
-    <t>0401_boom.mp3</t>
-  </si>
-  <si>
-    <t>0402_cartman2.mp3</t>
-  </si>
-  <si>
-    <t>0403_im really rich.mp3</t>
-  </si>
-  <si>
-    <t>0404_dramatic.mp3</t>
-  </si>
-  <si>
-    <t>0405_epic.mp3</t>
-  </si>
-  <si>
-    <t>0406_careless whisper.mp3</t>
-  </si>
-  <si>
-    <t>0407_get choppah.mp3</t>
-  </si>
-  <si>
-    <t>0408_ha ha.mp3</t>
-  </si>
-  <si>
-    <t>0409_ill be back.mp3</t>
-  </si>
-  <si>
-    <t>0410_inception.mp3</t>
-  </si>
-  <si>
     <t>0411_very nice.mp3</t>
   </si>
   <si>
-    <t>0412_joke.mp3</t>
-  </si>
-  <si>
-    <t>0413_authoritah.mp3</t>
-  </si>
-  <si>
-    <t>0414_metal gear.mp3</t>
-  </si>
-  <si>
-    <t>0415_airhorn.mp3</t>
-  </si>
-  <si>
-    <t>0416_elevator music.mp3</t>
-  </si>
-  <si>
-    <t>0417_nooo.mp3</t>
-  </si>
-  <si>
-    <t>0418_no problemo.mp3</t>
-  </si>
-  <si>
-    <t>0419_over9000.mp3</t>
-  </si>
-  <si>
-    <t>0420_fart.mp3</t>
-  </si>
-  <si>
-    <t>0421_ps1.mp3</t>
-  </si>
-  <si>
-    <t>0422_retard.mp3</t>
-  </si>
-  <si>
-    <t>0423_sad.mp3</t>
-  </si>
-  <si>
-    <t>0424_sexy.mp3</t>
-  </si>
-  <si>
-    <t>0425_shutup.mp3</t>
-  </si>
-  <si>
-    <t>0426_this is sparta.mp3</t>
-  </si>
-  <si>
-    <t>0427_trololol.mp3</t>
-  </si>
-  <si>
-    <t>0428_zelda.mp3</t>
+    <t>fuck yea</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>curb</t>
+  </si>
+  <si>
+    <t>tralala</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>bomb defused</t>
+  </si>
+  <si>
+    <t>bomb planted</t>
+  </si>
+  <si>
+    <t>ding</t>
+  </si>
+  <si>
+    <t>final countdown</t>
+  </si>
+  <si>
+    <t>for me</t>
+  </si>
+  <si>
+    <t>fuck this shit</t>
+  </si>
+  <si>
+    <t>nerd</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>build wall</t>
+  </si>
+  <si>
+    <t>mario jump</t>
+  </si>
+  <si>
+    <t>lets get ready</t>
+  </si>
+  <si>
+    <t>mission impossible</t>
+  </si>
+  <si>
+    <t>nigga you gay</t>
+  </si>
+  <si>
+    <t>who cares</t>
+  </si>
+  <si>
+    <t>pickle rick</t>
+  </si>
+  <si>
+    <t>pussy</t>
+  </si>
+  <si>
+    <t>retard alert</t>
+  </si>
+  <si>
+    <t>thug life</t>
+  </si>
+  <si>
+    <t>spanish flea</t>
+  </si>
+  <si>
+    <t>taldo</t>
+  </si>
+  <si>
+    <t>star theme</t>
+  </si>
+  <si>
+    <t>benny hill</t>
+  </si>
+  <si>
+    <t>turn down for what</t>
+  </si>
+  <si>
+    <t>epic sax</t>
+  </si>
+  <si>
+    <t>I believe I can fly</t>
+  </si>
+  <si>
+    <t>we are the champions</t>
+  </si>
+  <si>
+    <t>wet fart</t>
+  </si>
+  <si>
+    <t>what is love</t>
+  </si>
+  <si>
+    <t>do not give up</t>
+  </si>
+  <si>
+    <t>0355_airhorn.mp3</t>
+  </si>
+  <si>
+    <t>0356_angry.mp3</t>
+  </si>
+  <si>
+    <t>0357_authoritah.mp3</t>
+  </si>
+  <si>
+    <t>0358_balls of steel.mp3</t>
+  </si>
+  <si>
+    <t>0359_benny hill.mp3</t>
+  </si>
+  <si>
+    <t>0360_bomb defused.mp3</t>
+  </si>
+  <si>
+    <t>0361_bomb planted.mp3</t>
+  </si>
+  <si>
+    <t>0362_boom.mp3</t>
+  </si>
+  <si>
+    <t>0363_build wall.mp3</t>
+  </si>
+  <si>
+    <t>0364_careless whisper.mp3</t>
+  </si>
+  <si>
+    <t>0365_cartman2.mp3</t>
+  </si>
+  <si>
+    <t>0366_curb.mp3</t>
+  </si>
+  <si>
+    <t>0367_ding.mp3</t>
+  </si>
+  <si>
+    <t>0368_dramatic.mp3</t>
+  </si>
+  <si>
+    <t>0369_elevator music.mp3</t>
+  </si>
+  <si>
+    <t>0370_epic.mp3</t>
+  </si>
+  <si>
+    <t>0371_epic sax.mp3</t>
+  </si>
+  <si>
+    <t>0372_fart.mp3</t>
+  </si>
+  <si>
+    <t>0373_final countdown.mp3</t>
+  </si>
+  <si>
+    <t>0374_for me.mp3</t>
+  </si>
+  <si>
+    <t>0375_fuck this shit.mp3</t>
+  </si>
+  <si>
+    <t>0376_fuck yea.mp3</t>
+  </si>
+  <si>
+    <t>0377_get choppah.mp3</t>
+  </si>
+  <si>
+    <t>0378_ha ha.mp3</t>
+  </si>
+  <si>
+    <t>0379_I believe I can fly.mp3</t>
+  </si>
+  <si>
+    <t>0380_ill be back.mp3</t>
+  </si>
+  <si>
+    <t>0381_im really rich.mp3</t>
+  </si>
+  <si>
+    <t>0382_inception.mp3</t>
+  </si>
+  <si>
+    <t>0383_joke.mp3</t>
+  </si>
+  <si>
+    <t>0384_lets get ready.mp3</t>
+  </si>
+  <si>
+    <t>0385_mario jump.mp3</t>
+  </si>
+  <si>
+    <t>0386_metal gear.mp3</t>
+  </si>
+  <si>
+    <t>0387_mission impossible.mp3</t>
+  </si>
+  <si>
+    <t>0388_nein.mp3</t>
+  </si>
+  <si>
+    <t>0389_nerd.mp3</t>
+  </si>
+  <si>
+    <t>0390_nigga you gay.mp3</t>
+  </si>
+  <si>
+    <t>0391_no problemo.mp3</t>
+  </si>
+  <si>
+    <t>0392_nooo.mp3</t>
+  </si>
+  <si>
+    <t>0393_over9000.mp3</t>
+  </si>
+  <si>
+    <t>0394_pickle rick.mp3</t>
+  </si>
+  <si>
+    <t>0395_ps1.mp3</t>
+  </si>
+  <si>
+    <t>0396_pussy.mp3</t>
+  </si>
+  <si>
+    <t>0397_retard.mp3</t>
+  </si>
+  <si>
+    <t>0398_retard alert.mp3</t>
+  </si>
+  <si>
+    <t>0399_run.mp3</t>
+  </si>
+  <si>
+    <t>0400_sad.mp3</t>
+  </si>
+  <si>
+    <t>0401_sexy.mp3</t>
+  </si>
+  <si>
+    <t>0402_shutup.mp3</t>
+  </si>
+  <si>
+    <t>0403_spanish flea.mp3</t>
+  </si>
+  <si>
+    <t>0404_star theme.mp3</t>
+  </si>
+  <si>
+    <t>0405_taldo.mp3</t>
+  </si>
+  <si>
+    <t>0406_this is sparta.mp3</t>
+  </si>
+  <si>
+    <t>0407_thug life.mp3</t>
+  </si>
+  <si>
+    <t>0408_tralala.mp3</t>
+  </si>
+  <si>
+    <t>0409_trololol.mp3</t>
+  </si>
+  <si>
+    <t>0410_turn down for what.mp3</t>
+  </si>
+  <si>
+    <t>0412_we are the champions.mp3</t>
+  </si>
+  <si>
+    <t>0413_wet fart.mp3</t>
+  </si>
+  <si>
+    <t>0414_what is love.mp3</t>
+  </si>
+  <si>
+    <t>0415_who cares.mp3</t>
+  </si>
+  <si>
+    <t>0416_zelda.mp3</t>
   </si>
 </sst>
 </file>
@@ -12645,16 +12843,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2089BB9-58A9-4163-AE91-6D6BE49CC6BD}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D30"/>
+      <selection activeCell="D63" sqref="D2:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="39.61328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -12665,42 +12864,42 @@
         <v>307</v>
       </c>
       <c r="C1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D1" t="s">
         <v>614</v>
       </c>
       <c r="E1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F1" t="s">
         <v>957</v>
-      </c>
-      <c r="F1" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>959</v>
+        <v>993</v>
       </c>
       <c r="B2" t="s">
-        <v>927</v>
+        <v>942</v>
       </c>
       <c r="C2">
         <v>355</v>
       </c>
       <c r="D2" t="str">
         <f>_xlfn.CONCAT("ren ",CHAR(34),A2,CHAR(34)," ",CHAR(34),"0",C2,"_",B2,".mp3",CHAR(34))</f>
-        <v>ren "0400_balls of steel.mp3" "0355_balls of steel.mp3"</v>
+        <v>ren "0355_airhorn.mp3" "0355_airhorn.mp3"</v>
       </c>
       <c r="E2">
-        <v>2.1158999999999999</v>
+        <v>2.3248980000000001</v>
       </c>
       <c r="F2">
         <f>ROUND(E2*1000,0)</f>
-        <v>2116</v>
+        <v>2325</v>
       </c>
       <c r="G2" t="str">
-        <f>_xlfn.CONCAT(C2,"=",B2,",",F2)</f>
-        <v>355=balls of steel,2116</v>
+        <f>_xlfn.CONCAT(C2,"=",B2,IF(E2&gt;3,_xlfn.CONCAT(" (",ROUND(E2,0),"s)"),""),",",F2)</f>
+        <v>355=airhorn,2325</v>
       </c>
       <c r="I2">
         <v>157</v>
@@ -12708,28 +12907,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B3" t="s">
         <v>960</v>
-      </c>
-      <c r="B3" t="s">
-        <v>928</v>
       </c>
       <c r="C3">
         <v>356</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D30" si="0">_xlfn.CONCAT("ren ",CHAR(34),A3,CHAR(34)," ",CHAR(34),"0",C3,"_",B3,".mp3",CHAR(34))</f>
-        <v>ren "0401_boom.mp3" "0356_boom.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A3,CHAR(34)," ",CHAR(34),"0",C3,"_",B3,".mp3",CHAR(34))</f>
+        <v>ren "0356_angry.mp3" "0356_angry.mp3"</v>
       </c>
       <c r="E3">
-        <v>6.5567349999999998</v>
+        <v>0.731429</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F30" si="1">ROUND(E3*1000,0)</f>
-        <v>6557</v>
+        <f>ROUND(E3*1000,0)</f>
+        <v>731</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G30" si="2">_xlfn.CONCAT(C3,"=",B3,",",F3)</f>
-        <v>356=boom,6557</v>
+        <f>_xlfn.CONCAT(C3,"=",B3,IF(E3&gt;3,_xlfn.CONCAT(" (",ROUND(E3,0),"s)"),""),",",F3)</f>
+        <v>356=angry,731</v>
       </c>
       <c r="I3">
         <v>158</v>
@@ -12737,28 +12936,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>961</v>
+        <v>995</v>
       </c>
       <c r="B4" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
       <c r="C4">
         <v>357</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0402_cartman2.mp3" "0357_cartman2.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A4,CHAR(34)," ",CHAR(34),"0",C4,"_",B4,".mp3",CHAR(34))</f>
+        <v>ren "0357_authoritah.mp3" "0357_authoritah.mp3"</v>
       </c>
       <c r="E4">
-        <v>3.1013329999999999</v>
+        <v>2.586122</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>3101</v>
+        <f>ROUND(E4*1000,0)</f>
+        <v>2586</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="2"/>
-        <v>357=cartman2,3101</v>
+        <f>_xlfn.CONCAT(C4,"=",B4,IF(E4&gt;3,_xlfn.CONCAT(" (",ROUND(E4,0),"s)"),""),",",F4)</f>
+        <v>357=authoritah,2586</v>
       </c>
       <c r="I4">
         <v>159</v>
@@ -12766,28 +12965,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>962</v>
+        <v>996</v>
       </c>
       <c r="B5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C5">
         <v>358</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0403_im really rich.mp3" "0358_im really rich.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A5,CHAR(34)," ",CHAR(34),"0",C5,"_",B5,".mp3",CHAR(34))</f>
+        <v>ren "0358_balls of steel.mp3" "0358_balls of steel.mp3"</v>
       </c>
       <c r="E5">
-        <v>1.097143</v>
+        <v>1.3322449999999999</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1097</v>
+        <f>ROUND(E5*1000,0)</f>
+        <v>1332</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="2"/>
-        <v>358=im really rich,1097</v>
+        <f>_xlfn.CONCAT(C5,"=",B5,IF(E5&gt;3,_xlfn.CONCAT(" (",ROUND(E5,0),"s)"),""),",",F5)</f>
+        <v>358=balls of steel,1332</v>
       </c>
       <c r="I5">
         <v>160</v>
@@ -12795,28 +12994,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>963</v>
+        <v>997</v>
       </c>
       <c r="B6" t="s">
-        <v>932</v>
+        <v>985</v>
       </c>
       <c r="C6">
         <v>359</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0404_dramatic.mp3" "0359_dramatic.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A6,CHAR(34)," ",CHAR(34),"0",C6,"_",B6,".mp3",CHAR(34))</f>
+        <v>ren "0359_benny hill.mp3" "0359_benny hill.mp3"</v>
       </c>
       <c r="E6">
-        <v>5.4857139999999998</v>
+        <v>15.255509999999999</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>5486</v>
+        <f>ROUND(E6*1000,0)</f>
+        <v>15256</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="2"/>
-        <v>359=dramatic,5486</v>
+        <f>_xlfn.CONCAT(C6,"=",B6,IF(E6&gt;3,_xlfn.CONCAT(" (",ROUND(E6,0),"s)"),""),",",F6)</f>
+        <v>359=benny hill (15s),15256</v>
       </c>
       <c r="I6">
         <v>161</v>
@@ -12824,28 +13023,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>998</v>
+      </c>
+      <c r="B7" t="s">
         <v>964</v>
-      </c>
-      <c r="B7" t="s">
-        <v>933</v>
       </c>
       <c r="C7">
         <v>360</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0405_epic.mp3" "0360_epic.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A7,CHAR(34)," ",CHAR(34),"0",C7,"_",B7,".mp3",CHAR(34))</f>
+        <v>ren "0360_bomb defused.mp3" "0360_bomb defused.mp3"</v>
       </c>
       <c r="E7">
-        <v>17.005749999999999</v>
+        <v>0.44408199999999998</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>17006</v>
+        <f>ROUND(E7*1000,0)</f>
+        <v>444</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="2"/>
-        <v>360=epic,17006</v>
+        <f>_xlfn.CONCAT(C7,"=",B7,IF(E7&gt;3,_xlfn.CONCAT(" (",ROUND(E7,0),"s)"),""),",",F7)</f>
+        <v>360=bomb defused,444</v>
       </c>
       <c r="I7">
         <v>162</v>
@@ -12853,28 +13052,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>999</v>
+      </c>
+      <c r="B8" t="s">
         <v>965</v>
-      </c>
-      <c r="B8" t="s">
-        <v>934</v>
       </c>
       <c r="C8">
         <v>361</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0406_careless whisper.mp3" "0361_careless whisper.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A8,CHAR(34)," ",CHAR(34),"0",C8,"_",B8,".mp3",CHAR(34))</f>
+        <v>ren "0361_bomb planted.mp3" "0361_bomb planted.mp3"</v>
       </c>
       <c r="E8">
-        <v>9.0645000000000007</v>
+        <v>0.28734700000000002</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>9065</v>
+        <f>ROUND(E8*1000,0)</f>
+        <v>287</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="2"/>
-        <v>361=careless whisper,9065</v>
+        <f>_xlfn.CONCAT(C8,"=",B8,IF(E8&gt;3,_xlfn.CONCAT(" (",ROUND(E8,0),"s)"),""),",",F8)</f>
+        <v>361=bomb planted,287</v>
       </c>
       <c r="I8">
         <v>163</v>
@@ -12882,28 +13081,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="B9" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="C9">
         <v>362</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0407_get choppah.mp3" "0362_get choppah.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A9,CHAR(34)," ",CHAR(34),"0",C9,"_",B9,".mp3",CHAR(34))</f>
+        <v>ren "0362_boom.mp3" "0362_boom.mp3"</v>
       </c>
       <c r="E9">
-        <v>1.985306</v>
+        <v>3.7877550000000002</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>1985</v>
+        <f>ROUND(E9*1000,0)</f>
+        <v>3788</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="2"/>
-        <v>362=get choppah,1985</v>
+        <f>_xlfn.CONCAT(C9,"=",B9,IF(E9&gt;3,_xlfn.CONCAT(" (",ROUND(E9,0),"s)"),""),",",F9)</f>
+        <v>362=boom (4s),3788</v>
       </c>
       <c r="I9">
         <v>164</v>
@@ -12911,28 +13110,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>967</v>
+        <v>1001</v>
       </c>
       <c r="B10" t="s">
-        <v>936</v>
+        <v>972</v>
       </c>
       <c r="C10">
         <v>363</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0408_ha ha.mp3" "0363_ha ha.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A10,CHAR(34)," ",CHAR(34),"0",C10,"_",B10,".mp3",CHAR(34))</f>
+        <v>ren "0363_build wall.mp3" "0363_build wall.mp3"</v>
       </c>
       <c r="E10">
-        <v>1.3520000000000001</v>
+        <v>9.1679999999999993</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1352</v>
+        <f>ROUND(E10*1000,0)</f>
+        <v>9168</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>363=ha ha,1352</v>
+        <f>_xlfn.CONCAT(C10,"=",B10,IF(E10&gt;3,_xlfn.CONCAT(" (",ROUND(E10,0),"s)"),""),",",F10)</f>
+        <v>363=build wall (9s),9168</v>
       </c>
       <c r="I10">
         <v>165</v>
@@ -12940,28 +13139,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>968</v>
+        <v>1002</v>
       </c>
       <c r="B11" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C11">
         <v>364</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0409_ill be back.mp3" "0364_ill be back.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A11,CHAR(34)," ",CHAR(34),"0",C11,"_",B11,".mp3",CHAR(34))</f>
+        <v>ren "0364_careless whisper.mp3" "0364_careless whisper.mp3"</v>
       </c>
       <c r="E11">
-        <v>1.217625</v>
+        <v>9.0906120000000001</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>1218</v>
+        <f>ROUND(E11*1000,0)</f>
+        <v>9091</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>364=ill be back,1218</v>
+        <f>_xlfn.CONCAT(C11,"=",B11,IF(E11&gt;3,_xlfn.CONCAT(" (",ROUND(E11,0),"s)"),""),",",F11)</f>
+        <v>364=careless whisper (9s),9091</v>
       </c>
       <c r="I11">
         <v>166</v>
@@ -12969,28 +13168,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>969</v>
+        <v>1003</v>
       </c>
       <c r="B12" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="C12">
         <v>365</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0410_inception.mp3" "0365_inception.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A12,CHAR(34)," ",CHAR(34),"0",C12,"_",B12,".mp3",CHAR(34))</f>
+        <v>ren "0365_cartman2.mp3" "0365_cartman2.mp3"</v>
       </c>
       <c r="E12">
-        <v>3.0382500000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>3038</v>
+        <f>ROUND(E12*1000,0)</f>
+        <v>888</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="2"/>
-        <v>365=inception,3038</v>
+        <f>_xlfn.CONCAT(C12,"=",B12,IF(E12&gt;3,_xlfn.CONCAT(" (",ROUND(E12,0),"s)"),""),",",F12)</f>
+        <v>365=cartman2,888</v>
       </c>
       <c r="I12">
         <v>167</v>
@@ -12998,28 +13197,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>970</v>
+        <v>1004</v>
       </c>
       <c r="B13" t="s">
-        <v>939</v>
+        <v>961</v>
       </c>
       <c r="C13">
         <v>366</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0411_very nice.mp3" "0366_very nice.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A13,CHAR(34)," ",CHAR(34),"0",C13,"_",B13,".mp3",CHAR(34))</f>
+        <v>ren "0366_curb.mp3" "0366_curb.mp3"</v>
       </c>
       <c r="E13">
-        <v>7.2097499999999997</v>
+        <v>7.8106119999999999</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>7210</v>
+        <f>ROUND(E13*1000,0)</f>
+        <v>7811</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="2"/>
-        <v>366=very nice,7210</v>
+        <f>_xlfn.CONCAT(C13,"=",B13,IF(E13&gt;3,_xlfn.CONCAT(" (",ROUND(E13,0),"s)"),""),",",F13)</f>
+        <v>366=curb (8s),7811</v>
       </c>
       <c r="I13">
         <v>168</v>
@@ -13027,28 +13226,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>971</v>
+        <v>1005</v>
       </c>
       <c r="B14" t="s">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="C14">
         <v>367</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0412_joke.mp3" "0367_joke.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A14,CHAR(34)," ",CHAR(34),"0",C14,"_",B14,".mp3",CHAR(34))</f>
+        <v>ren "0367_ding.mp3" "0367_ding.mp3"</v>
       </c>
       <c r="E14">
-        <v>2.4555099999999999</v>
+        <v>1.8285709999999999</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>2456</v>
+        <f>ROUND(E14*1000,0)</f>
+        <v>1829</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="2"/>
-        <v>367=joke,2456</v>
+        <f>_xlfn.CONCAT(C14,"=",B14,IF(E14&gt;3,_xlfn.CONCAT(" (",ROUND(E14,0),"s)"),""),",",F14)</f>
+        <v>367=ding,1829</v>
       </c>
       <c r="I14">
         <v>169</v>
@@ -13056,28 +13255,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>972</v>
+        <v>1008</v>
       </c>
       <c r="B15" t="s">
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="C15">
         <v>368</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0413_authoritah.mp3" "0368_authoritah.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A15,CHAR(34)," ",CHAR(34),"0",C15,"_",B15,".mp3",CHAR(34))</f>
+        <v>ren "0370_epic.mp3" "0368_do not give up.mp3"</v>
       </c>
       <c r="E15">
-        <v>2.7460499999999999</v>
+        <v>17.005714000000001</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>2746</v>
+        <f>ROUND(E15*1000,0)</f>
+        <v>17006</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="2"/>
-        <v>368=authoritah,2746</v>
+        <f>_xlfn.CONCAT(C15,"=",B15,IF(E15&gt;3,_xlfn.CONCAT(" (",ROUND(E15,0),"s)"),""),",",F15)</f>
+        <v>368=do not give up (17s),17006</v>
       </c>
       <c r="I15">
         <v>170</v>
@@ -13085,28 +13284,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>973</v>
+        <v>1006</v>
       </c>
       <c r="B16" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="C16">
         <v>369</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0414_metal gear.mp3" "0369_metal gear.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A16,CHAR(34)," ",CHAR(34),"0",C16,"_",B16,".mp3",CHAR(34))</f>
+        <v>ren "0368_dramatic.mp3" "0369_dramatic.mp3"</v>
       </c>
       <c r="E16">
-        <v>1.880816</v>
+        <v>5.5379589999999999</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>1881</v>
+        <f>ROUND(E16*1000,0)</f>
+        <v>5538</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="2"/>
-        <v>369=metal gear,1881</v>
+        <f>_xlfn.CONCAT(C16,"=",B16,IF(E16&gt;3,_xlfn.CONCAT(" (",ROUND(E16,0),"s)"),""),",",F16)</f>
+        <v>369=dramatic (6s),5538</v>
       </c>
       <c r="I16">
         <v>171</v>
@@ -13114,7 +13313,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>974</v>
+        <v>1007</v>
       </c>
       <c r="B17" t="s">
         <v>943</v>
@@ -13123,19 +13322,19 @@
         <v>370</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0415_airhorn.mp3" "0370_airhorn.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A17,CHAR(34)," ",CHAR(34),"0",C17,"_",B17,".mp3",CHAR(34))</f>
+        <v>ren "0369_elevator music.mp3" "0370_elevator music.mp3"</v>
       </c>
       <c r="E17">
-        <v>3.0040819999999999</v>
+        <v>10.762449</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>3004</v>
+        <f>ROUND(E17*1000,0)</f>
+        <v>10762</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="2"/>
-        <v>370=airhorn,3004</v>
+        <f>_xlfn.CONCAT(C17,"=",B17,IF(E17&gt;3,_xlfn.CONCAT(" (",ROUND(E17,0),"s)"),""),",",F17)</f>
+        <v>370=elevator music (11s),10762</v>
       </c>
       <c r="I17">
         <v>172</v>
@@ -13143,28 +13342,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="B18" t="s">
-        <v>944</v>
+        <v>987</v>
       </c>
       <c r="C18">
         <v>371</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0416_elevator music.mp3" "0371_elevator music.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A18,CHAR(34)," ",CHAR(34),"0",C18,"_",B18,".mp3",CHAR(34))</f>
+        <v>ren "0371_epic sax.mp3" "0371_epic sax.mp3"</v>
       </c>
       <c r="E18">
-        <v>10.710203999999999</v>
+        <v>7.3926530000000001</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>10710</v>
+        <f>ROUND(E18*1000,0)</f>
+        <v>7393</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="2"/>
-        <v>371=elevator music,10710</v>
+        <f>_xlfn.CONCAT(C18,"=",B18,IF(E18&gt;3,_xlfn.CONCAT(" (",ROUND(E18,0),"s)"),""),",",F18)</f>
+        <v>371=epic sax (7s),7393</v>
       </c>
       <c r="I18">
         <v>173</v>
@@ -13172,28 +13371,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>976</v>
+        <v>1010</v>
       </c>
       <c r="B19" t="s">
-        <v>931</v>
+        <v>946</v>
       </c>
       <c r="C19">
         <v>372</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0417_nooo.mp3" "0372_nooo.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A19,CHAR(34)," ",CHAR(34),"0",C19,"_",B19,".mp3",CHAR(34))</f>
+        <v>ren "0372_fart.mp3" "0372_fart.mp3"</v>
       </c>
       <c r="E19">
-        <v>5.3027499999999996</v>
+        <v>2.2559999999999998</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>5303</v>
+        <f>ROUND(E19*1000,0)</f>
+        <v>2256</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="2"/>
-        <v>372=nooo,5303</v>
+        <f>_xlfn.CONCAT(C19,"=",B19,IF(E19&gt;3,_xlfn.CONCAT(" (",ROUND(E19,0),"s)"),""),",",F19)</f>
+        <v>372=fart,2256</v>
       </c>
       <c r="I19">
         <v>174</v>
@@ -13201,28 +13400,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>977</v>
+        <v>1011</v>
       </c>
       <c r="B20" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="C20">
         <v>373</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0418_no problemo.mp3" "0373_no problemo.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A20,CHAR(34)," ",CHAR(34),"0",C20,"_",B20,".mp3",CHAR(34))</f>
+        <v>ren "0373_final countdown.mp3" "0373_final countdown.mp3"</v>
       </c>
       <c r="E20">
-        <v>0.96653100000000003</v>
+        <v>11.415509999999999</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>967</v>
+        <f>ROUND(E20*1000,0)</f>
+        <v>11416</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="2"/>
-        <v>373=no problemo,967</v>
+        <f>_xlfn.CONCAT(C20,"=",B20,IF(E20&gt;3,_xlfn.CONCAT(" (",ROUND(E20,0),"s)"),""),",",F20)</f>
+        <v>373=final countdown (11s),11416</v>
       </c>
       <c r="I20">
         <v>175</v>
@@ -13230,28 +13429,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>978</v>
+        <v>1012</v>
       </c>
       <c r="B21" t="s">
-        <v>946</v>
+        <v>968</v>
       </c>
       <c r="C21">
         <v>374</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0419_over9000.mp3" "0374_over9000.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A21,CHAR(34)," ",CHAR(34),"0",C21,"_",B21,".mp3",CHAR(34))</f>
+        <v>ren "0374_for me.mp3" "0374_for me.mp3"</v>
       </c>
       <c r="E21">
-        <v>2.6383749999999999</v>
+        <v>3.6048979999999999</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>2638</v>
+        <f>ROUND(E21*1000,0)</f>
+        <v>3605</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="2"/>
-        <v>374=over9000,2638</v>
+        <f>_xlfn.CONCAT(C21,"=",B21,IF(E21&gt;3,_xlfn.CONCAT(" (",ROUND(E21,0),"s)"),""),",",F21)</f>
+        <v>374=for me (4s),3605</v>
       </c>
       <c r="I21">
         <v>176</v>
@@ -13259,28 +13458,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>979</v>
+        <v>1013</v>
       </c>
       <c r="B22" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="C22">
         <v>375</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0420_fart.mp3" "0375_fart.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A22,CHAR(34)," ",CHAR(34),"0",C22,"_",B22,".mp3",CHAR(34))</f>
+        <v>ren "0375_fuck this shit.mp3" "0375_fuck this shit.mp3"</v>
       </c>
       <c r="E22">
-        <v>0.33600000000000002</v>
+        <v>2.496</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>336</v>
+        <f>ROUND(E22*1000,0)</f>
+        <v>2496</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="2"/>
-        <v>375=fart,336</v>
+        <f>_xlfn.CONCAT(C22,"=",B22,IF(E22&gt;3,_xlfn.CONCAT(" (",ROUND(E22,0),"s)"),""),",",F22)</f>
+        <v>375=fuck this shit,2496</v>
       </c>
       <c r="I22">
         <v>177</v>
@@ -13288,28 +13487,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>980</v>
+        <v>1014</v>
       </c>
       <c r="B23" t="s">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="C23">
         <v>376</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0421_ps1.mp3" "0376_ps1.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A23,CHAR(34)," ",CHAR(34),"0",C23,"_",B23,".mp3",CHAR(34))</f>
+        <v>ren "0376_fuck yea.mp3" "0376_fuck yea.mp3"</v>
       </c>
       <c r="E23">
-        <v>18.181125000000002</v>
+        <v>3.056327</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>18181</v>
+        <f>ROUND(E23*1000,0)</f>
+        <v>3056</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="2"/>
-        <v>376=ps1,18181</v>
+        <f>_xlfn.CONCAT(C23,"=",B23,IF(E23&gt;3,_xlfn.CONCAT(" (",ROUND(E23,0),"s)"),""),",",F23)</f>
+        <v>376=fuck yea (3s),3056</v>
       </c>
       <c r="I23">
         <v>178</v>
@@ -13317,28 +13516,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>981</v>
+        <v>1015</v>
       </c>
       <c r="B24" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="C24">
         <v>377</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0422_retard.mp3" "0377_retard.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A24,CHAR(34)," ",CHAR(34),"0",C24,"_",B24,".mp3",CHAR(34))</f>
+        <v>ren "0377_get choppah.mp3" "0377_get choppah.mp3"</v>
       </c>
       <c r="E24">
-        <v>2.08975</v>
+        <v>1.0187759999999999</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>2090</v>
+        <f>ROUND(E24*1000,0)</f>
+        <v>1019</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="2"/>
-        <v>377=retard,2090</v>
+        <f>_xlfn.CONCAT(C24,"=",B24,IF(E24&gt;3,_xlfn.CONCAT(" (",ROUND(E24,0),"s)"),""),",",F24)</f>
+        <v>377=get choppah,1019</v>
       </c>
       <c r="I24">
         <v>179</v>
@@ -13346,28 +13545,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>982</v>
+        <v>1016</v>
       </c>
       <c r="B25" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="C25">
         <v>378</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0423_sad.mp3" "0378_sad.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A25,CHAR(34)," ",CHAR(34),"0",C25,"_",B25,".mp3",CHAR(34))</f>
+        <v>ren "0378_ha ha.mp3" "0378_ha ha.mp3"</v>
       </c>
       <c r="E25">
-        <v>3.6226880000000001</v>
+        <v>0.731429</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>3623</v>
+        <f>ROUND(E25*1000,0)</f>
+        <v>731</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="2"/>
-        <v>378=sad,3623</v>
+        <f>_xlfn.CONCAT(C25,"=",B25,IF(E25&gt;3,_xlfn.CONCAT(" (",ROUND(E25,0),"s)"),""),",",F25)</f>
+        <v>378=ha ha,731</v>
       </c>
       <c r="I25">
         <v>180</v>
@@ -13375,28 +13574,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>983</v>
+        <v>1017</v>
       </c>
       <c r="B26" t="s">
-        <v>951</v>
+        <v>988</v>
       </c>
       <c r="C26">
         <v>379</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0424_sexy.mp3" "0379_sexy.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A26,CHAR(34)," ",CHAR(34),"0",C26,"_",B26,".mp3",CHAR(34))</f>
+        <v>ren "0379_I believe I can fly.mp3" "0379_I believe I can fly.mp3"</v>
       </c>
       <c r="E26">
-        <v>11.467750000000001</v>
+        <v>15.255509999999999</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>11468</v>
+        <f>ROUND(E26*1000,0)</f>
+        <v>15256</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="2"/>
-        <v>379=sexy,11468</v>
+        <f>_xlfn.CONCAT(C26,"=",B26,IF(E26&gt;3,_xlfn.CONCAT(" (",ROUND(E26,0),"s)"),""),",",F26)</f>
+        <v>379=I believe I can fly (15s),15256</v>
       </c>
       <c r="I26">
         <v>181</v>
@@ -13404,28 +13603,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>984</v>
+        <v>1018</v>
       </c>
       <c r="B27" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="C27">
         <v>380</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0425_shutup.mp3" "0380_shutup.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A27,CHAR(34)," ",CHAR(34),"0",C27,"_",B27,".mp3",CHAR(34))</f>
+        <v>ren "0380_ill be back.mp3" "0380_ill be back.mp3"</v>
       </c>
       <c r="E27">
-        <v>1.1493880000000001</v>
+        <v>0.731429</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
-        <v>1149</v>
+        <f>ROUND(E27*1000,0)</f>
+        <v>731</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="2"/>
-        <v>380=shutup,1149</v>
+        <f>_xlfn.CONCAT(C27,"=",B27,IF(E27&gt;3,_xlfn.CONCAT(" (",ROUND(E27,0),"s)"),""),",",F27)</f>
+        <v>380=ill be back,731</v>
       </c>
       <c r="I27">
         <v>182</v>
@@ -13433,28 +13632,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>985</v>
+        <v>1019</v>
       </c>
       <c r="B28" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="C28">
         <v>381</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0426_this is sparta.mp3" "0381_this is sparta.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A28,CHAR(34)," ",CHAR(34),"0",C28,"_",B28,".mp3",CHAR(34))</f>
+        <v>ren "0381_im really rich.mp3" "0381_im really rich.mp3"</v>
       </c>
       <c r="E28">
-        <v>5.1520000000000001</v>
+        <v>0.96653100000000003</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>5152</v>
+        <f>ROUND(E28*1000,0)</f>
+        <v>967</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="2"/>
-        <v>381=this is sparta,5152</v>
+        <f>_xlfn.CONCAT(C28,"=",B28,IF(E28&gt;3,_xlfn.CONCAT(" (",ROUND(E28,0),"s)"),""),",",F28)</f>
+        <v>381=im really rich,967</v>
       </c>
       <c r="I28">
         <v>183</v>
@@ -13462,28 +13661,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>986</v>
+        <v>1020</v>
       </c>
       <c r="B29" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="C29">
         <v>382</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0427_trololol.mp3" "0382_trololol.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A29,CHAR(34)," ",CHAR(34),"0",C29,"_",B29,".mp3",CHAR(34))</f>
+        <v>ren "0382_inception.mp3" "0382_inception.mp3"</v>
       </c>
       <c r="E29">
-        <v>9.9526529999999998</v>
+        <v>2.8734690000000001</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
-        <v>9953</v>
+        <f>ROUND(E29*1000,0)</f>
+        <v>2873</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="2"/>
-        <v>382=trololol,9953</v>
+        <f>_xlfn.CONCAT(C29,"=",B29,IF(E29&gt;3,_xlfn.CONCAT(" (",ROUND(E29,0),"s)"),""),",",F29)</f>
+        <v>382=inception,2873</v>
       </c>
       <c r="I29">
         <v>184</v>
@@ -13491,34 +13690,895 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>987</v>
+        <v>1021</v>
       </c>
       <c r="B30" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="C30">
         <v>383</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>ren "0428_zelda.mp3" "0383_zelda.mp3"</v>
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A30,CHAR(34)," ",CHAR(34),"0",C30,"_",B30,".mp3",CHAR(34))</f>
+        <v>ren "0383_joke.mp3" "0383_joke.mp3"</v>
       </c>
       <c r="E30">
-        <v>2.6383670000000001</v>
+        <v>0.86204099999999995</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>2638</v>
+        <f>ROUND(E30*1000,0)</f>
+        <v>862</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="2"/>
-        <v>383=zelda,2638</v>
+        <f>_xlfn.CONCAT(C30,"=",B30,IF(E30&gt;3,_xlfn.CONCAT(" (",ROUND(E30,0),"s)"),""),",",F30)</f>
+        <v>383=joke,862</v>
       </c>
       <c r="I30">
         <v>185</v>
       </c>
     </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B31" t="s">
+        <v>974</v>
+      </c>
+      <c r="C31">
+        <v>384</v>
+      </c>
+      <c r="D31" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A31,CHAR(34)," ",CHAR(34),"0",C31,"_",B31,".mp3",CHAR(34))</f>
+        <v>ren "0384_lets get ready.mp3" "0384_lets get ready.mp3"</v>
+      </c>
+      <c r="E31">
+        <v>7.1836729999999998</v>
+      </c>
+      <c r="F31">
+        <f>ROUND(E31*1000,0)</f>
+        <v>7184</v>
+      </c>
+      <c r="G31" t="str">
+        <f>_xlfn.CONCAT(C31,"=",B31,IF(E31&gt;3,_xlfn.CONCAT(" (",ROUND(E31,0),"s)"),""),",",F31)</f>
+        <v>384=lets get ready (7s),7184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B32" t="s">
+        <v>973</v>
+      </c>
+      <c r="C32">
+        <v>385</v>
+      </c>
+      <c r="D32" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A32,CHAR(34)," ",CHAR(34),"0",C32,"_",B32,".mp3",CHAR(34))</f>
+        <v>ren "0385_mario jump.mp3" "0385_mario jump.mp3"</v>
+      </c>
+      <c r="E32">
+        <v>1.6457139999999999</v>
+      </c>
+      <c r="F32">
+        <f>ROUND(E32*1000,0)</f>
+        <v>1646</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.CONCAT(C32,"=",B32,IF(E32&gt;3,_xlfn.CONCAT(" (",ROUND(E32,0),"s)"),""),",",F32)</f>
+        <v>385=mario jump,1646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B33" t="s">
+        <v>941</v>
+      </c>
+      <c r="C33">
+        <v>386</v>
+      </c>
+      <c r="D33" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A33,CHAR(34)," ",CHAR(34),"0",C33,"_",B33,".mp3",CHAR(34))</f>
+        <v>ren "0386_metal gear.mp3" "0386_metal gear.mp3"</v>
+      </c>
+      <c r="E33">
+        <v>1.3583670000000001</v>
+      </c>
+      <c r="F33">
+        <f>ROUND(E33*1000,0)</f>
+        <v>1358</v>
+      </c>
+      <c r="G33" t="str">
+        <f>_xlfn.CONCAT(C33,"=",B33,IF(E33&gt;3,_xlfn.CONCAT(" (",ROUND(E33,0),"s)"),""),",",F33)</f>
+        <v>386=metal gear,1358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B34" t="s">
+        <v>975</v>
+      </c>
+      <c r="C34">
+        <v>387</v>
+      </c>
+      <c r="D34" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A34,CHAR(34)," ",CHAR(34),"0",C34,"_",B34,".mp3",CHAR(34))</f>
+        <v>ren "0387_mission impossible.mp3" "0387_mission impossible.mp3"</v>
+      </c>
+      <c r="E34">
+        <v>30.197551000000001</v>
+      </c>
+      <c r="F34">
+        <f>ROUND(E34*1000,0)</f>
+        <v>30198</v>
+      </c>
+      <c r="G34" t="str">
+        <f>_xlfn.CONCAT(C34,"=",B34,IF(E34&gt;3,_xlfn.CONCAT(" (",ROUND(E34,0),"s)"),""),",",F34)</f>
+        <v>387=mission impossible (30s),30198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B35" t="s">
+        <v>971</v>
+      </c>
+      <c r="C35">
+        <v>388</v>
+      </c>
+      <c r="D35" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A35,CHAR(34)," ",CHAR(34),"0",C35,"_",B35,".mp3",CHAR(34))</f>
+        <v>ren "0388_nein.mp3" "0388_nein.mp3"</v>
+      </c>
+      <c r="E35">
+        <v>2.8473470000000001</v>
+      </c>
+      <c r="F35">
+        <f>ROUND(E35*1000,0)</f>
+        <v>2847</v>
+      </c>
+      <c r="G35" t="str">
+        <f>_xlfn.CONCAT(C35,"=",B35,IF(E35&gt;3,_xlfn.CONCAT(" (",ROUND(E35,0),"s)"),""),",",F35)</f>
+        <v>388=nein,2847</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B36" t="s">
+        <v>970</v>
+      </c>
+      <c r="C36">
+        <v>389</v>
+      </c>
+      <c r="D36" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A36,CHAR(34)," ",CHAR(34),"0",C36,"_",B36,".mp3",CHAR(34))</f>
+        <v>ren "0389_nerd.mp3" "0389_nerd.mp3"</v>
+      </c>
+      <c r="E36">
+        <v>1.985306</v>
+      </c>
+      <c r="F36">
+        <f>ROUND(E36*1000,0)</f>
+        <v>1985</v>
+      </c>
+      <c r="G36" t="str">
+        <f>_xlfn.CONCAT(C36,"=",B36,IF(E36&gt;3,_xlfn.CONCAT(" (",ROUND(E36,0),"s)"),""),",",F36)</f>
+        <v>389=nerd,1985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B37" t="s">
+        <v>976</v>
+      </c>
+      <c r="C37">
+        <v>390</v>
+      </c>
+      <c r="D37" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A37,CHAR(34)," ",CHAR(34),"0",C37,"_",B37,".mp3",CHAR(34))</f>
+        <v>ren "0390_nigga you gay.mp3" "0390_nigga you gay.mp3"</v>
+      </c>
+      <c r="E37">
+        <v>3.8138779999999999</v>
+      </c>
+      <c r="F37">
+        <f>ROUND(E37*1000,0)</f>
+        <v>3814</v>
+      </c>
+      <c r="G37" t="str">
+        <f>_xlfn.CONCAT(C37,"=",B37,IF(E37&gt;3,_xlfn.CONCAT(" (",ROUND(E37,0),"s)"),""),",",F37)</f>
+        <v>390=nigga you gay (4s),3814</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B38" t="s">
+        <v>944</v>
+      </c>
+      <c r="C38">
+        <v>391</v>
+      </c>
+      <c r="D38" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A38,CHAR(34)," ",CHAR(34),"0",C38,"_",B38,".mp3",CHAR(34))</f>
+        <v>ren "0391_no problemo.mp3" "0391_no problemo.mp3"</v>
+      </c>
+      <c r="E38">
+        <v>1.1493880000000001</v>
+      </c>
+      <c r="F38">
+        <f>ROUND(E38*1000,0)</f>
+        <v>1149</v>
+      </c>
+      <c r="G38" t="str">
+        <f>_xlfn.CONCAT(C38,"=",B38,IF(E38&gt;3,_xlfn.CONCAT(" (",ROUND(E38,0),"s)"),""),",",F38)</f>
+        <v>391=no problemo,1149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B39" t="s">
+        <v>931</v>
+      </c>
+      <c r="C39">
+        <v>392</v>
+      </c>
+      <c r="D39" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A39,CHAR(34)," ",CHAR(34),"0",C39,"_",B39,".mp3",CHAR(34))</f>
+        <v>ren "0392_nooo.mp3" "0392_nooo.mp3"</v>
+      </c>
+      <c r="E39">
+        <v>5.3551019999999996</v>
+      </c>
+      <c r="F39">
+        <f>ROUND(E39*1000,0)</f>
+        <v>5355</v>
+      </c>
+      <c r="G39" t="str">
+        <f>_xlfn.CONCAT(C39,"=",B39,IF(E39&gt;3,_xlfn.CONCAT(" (",ROUND(E39,0),"s)"),""),",",F39)</f>
+        <v>392=nooo (5s),5355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B40" t="s">
+        <v>945</v>
+      </c>
+      <c r="C40">
+        <v>393</v>
+      </c>
+      <c r="D40" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A40,CHAR(34)," ",CHAR(34),"0",C40,"_",B40,".mp3",CHAR(34))</f>
+        <v>ren "0393_over9000.mp3" "0393_over9000.mp3"</v>
+      </c>
+      <c r="E40">
+        <v>2.2465310000000001</v>
+      </c>
+      <c r="F40">
+        <f>ROUND(E40*1000,0)</f>
+        <v>2247</v>
+      </c>
+      <c r="G40" t="str">
+        <f>_xlfn.CONCAT(C40,"=",B40,IF(E40&gt;3,_xlfn.CONCAT(" (",ROUND(E40,0),"s)"),""),",",F40)</f>
+        <v>393=over9000,2247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B41" t="s">
+        <v>978</v>
+      </c>
+      <c r="C41">
+        <v>394</v>
+      </c>
+      <c r="D41" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A41,CHAR(34)," ",CHAR(34),"0",C41,"_",B41,".mp3",CHAR(34))</f>
+        <v>ren "0394_pickle rick.mp3" "0394_pickle rick.mp3"</v>
+      </c>
+      <c r="E41">
+        <v>5.2245E-2</v>
+      </c>
+      <c r="F41">
+        <f>ROUND(E41*1000,0)</f>
+        <v>52</v>
+      </c>
+      <c r="G41" t="str">
+        <f>_xlfn.CONCAT(C41,"=",B41,IF(E41&gt;3,_xlfn.CONCAT(" (",ROUND(E41,0),"s)"),""),",",F41)</f>
+        <v>394=pickle rick,52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B42" t="s">
+        <v>947</v>
+      </c>
+      <c r="C42">
+        <v>395</v>
+      </c>
+      <c r="D42" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A42,CHAR(34)," ",CHAR(34),"0",C42,"_",B42,".mp3",CHAR(34))</f>
+        <v>ren "0395_ps1.mp3" "0395_ps1.mp3"</v>
+      </c>
+      <c r="E42">
+        <v>14.680816</v>
+      </c>
+      <c r="F42">
+        <f>ROUND(E42*1000,0)</f>
+        <v>14681</v>
+      </c>
+      <c r="G42" t="str">
+        <f>_xlfn.CONCAT(C42,"=",B42,IF(E42&gt;3,_xlfn.CONCAT(" (",ROUND(E42,0),"s)"),""),",",F42)</f>
+        <v>395=ps1 (15s),14681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B43" t="s">
+        <v>979</v>
+      </c>
+      <c r="C43">
+        <v>396</v>
+      </c>
+      <c r="D43" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A43,CHAR(34)," ",CHAR(34),"0",C43,"_",B43,".mp3",CHAR(34))</f>
+        <v>ren "0396_pussy.mp3" "0396_pussy.mp3"</v>
+      </c>
+      <c r="E43">
+        <v>1.5412239999999999</v>
+      </c>
+      <c r="F43">
+        <f>ROUND(E43*1000,0)</f>
+        <v>1541</v>
+      </c>
+      <c r="G43" t="str">
+        <f>_xlfn.CONCAT(C43,"=",B43,IF(E43&gt;3,_xlfn.CONCAT(" (",ROUND(E43,0),"s)"),""),",",F43)</f>
+        <v>396=pussy,1541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B44" t="s">
+        <v>948</v>
+      </c>
+      <c r="C44">
+        <v>397</v>
+      </c>
+      <c r="D44" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A44,CHAR(34)," ",CHAR(34),"0",C44,"_",B44,".mp3",CHAR(34))</f>
+        <v>ren "0397_retard.mp3" "0397_retard.mp3"</v>
+      </c>
+      <c r="E44">
+        <v>1.2277549999999999</v>
+      </c>
+      <c r="F44">
+        <f>ROUND(E44*1000,0)</f>
+        <v>1228</v>
+      </c>
+      <c r="G44" t="str">
+        <f>_xlfn.CONCAT(C44,"=",B44,IF(E44&gt;3,_xlfn.CONCAT(" (",ROUND(E44,0),"s)"),""),",",F44)</f>
+        <v>397=retard,1228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B45" t="s">
+        <v>980</v>
+      </c>
+      <c r="C45">
+        <v>398</v>
+      </c>
+      <c r="D45" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A45,CHAR(34)," ",CHAR(34),"0",C45,"_",B45,".mp3",CHAR(34))</f>
+        <v>ren "0398_retard alert.mp3" "0398_retard alert.mp3"</v>
+      </c>
+      <c r="E45">
+        <v>1.2277549999999999</v>
+      </c>
+      <c r="F45">
+        <f>ROUND(E45*1000,0)</f>
+        <v>1228</v>
+      </c>
+      <c r="G45" t="str">
+        <f>_xlfn.CONCAT(C45,"=",B45,IF(E45&gt;3,_xlfn.CONCAT(" (",ROUND(E45,0),"s)"),""),",",F45)</f>
+        <v>398=retard alert,1228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B46" t="s">
+        <v>963</v>
+      </c>
+      <c r="C46">
+        <v>399</v>
+      </c>
+      <c r="D46" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A46,CHAR(34)," ",CHAR(34),"0",C46,"_",B46,".mp3",CHAR(34))</f>
+        <v>ren "0399_run.mp3" "0399_run.mp3"</v>
+      </c>
+      <c r="E46">
+        <v>10.24</v>
+      </c>
+      <c r="F46">
+        <f>ROUND(E46*1000,0)</f>
+        <v>10240</v>
+      </c>
+      <c r="G46" t="str">
+        <f>_xlfn.CONCAT(C46,"=",B46,IF(E46&gt;3,_xlfn.CONCAT(" (",ROUND(E46,0),"s)"),""),",",F46)</f>
+        <v>399=run (10s),10240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B47" t="s">
+        <v>949</v>
+      </c>
+      <c r="C47">
+        <v>400</v>
+      </c>
+      <c r="D47" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A47,CHAR(34)," ",CHAR(34),"0",C47,"_",B47,".mp3",CHAR(34))</f>
+        <v>ren "0400_sad.mp3" "0400_sad.mp3"</v>
+      </c>
+      <c r="E47">
+        <v>2.76898</v>
+      </c>
+      <c r="F47">
+        <f>ROUND(E47*1000,0)</f>
+        <v>2769</v>
+      </c>
+      <c r="G47" t="str">
+        <f>_xlfn.CONCAT(C47,"=",B47,IF(E47&gt;3,_xlfn.CONCAT(" (",ROUND(E47,0),"s)"),""),",",F47)</f>
+        <v>400=sad,2769</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B48" t="s">
+        <v>950</v>
+      </c>
+      <c r="C48">
+        <v>401</v>
+      </c>
+      <c r="D48" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A48,CHAR(34)," ",CHAR(34),"0",C48,"_",B48,".mp3",CHAR(34))</f>
+        <v>ren "0401_sexy.mp3" "0401_sexy.mp3"</v>
+      </c>
+      <c r="E48">
+        <v>10.24</v>
+      </c>
+      <c r="F48">
+        <f>ROUND(E48*1000,0)</f>
+        <v>10240</v>
+      </c>
+      <c r="G48" t="str">
+        <f>_xlfn.CONCAT(C48,"=",B48,IF(E48&gt;3,_xlfn.CONCAT(" (",ROUND(E48,0),"s)"),""),",",F48)</f>
+        <v>401=sexy (10s),10240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B49" t="s">
+        <v>951</v>
+      </c>
+      <c r="C49">
+        <v>402</v>
+      </c>
+      <c r="D49" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A49,CHAR(34)," ",CHAR(34),"0",C49,"_",B49,".mp3",CHAR(34))</f>
+        <v>ren "0402_shutup.mp3" "0402_shutup.mp3"</v>
+      </c>
+      <c r="E49">
+        <v>0.78367299999999995</v>
+      </c>
+      <c r="F49">
+        <f>ROUND(E49*1000,0)</f>
+        <v>784</v>
+      </c>
+      <c r="G49" t="str">
+        <f>_xlfn.CONCAT(C49,"=",B49,IF(E49&gt;3,_xlfn.CONCAT(" (",ROUND(E49,0),"s)"),""),",",F49)</f>
+        <v>402=shutup,784</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B50" t="s">
+        <v>982</v>
+      </c>
+      <c r="C50">
+        <v>403</v>
+      </c>
+      <c r="D50" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A50,CHAR(34)," ",CHAR(34),"0",C50,"_",B50,".mp3",CHAR(34))</f>
+        <v>ren "0403_spanish flea.mp3" "0403_spanish flea.mp3"</v>
+      </c>
+      <c r="E50">
+        <v>12.538776</v>
+      </c>
+      <c r="F50">
+        <f>ROUND(E50*1000,0)</f>
+        <v>12539</v>
+      </c>
+      <c r="G50" t="str">
+        <f>_xlfn.CONCAT(C50,"=",B50,IF(E50&gt;3,_xlfn.CONCAT(" (",ROUND(E50,0),"s)"),""),",",F50)</f>
+        <v>403=spanish flea (13s),12539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B51" t="s">
+        <v>984</v>
+      </c>
+      <c r="C51">
+        <v>404</v>
+      </c>
+      <c r="D51" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A51,CHAR(34)," ",CHAR(34),"0",C51,"_",B51,".mp3",CHAR(34))</f>
+        <v>ren "0404_star theme.mp3" "0404_star theme.mp3"</v>
+      </c>
+      <c r="E51">
+        <v>11.859591999999999</v>
+      </c>
+      <c r="F51">
+        <f>ROUND(E51*1000,0)</f>
+        <v>11860</v>
+      </c>
+      <c r="G51" t="str">
+        <f>_xlfn.CONCAT(C51,"=",B51,IF(E51&gt;3,_xlfn.CONCAT(" (",ROUND(E51,0),"s)"),""),",",F51)</f>
+        <v>404=star theme (12s),11860</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B52" t="s">
+        <v>983</v>
+      </c>
+      <c r="C52">
+        <v>405</v>
+      </c>
+      <c r="D52" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A52,CHAR(34)," ",CHAR(34),"0",C52,"_",B52,".mp3",CHAR(34))</f>
+        <v>ren "0405_taldo.mp3" "0405_taldo.mp3"</v>
+      </c>
+      <c r="E52">
+        <v>0.20898</v>
+      </c>
+      <c r="F52">
+        <f>ROUND(E52*1000,0)</f>
+        <v>209</v>
+      </c>
+      <c r="G52" t="str">
+        <f>_xlfn.CONCAT(C52,"=",B52,IF(E52&gt;3,_xlfn.CONCAT(" (",ROUND(E52,0),"s)"),""),",",F52)</f>
+        <v>405=taldo,209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B53" t="s">
+        <v>952</v>
+      </c>
+      <c r="C53">
+        <v>406</v>
+      </c>
+      <c r="D53" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A53,CHAR(34)," ",CHAR(34),"0",C53,"_",B53,".mp3",CHAR(34))</f>
+        <v>ren "0406_this is sparta.mp3" "0406_this is sparta.mp3"</v>
+      </c>
+      <c r="E53">
+        <v>4.9110199999999997</v>
+      </c>
+      <c r="F53">
+        <f>ROUND(E53*1000,0)</f>
+        <v>4911</v>
+      </c>
+      <c r="G53" t="str">
+        <f>_xlfn.CONCAT(C53,"=",B53,IF(E53&gt;3,_xlfn.CONCAT(" (",ROUND(E53,0),"s)"),""),",",F53)</f>
+        <v>406=this is sparta (5s),4911</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B54" t="s">
+        <v>981</v>
+      </c>
+      <c r="C54">
+        <v>407</v>
+      </c>
+      <c r="D54" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A54,CHAR(34)," ",CHAR(34),"0",C54,"_",B54,".mp3",CHAR(34))</f>
+        <v>ren "0407_thug life.mp3" "0407_thug life.mp3"</v>
+      </c>
+      <c r="E54">
+        <v>9.9526529999999998</v>
+      </c>
+      <c r="F54">
+        <f>ROUND(E54*1000,0)</f>
+        <v>9953</v>
+      </c>
+      <c r="G54" t="str">
+        <f>_xlfn.CONCAT(C54,"=",B54,IF(E54&gt;3,_xlfn.CONCAT(" (",ROUND(E54,0),"s)"),""),",",F54)</f>
+        <v>407=thug life (10s),9953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B55" t="s">
+        <v>962</v>
+      </c>
+      <c r="C55">
+        <v>408</v>
+      </c>
+      <c r="D55" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A55,CHAR(34)," ",CHAR(34),"0",C55,"_",B55,".mp3",CHAR(34))</f>
+        <v>ren "0408_tralala.mp3" "0408_tralala.mp3"</v>
+      </c>
+      <c r="E55">
+        <v>6.9224490000000003</v>
+      </c>
+      <c r="F55">
+        <f>ROUND(E55*1000,0)</f>
+        <v>6922</v>
+      </c>
+      <c r="G55" t="str">
+        <f>_xlfn.CONCAT(C55,"=",B55,IF(E55&gt;3,_xlfn.CONCAT(" (",ROUND(E55,0),"s)"),""),",",F55)</f>
+        <v>408=tralala (7s),6922</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B56" t="s">
+        <v>953</v>
+      </c>
+      <c r="C56">
+        <v>409</v>
+      </c>
+      <c r="D56" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A56,CHAR(34)," ",CHAR(34),"0",C56,"_",B56,".mp3",CHAR(34))</f>
+        <v>ren "0409_trololol.mp3" "0409_trololol.mp3"</v>
+      </c>
+      <c r="E56">
+        <v>10.004898000000001</v>
+      </c>
+      <c r="F56">
+        <f>ROUND(E56*1000,0)</f>
+        <v>10005</v>
+      </c>
+      <c r="G56" t="str">
+        <f>_xlfn.CONCAT(C56,"=",B56,IF(E56&gt;3,_xlfn.CONCAT(" (",ROUND(E56,0),"s)"),""),",",F56)</f>
+        <v>409=trololol (10s),10005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B57" t="s">
+        <v>986</v>
+      </c>
+      <c r="C57">
+        <v>410</v>
+      </c>
+      <c r="D57" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A57,CHAR(34)," ",CHAR(34),"0",C57,"_",B57,".mp3",CHAR(34))</f>
+        <v>ren "0410_turn down for what.mp3" "0410_turn down for what.mp3"</v>
+      </c>
+      <c r="E57">
+        <v>6.2640000000000002</v>
+      </c>
+      <c r="F57">
+        <f>ROUND(E57*1000,0)</f>
+        <v>6264</v>
+      </c>
+      <c r="G57" t="str">
+        <f>_xlfn.CONCAT(C57,"=",B57,IF(E57&gt;3,_xlfn.CONCAT(" (",ROUND(E57,0),"s)"),""),",",F57)</f>
+        <v>410=turn down for what (6s),6264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>958</v>
+      </c>
+      <c r="B58" t="s">
+        <v>938</v>
+      </c>
+      <c r="C58">
+        <v>411</v>
+      </c>
+      <c r="D58" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A58,CHAR(34)," ",CHAR(34),"0",C58,"_",B58,".mp3",CHAR(34))</f>
+        <v>ren "0411_very nice.mp3" "0411_very nice.mp3"</v>
+      </c>
+      <c r="E58">
+        <v>3.2130610000000002</v>
+      </c>
+      <c r="F58">
+        <f>ROUND(E58*1000,0)</f>
+        <v>3213</v>
+      </c>
+      <c r="G58" t="str">
+        <f>_xlfn.CONCAT(C58,"=",B58,IF(E58&gt;3,_xlfn.CONCAT(" (",ROUND(E58,0),"s)"),""),",",F58)</f>
+        <v>411=very nice (3s),3213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B59" t="s">
+        <v>989</v>
+      </c>
+      <c r="C59">
+        <v>412</v>
+      </c>
+      <c r="D59" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A59,CHAR(34)," ",CHAR(34),"0",C59,"_",B59,".mp3",CHAR(34))</f>
+        <v>ren "0412_we are the champions.mp3" "0412_we are the champions.mp3"</v>
+      </c>
+      <c r="E59">
+        <v>15.098776000000001</v>
+      </c>
+      <c r="F59">
+        <f>ROUND(E59*1000,0)</f>
+        <v>15099</v>
+      </c>
+      <c r="G59" t="str">
+        <f>_xlfn.CONCAT(C59,"=",B59,IF(E59&gt;3,_xlfn.CONCAT(" (",ROUND(E59,0),"s)"),""),",",F59)</f>
+        <v>412=we are the champions (15s),15099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B60" t="s">
+        <v>990</v>
+      </c>
+      <c r="C60">
+        <v>413</v>
+      </c>
+      <c r="D60" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A60,CHAR(34)," ",CHAR(34),"0",C60,"_",B60,".mp3",CHAR(34))</f>
+        <v>ren "0413_wet fart.mp3" "0413_wet fart.mp3"</v>
+      </c>
+      <c r="E60">
+        <v>1.1755100000000001</v>
+      </c>
+      <c r="F60">
+        <f>ROUND(E60*1000,0)</f>
+        <v>1176</v>
+      </c>
+      <c r="G60" t="str">
+        <f>_xlfn.CONCAT(C60,"=",B60,IF(E60&gt;3,_xlfn.CONCAT(" (",ROUND(E60,0),"s)"),""),",",F60)</f>
+        <v>413=wet fart,1176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B61" t="s">
+        <v>991</v>
+      </c>
+      <c r="C61">
+        <v>414</v>
+      </c>
+      <c r="D61" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A61,CHAR(34)," ",CHAR(34),"0",C61,"_",B61,".mp3",CHAR(34))</f>
+        <v>ren "0414_what is love.mp3" "0414_what is love.mp3"</v>
+      </c>
+      <c r="E61">
+        <v>7.9151020000000001</v>
+      </c>
+      <c r="F61">
+        <f>ROUND(E61*1000,0)</f>
+        <v>7915</v>
+      </c>
+      <c r="G61" t="str">
+        <f>_xlfn.CONCAT(C61,"=",B61,IF(E61&gt;3,_xlfn.CONCAT(" (",ROUND(E61,0),"s)"),""),",",F61)</f>
+        <v>414=what is love (8s),7915</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B62" t="s">
+        <v>977</v>
+      </c>
+      <c r="C62">
+        <v>415</v>
+      </c>
+      <c r="D62" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A62,CHAR(34)," ",CHAR(34),"0",C62,"_",B62,".mp3",CHAR(34))</f>
+        <v>ren "0415_who cares.mp3" "0415_who cares.mp3"</v>
+      </c>
+      <c r="E62">
+        <v>3.2160000000000002</v>
+      </c>
+      <c r="F62">
+        <f>ROUND(E62*1000,0)</f>
+        <v>3216</v>
+      </c>
+      <c r="G62" t="str">
+        <f>_xlfn.CONCAT(C62,"=",B62,IF(E62&gt;3,_xlfn.CONCAT(" (",ROUND(E62,0),"s)"),""),",",F62)</f>
+        <v>415=who cares (3s),3216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B63" t="s">
+        <v>954</v>
+      </c>
+      <c r="C63">
+        <v>416</v>
+      </c>
+      <c r="D63" t="str">
+        <f>_xlfn.CONCAT("ren ",CHAR(34),A63,CHAR(34)," ",CHAR(34),"0",C63,"_",B63,".mp3",CHAR(34))</f>
+        <v>ren "0416_zelda.mp3" "0416_zelda.mp3"</v>
+      </c>
+      <c r="E63">
+        <v>1.4628570000000001</v>
+      </c>
+      <c r="F63">
+        <f>ROUND(E63*1000,0)</f>
+        <v>1463</v>
+      </c>
+      <c r="G63" t="str">
+        <f>_xlfn.CONCAT(C63,"=",B63,IF(E63&gt;3,_xlfn.CONCAT(" (",ROUND(E63,0),"s)"),""),",",F63)</f>
+        <v>416=zelda,1463</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G64">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JumperT8SG/voice/2-trim/files.xlsx
+++ b/JumperT8SG/voice/2-trim/files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erwin\Desktop\Research\JumperT8SG\voice\2-trim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AAEF2E-447E-45AC-BE59-71B53B062B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2BFAF0-D595-40F8-870C-33627552FDEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="17" windowWidth="23434" windowHeight="15017" activeTab="3" xr2:uid="{C40F0988-F622-4CE7-9E9C-F802A88E2C37}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="lengths" sheetId="2" r:id="rId2"/>
     <sheet name="original" sheetId="3" r:id="rId3"/>
     <sheet name="fx" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -12846,7 +12847,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D63" sqref="D2:D63"/>
+      <selection activeCell="G3" sqref="G3:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -12891,15 +12892,15 @@
         <v>ren "0355_airhorn.mp3" "0355_airhorn.mp3"</v>
       </c>
       <c r="E2">
-        <v>2.3248980000000001</v>
+        <v>3.0040819999999999</v>
       </c>
       <c r="F2">
         <f>ROUND(E2*1000,0)</f>
-        <v>2325</v>
+        <v>3004</v>
       </c>
       <c r="G2" t="str">
         <f>_xlfn.CONCAT(C2,"=",B2,IF(E2&gt;3,_xlfn.CONCAT(" (",ROUND(E2,0),"s)"),""),",",F2)</f>
-        <v>355=airhorn,2325</v>
+        <v>355=airhorn (3s),3004</v>
       </c>
       <c r="I2">
         <v>157</v>
@@ -12920,15 +12921,15 @@
         <v>ren "0356_angry.mp3" "0356_angry.mp3"</v>
       </c>
       <c r="E3">
-        <v>0.731429</v>
+        <v>1.4628570000000001</v>
       </c>
       <c r="F3">
         <f>ROUND(E3*1000,0)</f>
-        <v>731</v>
+        <v>1463</v>
       </c>
       <c r="G3" t="str">
         <f>_xlfn.CONCAT(C3,"=",B3,IF(E3&gt;3,_xlfn.CONCAT(" (",ROUND(E3,0),"s)"),""),",",F3)</f>
-        <v>356=angry,731</v>
+        <v>356=angry,1463</v>
       </c>
       <c r="I3">
         <v>158</v>
@@ -12949,15 +12950,15 @@
         <v>ren "0357_authoritah.mp3" "0357_authoritah.mp3"</v>
       </c>
       <c r="E4">
-        <v>2.586122</v>
+        <v>2.7460499999999999</v>
       </c>
       <c r="F4">
         <f>ROUND(E4*1000,0)</f>
-        <v>2586</v>
+        <v>2746</v>
       </c>
       <c r="G4" t="str">
         <f>_xlfn.CONCAT(C4,"=",B4,IF(E4&gt;3,_xlfn.CONCAT(" (",ROUND(E4,0),"s)"),""),",",F4)</f>
-        <v>357=authoritah,2586</v>
+        <v>357=authoritah,2746</v>
       </c>
       <c r="I4">
         <v>159</v>
@@ -12978,15 +12979,15 @@
         <v>ren "0358_balls of steel.mp3" "0358_balls of steel.mp3"</v>
       </c>
       <c r="E5">
-        <v>1.3322449999999999</v>
+        <v>2.1158999999999999</v>
       </c>
       <c r="F5">
         <f>ROUND(E5*1000,0)</f>
-        <v>1332</v>
+        <v>2116</v>
       </c>
       <c r="G5" t="str">
         <f>_xlfn.CONCAT(C5,"=",B5,IF(E5&gt;3,_xlfn.CONCAT(" (",ROUND(E5,0),"s)"),""),",",F5)</f>
-        <v>358=balls of steel,1332</v>
+        <v>358=balls of steel,2116</v>
       </c>
       <c r="I5">
         <v>160</v>
@@ -13007,15 +13008,15 @@
         <v>ren "0359_benny hill.mp3" "0359_benny hill.mp3"</v>
       </c>
       <c r="E6">
-        <v>15.255509999999999</v>
+        <v>15.569000000000001</v>
       </c>
       <c r="F6">
         <f>ROUND(E6*1000,0)</f>
-        <v>15256</v>
+        <v>15569</v>
       </c>
       <c r="G6" t="str">
         <f>_xlfn.CONCAT(C6,"=",B6,IF(E6&gt;3,_xlfn.CONCAT(" (",ROUND(E6,0),"s)"),""),",",F6)</f>
-        <v>359=benny hill (15s),15256</v>
+        <v>359=benny hill (16s),15569</v>
       </c>
       <c r="I6">
         <v>161</v>
@@ -13036,15 +13037,15 @@
         <v>ren "0360_bomb defused.mp3" "0360_bomb defused.mp3"</v>
       </c>
       <c r="E7">
-        <v>0.44408199999999998</v>
+        <v>1.8285709999999999</v>
       </c>
       <c r="F7">
         <f>ROUND(E7*1000,0)</f>
-        <v>444</v>
+        <v>1829</v>
       </c>
       <c r="G7" t="str">
         <f>_xlfn.CONCAT(C7,"=",B7,IF(E7&gt;3,_xlfn.CONCAT(" (",ROUND(E7,0),"s)"),""),",",F7)</f>
-        <v>360=bomb defused,444</v>
+        <v>360=bomb defused,1829</v>
       </c>
       <c r="I7">
         <v>162</v>
@@ -13065,15 +13066,15 @@
         <v>ren "0361_bomb planted.mp3" "0361_bomb planted.mp3"</v>
       </c>
       <c r="E8">
-        <v>0.28734700000000002</v>
+        <v>1.6195919999999999</v>
       </c>
       <c r="F8">
         <f>ROUND(E8*1000,0)</f>
-        <v>287</v>
+        <v>1620</v>
       </c>
       <c r="G8" t="str">
         <f>_xlfn.CONCAT(C8,"=",B8,IF(E8&gt;3,_xlfn.CONCAT(" (",ROUND(E8,0),"s)"),""),",",F8)</f>
-        <v>361=bomb planted,287</v>
+        <v>361=bomb planted,1620</v>
       </c>
       <c r="I8">
         <v>163</v>
@@ -13094,15 +13095,15 @@
         <v>ren "0362_boom.mp3" "0362_boom.mp3"</v>
       </c>
       <c r="E9">
-        <v>3.7877550000000002</v>
+        <v>6.5567349999999998</v>
       </c>
       <c r="F9">
         <f>ROUND(E9*1000,0)</f>
-        <v>3788</v>
+        <v>6557</v>
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT(C9,"=",B9,IF(E9&gt;3,_xlfn.CONCAT(" (",ROUND(E9,0),"s)"),""),",",F9)</f>
-        <v>362=boom (4s),3788</v>
+        <v>362=boom (7s),6557</v>
       </c>
       <c r="I9">
         <v>164</v>
@@ -13123,15 +13124,15 @@
         <v>ren "0363_build wall.mp3" "0363_build wall.mp3"</v>
       </c>
       <c r="E10">
-        <v>9.1679999999999993</v>
+        <v>9.8879999999999999</v>
       </c>
       <c r="F10">
         <f>ROUND(E10*1000,0)</f>
-        <v>9168</v>
+        <v>9888</v>
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT(C10,"=",B10,IF(E10&gt;3,_xlfn.CONCAT(" (",ROUND(E10,0),"s)"),""),",",F10)</f>
-        <v>363=build wall (9s),9168</v>
+        <v>363=build wall (10s),9888</v>
       </c>
       <c r="I10">
         <v>165</v>
@@ -13152,15 +13153,15 @@
         <v>ren "0364_careless whisper.mp3" "0364_careless whisper.mp3"</v>
       </c>
       <c r="E11">
-        <v>9.0906120000000001</v>
+        <v>9.0645000000000007</v>
       </c>
       <c r="F11">
         <f>ROUND(E11*1000,0)</f>
-        <v>9091</v>
+        <v>9065</v>
       </c>
       <c r="G11" t="str">
         <f>_xlfn.CONCAT(C11,"=",B11,IF(E11&gt;3,_xlfn.CONCAT(" (",ROUND(E11,0),"s)"),""),",",F11)</f>
-        <v>364=careless whisper (9s),9091</v>
+        <v>364=careless whisper (9s),9065</v>
       </c>
       <c r="I11">
         <v>166</v>
@@ -13181,15 +13182,15 @@
         <v>ren "0365_cartman2.mp3" "0365_cartman2.mp3"</v>
       </c>
       <c r="E12">
-        <v>0.88800000000000001</v>
+        <v>3.1013329999999999</v>
       </c>
       <c r="F12">
         <f>ROUND(E12*1000,0)</f>
-        <v>888</v>
+        <v>3101</v>
       </c>
       <c r="G12" t="str">
         <f>_xlfn.CONCAT(C12,"=",B12,IF(E12&gt;3,_xlfn.CONCAT(" (",ROUND(E12,0),"s)"),""),",",F12)</f>
-        <v>365=cartman2,888</v>
+        <v>365=cartman2 (3s),3101</v>
       </c>
       <c r="I12">
         <v>167</v>
@@ -13210,15 +13211,15 @@
         <v>ren "0366_curb.mp3" "0366_curb.mp3"</v>
       </c>
       <c r="E13">
-        <v>7.8106119999999999</v>
+        <v>8.0718499999999995</v>
       </c>
       <c r="F13">
         <f>ROUND(E13*1000,0)</f>
-        <v>7811</v>
+        <v>8072</v>
       </c>
       <c r="G13" t="str">
         <f>_xlfn.CONCAT(C13,"=",B13,IF(E13&gt;3,_xlfn.CONCAT(" (",ROUND(E13,0),"s)"),""),",",F13)</f>
-        <v>366=curb (8s),7811</v>
+        <v>366=curb (8s),8072</v>
       </c>
       <c r="I13">
         <v>168</v>
@@ -13239,15 +13240,15 @@
         <v>ren "0367_ding.mp3" "0367_ding.mp3"</v>
       </c>
       <c r="E14">
-        <v>1.8285709999999999</v>
+        <v>2.9518369999999998</v>
       </c>
       <c r="F14">
         <f>ROUND(E14*1000,0)</f>
-        <v>1829</v>
+        <v>2952</v>
       </c>
       <c r="G14" t="str">
         <f>_xlfn.CONCAT(C14,"=",B14,IF(E14&gt;3,_xlfn.CONCAT(" (",ROUND(E14,0),"s)"),""),",",F14)</f>
-        <v>367=ding,1829</v>
+        <v>367=ding,2952</v>
       </c>
       <c r="I14">
         <v>169</v>
@@ -13268,7 +13269,7 @@
         <v>ren "0370_epic.mp3" "0368_do not give up.mp3"</v>
       </c>
       <c r="E15">
-        <v>17.005714000000001</v>
+        <v>17.005749999999999</v>
       </c>
       <c r="F15">
         <f>ROUND(E15*1000,0)</f>
@@ -13297,15 +13298,15 @@
         <v>ren "0368_dramatic.mp3" "0369_dramatic.mp3"</v>
       </c>
       <c r="E16">
-        <v>5.5379589999999999</v>
+        <v>5.4857139999999998</v>
       </c>
       <c r="F16">
         <f>ROUND(E16*1000,0)</f>
-        <v>5538</v>
+        <v>5486</v>
       </c>
       <c r="G16" t="str">
         <f>_xlfn.CONCAT(C16,"=",B16,IF(E16&gt;3,_xlfn.CONCAT(" (",ROUND(E16,0),"s)"),""),",",F16)</f>
-        <v>369=dramatic (6s),5538</v>
+        <v>369=dramatic (5s),5486</v>
       </c>
       <c r="I16">
         <v>171</v>
@@ -13326,15 +13327,15 @@
         <v>ren "0369_elevator music.mp3" "0370_elevator music.mp3"</v>
       </c>
       <c r="E17">
-        <v>10.762449</v>
+        <v>10.710203999999999</v>
       </c>
       <c r="F17">
         <f>ROUND(E17*1000,0)</f>
-        <v>10762</v>
+        <v>10710</v>
       </c>
       <c r="G17" t="str">
         <f>_xlfn.CONCAT(C17,"=",B17,IF(E17&gt;3,_xlfn.CONCAT(" (",ROUND(E17,0),"s)"),""),",",F17)</f>
-        <v>370=elevator music (11s),10762</v>
+        <v>370=elevator music (11s),10710</v>
       </c>
       <c r="I17">
         <v>172</v>
@@ -13355,7 +13356,7 @@
         <v>ren "0371_epic sax.mp3" "0371_epic sax.mp3"</v>
       </c>
       <c r="E18">
-        <v>7.3926530000000001</v>
+        <v>7.3926759999999998</v>
       </c>
       <c r="F18">
         <f>ROUND(E18*1000,0)</f>
@@ -13384,15 +13385,15 @@
         <v>ren "0372_fart.mp3" "0372_fart.mp3"</v>
       </c>
       <c r="E19">
-        <v>2.2559999999999998</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="F19">
         <f>ROUND(E19*1000,0)</f>
-        <v>2256</v>
+        <v>336</v>
       </c>
       <c r="G19" t="str">
         <f>_xlfn.CONCAT(C19,"=",B19,IF(E19&gt;3,_xlfn.CONCAT(" (",ROUND(E19,0),"s)"),""),",",F19)</f>
-        <v>372=fart,2256</v>
+        <v>372=fart,336</v>
       </c>
       <c r="I19">
         <v>174</v>
@@ -13413,15 +13414,15 @@
         <v>ren "0373_final countdown.mp3" "0373_final countdown.mp3"</v>
       </c>
       <c r="E20">
-        <v>11.415509999999999</v>
+        <v>11.441875</v>
       </c>
       <c r="F20">
         <f>ROUND(E20*1000,0)</f>
-        <v>11416</v>
+        <v>11442</v>
       </c>
       <c r="G20" t="str">
         <f>_xlfn.CONCAT(C20,"=",B20,IF(E20&gt;3,_xlfn.CONCAT(" (",ROUND(E20,0),"s)"),""),",",F20)</f>
-        <v>373=final countdown (11s),11416</v>
+        <v>373=final countdown (11s),11442</v>
       </c>
       <c r="I20">
         <v>175</v>
@@ -13442,15 +13443,15 @@
         <v>ren "0374_for me.mp3" "0374_for me.mp3"</v>
       </c>
       <c r="E21">
-        <v>3.6048979999999999</v>
+        <v>3.5526529999999998</v>
       </c>
       <c r="F21">
         <f>ROUND(E21*1000,0)</f>
-        <v>3605</v>
+        <v>3553</v>
       </c>
       <c r="G21" t="str">
         <f>_xlfn.CONCAT(C21,"=",B21,IF(E21&gt;3,_xlfn.CONCAT(" (",ROUND(E21,0),"s)"),""),",",F21)</f>
-        <v>374=for me (4s),3605</v>
+        <v>374=for me (4s),3553</v>
       </c>
       <c r="I21">
         <v>176</v>
@@ -13471,15 +13472,15 @@
         <v>ren "0375_fuck this shit.mp3" "0375_fuck this shit.mp3"</v>
       </c>
       <c r="E22">
-        <v>2.496</v>
+        <v>2.8374999999999999</v>
       </c>
       <c r="F22">
         <f>ROUND(E22*1000,0)</f>
-        <v>2496</v>
+        <v>2838</v>
       </c>
       <c r="G22" t="str">
         <f>_xlfn.CONCAT(C22,"=",B22,IF(E22&gt;3,_xlfn.CONCAT(" (",ROUND(E22,0),"s)"),""),",",F22)</f>
-        <v>375=fuck this shit,2496</v>
+        <v>375=fuck this shit,2838</v>
       </c>
       <c r="I22">
         <v>177</v>
@@ -13500,15 +13501,15 @@
         <v>ren "0376_fuck yea.mp3" "0376_fuck yea.mp3"</v>
       </c>
       <c r="E23">
-        <v>3.056327</v>
+        <v>3.0301999999999998</v>
       </c>
       <c r="F23">
         <f>ROUND(E23*1000,0)</f>
-        <v>3056</v>
+        <v>3030</v>
       </c>
       <c r="G23" t="str">
         <f>_xlfn.CONCAT(C23,"=",B23,IF(E23&gt;3,_xlfn.CONCAT(" (",ROUND(E23,0),"s)"),""),",",F23)</f>
-        <v>376=fuck yea (3s),3056</v>
+        <v>376=fuck yea (3s),3030</v>
       </c>
       <c r="I23">
         <v>178</v>
@@ -13529,15 +13530,15 @@
         <v>ren "0377_get choppah.mp3" "0377_get choppah.mp3"</v>
       </c>
       <c r="E24">
-        <v>1.0187759999999999</v>
+        <v>1.985306</v>
       </c>
       <c r="F24">
         <f>ROUND(E24*1000,0)</f>
-        <v>1019</v>
+        <v>1985</v>
       </c>
       <c r="G24" t="str">
         <f>_xlfn.CONCAT(C24,"=",B24,IF(E24&gt;3,_xlfn.CONCAT(" (",ROUND(E24,0),"s)"),""),",",F24)</f>
-        <v>377=get choppah,1019</v>
+        <v>377=get choppah,1985</v>
       </c>
       <c r="I24">
         <v>179</v>
@@ -13558,15 +13559,15 @@
         <v>ren "0378_ha ha.mp3" "0378_ha ha.mp3"</v>
       </c>
       <c r="E25">
-        <v>0.731429</v>
+        <v>1.3520000000000001</v>
       </c>
       <c r="F25">
         <f>ROUND(E25*1000,0)</f>
-        <v>731</v>
+        <v>1352</v>
       </c>
       <c r="G25" t="str">
         <f>_xlfn.CONCAT(C25,"=",B25,IF(E25&gt;3,_xlfn.CONCAT(" (",ROUND(E25,0),"s)"),""),",",F25)</f>
-        <v>378=ha ha,731</v>
+        <v>378=ha ha,1352</v>
       </c>
       <c r="I25">
         <v>180</v>
@@ -13587,15 +13588,15 @@
         <v>ren "0379_I believe I can fly.mp3" "0379_I believe I can fly.mp3"</v>
       </c>
       <c r="E26">
-        <v>15.255509999999999</v>
+        <v>15.787070999999999</v>
       </c>
       <c r="F26">
         <f>ROUND(E26*1000,0)</f>
-        <v>15256</v>
+        <v>15787</v>
       </c>
       <c r="G26" t="str">
         <f>_xlfn.CONCAT(C26,"=",B26,IF(E26&gt;3,_xlfn.CONCAT(" (",ROUND(E26,0),"s)"),""),",",F26)</f>
-        <v>379=I believe I can fly (15s),15256</v>
+        <v>379=I believe I can fly (16s),15787</v>
       </c>
       <c r="I26">
         <v>181</v>
@@ -13616,15 +13617,15 @@
         <v>ren "0380_ill be back.mp3" "0380_ill be back.mp3"</v>
       </c>
       <c r="E27">
-        <v>0.731429</v>
+        <v>1.217625</v>
       </c>
       <c r="F27">
         <f>ROUND(E27*1000,0)</f>
-        <v>731</v>
+        <v>1218</v>
       </c>
       <c r="G27" t="str">
         <f>_xlfn.CONCAT(C27,"=",B27,IF(E27&gt;3,_xlfn.CONCAT(" (",ROUND(E27,0),"s)"),""),",",F27)</f>
-        <v>380=ill be back,731</v>
+        <v>380=ill be back,1218</v>
       </c>
       <c r="I27">
         <v>182</v>
@@ -13645,15 +13646,15 @@
         <v>ren "0381_im really rich.mp3" "0381_im really rich.mp3"</v>
       </c>
       <c r="E28">
-        <v>0.96653100000000003</v>
+        <v>1.097143</v>
       </c>
       <c r="F28">
         <f>ROUND(E28*1000,0)</f>
-        <v>967</v>
+        <v>1097</v>
       </c>
       <c r="G28" t="str">
         <f>_xlfn.CONCAT(C28,"=",B28,IF(E28&gt;3,_xlfn.CONCAT(" (",ROUND(E28,0),"s)"),""),",",F28)</f>
-        <v>381=im really rich,967</v>
+        <v>381=im really rich,1097</v>
       </c>
       <c r="I28">
         <v>183</v>
@@ -13674,15 +13675,15 @@
         <v>ren "0382_inception.mp3" "0382_inception.mp3"</v>
       </c>
       <c r="E29">
-        <v>2.8734690000000001</v>
+        <v>3.0382500000000001</v>
       </c>
       <c r="F29">
         <f>ROUND(E29*1000,0)</f>
-        <v>2873</v>
+        <v>3038</v>
       </c>
       <c r="G29" t="str">
         <f>_xlfn.CONCAT(C29,"=",B29,IF(E29&gt;3,_xlfn.CONCAT(" (",ROUND(E29,0),"s)"),""),",",F29)</f>
-        <v>382=inception,2873</v>
+        <v>382=inception (3s),3038</v>
       </c>
       <c r="I29">
         <v>184</v>
@@ -13703,15 +13704,15 @@
         <v>ren "0383_joke.mp3" "0383_joke.mp3"</v>
       </c>
       <c r="E30">
-        <v>0.86204099999999995</v>
+        <v>2.4555099999999999</v>
       </c>
       <c r="F30">
         <f>ROUND(E30*1000,0)</f>
-        <v>862</v>
+        <v>2456</v>
       </c>
       <c r="G30" t="str">
         <f>_xlfn.CONCAT(C30,"=",B30,IF(E30&gt;3,_xlfn.CONCAT(" (",ROUND(E30,0),"s)"),""),",",F30)</f>
-        <v>383=joke,862</v>
+        <v>383=joke,2456</v>
       </c>
       <c r="I30">
         <v>185</v>
@@ -13732,15 +13733,15 @@
         <v>ren "0384_lets get ready.mp3" "0384_lets get ready.mp3"</v>
       </c>
       <c r="E31">
-        <v>7.1836729999999998</v>
+        <v>7.1574999999999998</v>
       </c>
       <c r="F31">
         <f>ROUND(E31*1000,0)</f>
-        <v>7184</v>
+        <v>7158</v>
       </c>
       <c r="G31" t="str">
         <f>_xlfn.CONCAT(C31,"=",B31,IF(E31&gt;3,_xlfn.CONCAT(" (",ROUND(E31,0),"s)"),""),",",F31)</f>
-        <v>384=lets get ready (7s),7184</v>
+        <v>384=lets get ready (7s),7158</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -13758,15 +13759,15 @@
         <v>ren "0385_mario jump.mp3" "0385_mario jump.mp3"</v>
       </c>
       <c r="E32">
-        <v>1.6457139999999999</v>
+        <v>0.86204099999999995</v>
       </c>
       <c r="F32">
         <f>ROUND(E32*1000,0)</f>
-        <v>1646</v>
+        <v>862</v>
       </c>
       <c r="G32" t="str">
         <f>_xlfn.CONCAT(C32,"=",B32,IF(E32&gt;3,_xlfn.CONCAT(" (",ROUND(E32,0),"s)"),""),",",F32)</f>
-        <v>385=mario jump,1646</v>
+        <v>385=mario jump,862</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -13784,15 +13785,15 @@
         <v>ren "0386_metal gear.mp3" "0386_metal gear.mp3"</v>
       </c>
       <c r="E33">
-        <v>1.3583670000000001</v>
+        <v>1.880816</v>
       </c>
       <c r="F33">
         <f>ROUND(E33*1000,0)</f>
-        <v>1358</v>
+        <v>1881</v>
       </c>
       <c r="G33" t="str">
         <f>_xlfn.CONCAT(C33,"=",B33,IF(E33&gt;3,_xlfn.CONCAT(" (",ROUND(E33,0),"s)"),""),",",F33)</f>
-        <v>386=metal gear,1358</v>
+        <v>386=metal gear,1881</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -13810,15 +13811,15 @@
         <v>ren "0387_mission impossible.mp3" "0387_mission impossible.mp3"</v>
       </c>
       <c r="E34">
-        <v>30.197551000000001</v>
+        <v>30.145306000000001</v>
       </c>
       <c r="F34">
         <f>ROUND(E34*1000,0)</f>
-        <v>30198</v>
+        <v>30145</v>
       </c>
       <c r="G34" t="str">
         <f>_xlfn.CONCAT(C34,"=",B34,IF(E34&gt;3,_xlfn.CONCAT(" (",ROUND(E34,0),"s)"),""),",",F34)</f>
-        <v>387=mission impossible (30s),30198</v>
+        <v>387=mission impossible (30s),30145</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -13836,15 +13837,15 @@
         <v>ren "0388_nein.mp3" "0388_nein.mp3"</v>
       </c>
       <c r="E35">
-        <v>2.8473470000000001</v>
+        <v>3.2657500000000002</v>
       </c>
       <c r="F35">
         <f>ROUND(E35*1000,0)</f>
-        <v>2847</v>
+        <v>3266</v>
       </c>
       <c r="G35" t="str">
         <f>_xlfn.CONCAT(C35,"=",B35,IF(E35&gt;3,_xlfn.CONCAT(" (",ROUND(E35,0),"s)"),""),",",F35)</f>
-        <v>388=nein,2847</v>
+        <v>388=nein (3s),3266</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -13862,15 +13863,15 @@
         <v>ren "0389_nerd.mp3" "0389_nerd.mp3"</v>
       </c>
       <c r="E36">
-        <v>1.985306</v>
+        <v>3.578776</v>
       </c>
       <c r="F36">
         <f>ROUND(E36*1000,0)</f>
-        <v>1985</v>
+        <v>3579</v>
       </c>
       <c r="G36" t="str">
         <f>_xlfn.CONCAT(C36,"=",B36,IF(E36&gt;3,_xlfn.CONCAT(" (",ROUND(E36,0),"s)"),""),",",F36)</f>
-        <v>389=nerd,1985</v>
+        <v>389=nerd (4s),3579</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -13888,15 +13889,15 @@
         <v>ren "0390_nigga you gay.mp3" "0390_nigga you gay.mp3"</v>
       </c>
       <c r="E37">
-        <v>3.8138779999999999</v>
+        <v>3.944458</v>
       </c>
       <c r="F37">
         <f>ROUND(E37*1000,0)</f>
-        <v>3814</v>
+        <v>3944</v>
       </c>
       <c r="G37" t="str">
         <f>_xlfn.CONCAT(C37,"=",B37,IF(E37&gt;3,_xlfn.CONCAT(" (",ROUND(E37,0),"s)"),""),",",F37)</f>
-        <v>390=nigga you gay (4s),3814</v>
+        <v>390=nigga you gay (4s),3944</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -13914,15 +13915,15 @@
         <v>ren "0391_no problemo.mp3" "0391_no problemo.mp3"</v>
       </c>
       <c r="E38">
-        <v>1.1493880000000001</v>
+        <v>0.96653100000000003</v>
       </c>
       <c r="F38">
         <f>ROUND(E38*1000,0)</f>
-        <v>1149</v>
+        <v>967</v>
       </c>
       <c r="G38" t="str">
         <f>_xlfn.CONCAT(C38,"=",B38,IF(E38&gt;3,_xlfn.CONCAT(" (",ROUND(E38,0),"s)"),""),",",F38)</f>
-        <v>391=no problemo,1149</v>
+        <v>391=no problemo,967</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -13940,15 +13941,15 @@
         <v>ren "0392_nooo.mp3" "0392_nooo.mp3"</v>
       </c>
       <c r="E39">
-        <v>5.3551019999999996</v>
+        <v>5.3027499999999996</v>
       </c>
       <c r="F39">
         <f>ROUND(E39*1000,0)</f>
-        <v>5355</v>
+        <v>5303</v>
       </c>
       <c r="G39" t="str">
         <f>_xlfn.CONCAT(C39,"=",B39,IF(E39&gt;3,_xlfn.CONCAT(" (",ROUND(E39,0),"s)"),""),",",F39)</f>
-        <v>392=nooo (5s),5355</v>
+        <v>392=nooo (5s),5303</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -13966,15 +13967,15 @@
         <v>ren "0393_over9000.mp3" "0393_over9000.mp3"</v>
       </c>
       <c r="E40">
-        <v>2.2465310000000001</v>
+        <v>2.6383749999999999</v>
       </c>
       <c r="F40">
         <f>ROUND(E40*1000,0)</f>
-        <v>2247</v>
+        <v>2638</v>
       </c>
       <c r="G40" t="str">
         <f>_xlfn.CONCAT(C40,"=",B40,IF(E40&gt;3,_xlfn.CONCAT(" (",ROUND(E40,0),"s)"),""),",",F40)</f>
-        <v>393=over9000,2247</v>
+        <v>393=over9000,2638</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -13992,15 +13993,15 @@
         <v>ren "0394_pickle rick.mp3" "0394_pickle rick.mp3"</v>
       </c>
       <c r="E41">
-        <v>5.2245E-2</v>
+        <v>1.933208</v>
       </c>
       <c r="F41">
         <f>ROUND(E41*1000,0)</f>
-        <v>52</v>
+        <v>1933</v>
       </c>
       <c r="G41" t="str">
         <f>_xlfn.CONCAT(C41,"=",B41,IF(E41&gt;3,_xlfn.CONCAT(" (",ROUND(E41,0),"s)"),""),",",F41)</f>
-        <v>394=pickle rick,52</v>
+        <v>394=pickle rick,1933</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -14018,15 +14019,15 @@
         <v>ren "0395_ps1.mp3" "0395_ps1.mp3"</v>
       </c>
       <c r="E42">
-        <v>14.680816</v>
+        <v>18.181125000000002</v>
       </c>
       <c r="F42">
         <f>ROUND(E42*1000,0)</f>
-        <v>14681</v>
+        <v>18181</v>
       </c>
       <c r="G42" t="str">
         <f>_xlfn.CONCAT(C42,"=",B42,IF(E42&gt;3,_xlfn.CONCAT(" (",ROUND(E42,0),"s)"),""),",",F42)</f>
-        <v>395=ps1 (15s),14681</v>
+        <v>395=ps1 (18s),18181</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -14044,15 +14045,15 @@
         <v>ren "0396_pussy.mp3" "0396_pussy.mp3"</v>
       </c>
       <c r="E43">
-        <v>1.5412239999999999</v>
+        <v>0.83591800000000005</v>
       </c>
       <c r="F43">
         <f>ROUND(E43*1000,0)</f>
-        <v>1541</v>
+        <v>836</v>
       </c>
       <c r="G43" t="str">
         <f>_xlfn.CONCAT(C43,"=",B43,IF(E43&gt;3,_xlfn.CONCAT(" (",ROUND(E43,0),"s)"),""),",",F43)</f>
-        <v>396=pussy,1541</v>
+        <v>396=pussy,836</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -14070,15 +14071,15 @@
         <v>ren "0397_retard.mp3" "0397_retard.mp3"</v>
       </c>
       <c r="E44">
-        <v>1.2277549999999999</v>
+        <v>2.08975</v>
       </c>
       <c r="F44">
         <f>ROUND(E44*1000,0)</f>
-        <v>1228</v>
+        <v>2090</v>
       </c>
       <c r="G44" t="str">
         <f>_xlfn.CONCAT(C44,"=",B44,IF(E44&gt;3,_xlfn.CONCAT(" (",ROUND(E44,0),"s)"),""),",",F44)</f>
-        <v>397=retard,1228</v>
+        <v>397=retard,2090</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -14096,15 +14097,15 @@
         <v>ren "0398_retard alert.mp3" "0398_retard alert.mp3"</v>
       </c>
       <c r="E45">
-        <v>1.2277549999999999</v>
+        <v>2.08975</v>
       </c>
       <c r="F45">
         <f>ROUND(E45*1000,0)</f>
-        <v>1228</v>
+        <v>2090</v>
       </c>
       <c r="G45" t="str">
         <f>_xlfn.CONCAT(C45,"=",B45,IF(E45&gt;3,_xlfn.CONCAT(" (",ROUND(E45,0),"s)"),""),",",F45)</f>
-        <v>398=retard alert,1228</v>
+        <v>398=retard alert,2090</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -14122,7 +14123,7 @@
         <v>ren "0399_run.mp3" "0399_run.mp3"</v>
       </c>
       <c r="E46">
-        <v>10.24</v>
+        <v>10.240167</v>
       </c>
       <c r="F46">
         <f>ROUND(E46*1000,0)</f>
@@ -14148,15 +14149,15 @@
         <v>ren "0400_sad.mp3" "0400_sad.mp3"</v>
       </c>
       <c r="E47">
-        <v>2.76898</v>
+        <v>3.6226880000000001</v>
       </c>
       <c r="F47">
         <f>ROUND(E47*1000,0)</f>
-        <v>2769</v>
+        <v>3623</v>
       </c>
       <c r="G47" t="str">
         <f>_xlfn.CONCAT(C47,"=",B47,IF(E47&gt;3,_xlfn.CONCAT(" (",ROUND(E47,0),"s)"),""),",",F47)</f>
-        <v>400=sad,2769</v>
+        <v>400=sad (4s),3623</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -14174,15 +14175,15 @@
         <v>ren "0401_sexy.mp3" "0401_sexy.mp3"</v>
       </c>
       <c r="E48">
-        <v>10.24</v>
+        <v>11.467750000000001</v>
       </c>
       <c r="F48">
         <f>ROUND(E48*1000,0)</f>
-        <v>10240</v>
+        <v>11468</v>
       </c>
       <c r="G48" t="str">
         <f>_xlfn.CONCAT(C48,"=",B48,IF(E48&gt;3,_xlfn.CONCAT(" (",ROUND(E48,0),"s)"),""),",",F48)</f>
-        <v>401=sexy (10s),10240</v>
+        <v>401=sexy (11s),11468</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -14200,15 +14201,15 @@
         <v>ren "0402_shutup.mp3" "0402_shutup.mp3"</v>
       </c>
       <c r="E49">
-        <v>0.78367299999999995</v>
+        <v>1.1493880000000001</v>
       </c>
       <c r="F49">
         <f>ROUND(E49*1000,0)</f>
-        <v>784</v>
+        <v>1149</v>
       </c>
       <c r="G49" t="str">
         <f>_xlfn.CONCAT(C49,"=",B49,IF(E49&gt;3,_xlfn.CONCAT(" (",ROUND(E49,0),"s)"),""),",",F49)</f>
-        <v>402=shutup,784</v>
+        <v>402=shutup,1149</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -14226,15 +14227,15 @@
         <v>ren "0403_spanish flea.mp3" "0403_spanish flea.mp3"</v>
       </c>
       <c r="E50">
-        <v>12.538776</v>
+        <v>12.546749999999999</v>
       </c>
       <c r="F50">
         <f>ROUND(E50*1000,0)</f>
-        <v>12539</v>
+        <v>12547</v>
       </c>
       <c r="G50" t="str">
         <f>_xlfn.CONCAT(C50,"=",B50,IF(E50&gt;3,_xlfn.CONCAT(" (",ROUND(E50,0),"s)"),""),",",F50)</f>
-        <v>403=spanish flea (13s),12539</v>
+        <v>403=spanish flea (13s),12547</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -14252,15 +14253,15 @@
         <v>ren "0404_star theme.mp3" "0404_star theme.mp3"</v>
       </c>
       <c r="E51">
-        <v>11.859591999999999</v>
+        <v>12.295999999999999</v>
       </c>
       <c r="F51">
         <f>ROUND(E51*1000,0)</f>
-        <v>11860</v>
+        <v>12296</v>
       </c>
       <c r="G51" t="str">
         <f>_xlfn.CONCAT(C51,"=",B51,IF(E51&gt;3,_xlfn.CONCAT(" (",ROUND(E51,0),"s)"),""),",",F51)</f>
-        <v>404=star theme (12s),11860</v>
+        <v>404=star theme (12s),12296</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -14278,15 +14279,15 @@
         <v>ren "0405_taldo.mp3" "0405_taldo.mp3"</v>
       </c>
       <c r="E52">
-        <v>0.20898</v>
+        <v>1.880816</v>
       </c>
       <c r="F52">
         <f>ROUND(E52*1000,0)</f>
-        <v>209</v>
+        <v>1881</v>
       </c>
       <c r="G52" t="str">
         <f>_xlfn.CONCAT(C52,"=",B52,IF(E52&gt;3,_xlfn.CONCAT(" (",ROUND(E52,0),"s)"),""),",",F52)</f>
-        <v>405=taldo,209</v>
+        <v>405=taldo,1881</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -14304,15 +14305,15 @@
         <v>ren "0406_this is sparta.mp3" "0406_this is sparta.mp3"</v>
       </c>
       <c r="E53">
-        <v>4.9110199999999997</v>
+        <v>5.1520000000000001</v>
       </c>
       <c r="F53">
         <f>ROUND(E53*1000,0)</f>
-        <v>4911</v>
+        <v>5152</v>
       </c>
       <c r="G53" t="str">
         <f>_xlfn.CONCAT(C53,"=",B53,IF(E53&gt;3,_xlfn.CONCAT(" (",ROUND(E53,0),"s)"),""),",",F53)</f>
-        <v>406=this is sparta (5s),4911</v>
+        <v>406=this is sparta (5s),5152</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -14330,7 +14331,7 @@
         <v>ren "0407_thug life.mp3" "0407_thug life.mp3"</v>
       </c>
       <c r="E54">
-        <v>9.9526529999999998</v>
+        <v>9.9529370000000004</v>
       </c>
       <c r="F54">
         <f>ROUND(E54*1000,0)</f>
@@ -14356,15 +14357,15 @@
         <v>ren "0408_tralala.mp3" "0408_tralala.mp3"</v>
       </c>
       <c r="E55">
-        <v>6.9224490000000003</v>
+        <v>7.340687</v>
       </c>
       <c r="F55">
         <f>ROUND(E55*1000,0)</f>
-        <v>6922</v>
+        <v>7341</v>
       </c>
       <c r="G55" t="str">
         <f>_xlfn.CONCAT(C55,"=",B55,IF(E55&gt;3,_xlfn.CONCAT(" (",ROUND(E55,0),"s)"),""),",",F55)</f>
-        <v>408=tralala (7s),6922</v>
+        <v>408=tralala (7s),7341</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -14382,15 +14383,15 @@
         <v>ren "0409_trololol.mp3" "0409_trololol.mp3"</v>
       </c>
       <c r="E56">
-        <v>10.004898000000001</v>
+        <v>9.9526529999999998</v>
       </c>
       <c r="F56">
         <f>ROUND(E56*1000,0)</f>
-        <v>10005</v>
+        <v>9953</v>
       </c>
       <c r="G56" t="str">
         <f>_xlfn.CONCAT(C56,"=",B56,IF(E56&gt;3,_xlfn.CONCAT(" (",ROUND(E56,0),"s)"),""),",",F56)</f>
-        <v>409=trololol (10s),10005</v>
+        <v>409=trololol (10s),9953</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
@@ -14408,15 +14409,15 @@
         <v>ren "0410_turn down for what.mp3" "0410_turn down for what.mp3"</v>
       </c>
       <c r="E57">
-        <v>6.2640000000000002</v>
+        <v>6.36</v>
       </c>
       <c r="F57">
         <f>ROUND(E57*1000,0)</f>
-        <v>6264</v>
+        <v>6360</v>
       </c>
       <c r="G57" t="str">
         <f>_xlfn.CONCAT(C57,"=",B57,IF(E57&gt;3,_xlfn.CONCAT(" (",ROUND(E57,0),"s)"),""),",",F57)</f>
-        <v>410=turn down for what (6s),6264</v>
+        <v>410=turn down for what (6s),6360</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -14434,15 +14435,15 @@
         <v>ren "0411_very nice.mp3" "0411_very nice.mp3"</v>
       </c>
       <c r="E58">
-        <v>3.2130610000000002</v>
+        <v>7.2097499999999997</v>
       </c>
       <c r="F58">
         <f>ROUND(E58*1000,0)</f>
-        <v>3213</v>
+        <v>7210</v>
       </c>
       <c r="G58" t="str">
         <f>_xlfn.CONCAT(C58,"=",B58,IF(E58&gt;3,_xlfn.CONCAT(" (",ROUND(E58,0),"s)"),""),",",F58)</f>
-        <v>411=very nice (3s),3213</v>
+        <v>411=very nice (7s),7210</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -14460,15 +14461,15 @@
         <v>ren "0412_we are the champions.mp3" "0412_we are the champions.mp3"</v>
       </c>
       <c r="E59">
-        <v>15.098776000000001</v>
+        <v>15.333878</v>
       </c>
       <c r="F59">
         <f>ROUND(E59*1000,0)</f>
-        <v>15099</v>
+        <v>15334</v>
       </c>
       <c r="G59" t="str">
         <f>_xlfn.CONCAT(C59,"=",B59,IF(E59&gt;3,_xlfn.CONCAT(" (",ROUND(E59,0),"s)"),""),",",F59)</f>
-        <v>412=we are the champions (15s),15099</v>
+        <v>412=we are the champions (15s),15334</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
@@ -14486,15 +14487,15 @@
         <v>ren "0413_wet fart.mp3" "0413_wet fart.mp3"</v>
       </c>
       <c r="E60">
-        <v>1.1755100000000001</v>
+        <v>1.7240819999999999</v>
       </c>
       <c r="F60">
         <f>ROUND(E60*1000,0)</f>
-        <v>1176</v>
+        <v>1724</v>
       </c>
       <c r="G60" t="str">
         <f>_xlfn.CONCAT(C60,"=",B60,IF(E60&gt;3,_xlfn.CONCAT(" (",ROUND(E60,0),"s)"),""),",",F60)</f>
-        <v>413=wet fart,1176</v>
+        <v>413=wet fart,1724</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -14512,15 +14513,15 @@
         <v>ren "0414_what is love.mp3" "0414_what is love.mp3"</v>
       </c>
       <c r="E61">
-        <v>7.9151020000000001</v>
+        <v>9.4346250000000005</v>
       </c>
       <c r="F61">
         <f>ROUND(E61*1000,0)</f>
-        <v>7915</v>
+        <v>9435</v>
       </c>
       <c r="G61" t="str">
         <f>_xlfn.CONCAT(C61,"=",B61,IF(E61&gt;3,_xlfn.CONCAT(" (",ROUND(E61,0),"s)"),""),",",F61)</f>
-        <v>414=what is love (8s),7915</v>
+        <v>414=what is love (9s),9435</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
@@ -14538,15 +14539,15 @@
         <v>ren "0415_who cares.mp3" "0415_who cares.mp3"</v>
       </c>
       <c r="E62">
-        <v>3.2160000000000002</v>
+        <v>4.1760000000000002</v>
       </c>
       <c r="F62">
         <f>ROUND(E62*1000,0)</f>
-        <v>3216</v>
+        <v>4176</v>
       </c>
       <c r="G62" t="str">
         <f>_xlfn.CONCAT(C62,"=",B62,IF(E62&gt;3,_xlfn.CONCAT(" (",ROUND(E62,0),"s)"),""),",",F62)</f>
-        <v>415=who cares (3s),3216</v>
+        <v>415=who cares (4s),4176</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
@@ -14564,15 +14565,15 @@
         <v>ren "0416_zelda.mp3" "0416_zelda.mp3"</v>
       </c>
       <c r="E63">
-        <v>1.4628570000000001</v>
+        <v>2.6383670000000001</v>
       </c>
       <c r="F63">
         <f>ROUND(E63*1000,0)</f>
-        <v>1463</v>
+        <v>2638</v>
       </c>
       <c r="G63" t="str">
         <f>_xlfn.CONCAT(C63,"=",B63,IF(E63&gt;3,_xlfn.CONCAT(" (",ROUND(E63,0),"s)"),""),",",F63)</f>
-        <v>416=zelda,1463</v>
+        <v>416=zelda,2638</v>
       </c>
     </row>
   </sheetData>
@@ -14581,4 +14582,18 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFF19F8-6BCA-4659-9B9C-E70C8F808770}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>